--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5278C90-9A6E-4B7E-8771-D3F63F85C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C89F4-6D53-41A2-AD77-131F3C8E2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="735">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2310,6 +2310,22 @@
   </si>
   <si>
     <t>居一英</t>
+  </si>
+  <si>
+    <t>lik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2874,15 +2890,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2894,6 +2901,15 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3999,7 +4015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4115,14 +4133,18 @@
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>731</v>
+      </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22" t="s">
+        <v>732</v>
+      </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -4130,7 +4152,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="T3" s="24"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="58" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4178,59 +4200,59 @@
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="27"/>
-      <c r="V4" s="55"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="54" t="s">
         <v>89</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="54" t="s">
         <v>96</v>
       </c>
       <c r="R5" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S5" s="29"/>
-      <c r="V5" s="55"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="30"/>
@@ -4277,7 +4299,7 @@
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="33"/>
-      <c r="V6" s="55"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="35"/>
@@ -4298,7 +4320,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="37"/>
-      <c r="V7" s="55"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
@@ -4342,61 +4364,61 @@
         <v>336</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="55"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="28">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="54" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="54" t="s">
         <v>103</v>
       </c>
       <c r="Q9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="57" t="s">
+      <c r="R9" s="54" t="s">
         <v>104</v>
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="24"/>
-      <c r="V9" s="55"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
@@ -4440,7 +4462,7 @@
         <v>526</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="40"/>
@@ -4453,14 +4475,18 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>733</v>
+      </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="P11" s="22" t="s">
+        <v>734</v>
+      </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="V11" s="55"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
@@ -4506,60 +4532,60 @@
         <v>348</v>
       </c>
       <c r="S12" s="27"/>
-      <c r="V12" s="55"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="28">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="54" t="s">
         <v>109</v>
       </c>
       <c r="I13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="54" t="s">
         <v>113</v>
       </c>
       <c r="N13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="57" t="s">
+      <c r="Q13" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="57" t="s">
+      <c r="R13" s="54" t="s">
         <v>117</v>
       </c>
       <c r="S13" s="29"/>
-      <c r="V13" s="55"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
@@ -4605,7 +4631,7 @@
         <v>539</v>
       </c>
       <c r="S14" s="39"/>
-      <c r="V14" s="55"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="20"/>
@@ -4625,7 +4651,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="V15" s="55"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
@@ -4671,60 +4697,60 @@
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="28">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="57" t="s">
+      <c r="O17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="57" t="s">
+      <c r="Q17" s="54" t="s">
         <v>126</v>
       </c>
       <c r="R17" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="29"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
@@ -4770,7 +4796,7 @@
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="39"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="20"/>
@@ -4790,7 +4816,7 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
-      <c r="V19" s="55"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="25"/>
@@ -4810,7 +4836,7 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
-      <c r="V20" s="55"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="28">
@@ -4835,7 +4861,7 @@
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="29"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="30"/>
@@ -4855,7 +4881,7 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="39"/>
-      <c r="V22" s="56"/>
+      <c r="V22" s="60"/>
     </row>
     <row r="23" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="20"/>
@@ -5025,49 +5051,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="54" t="s">
         <v>130</v>
       </c>
       <c r="K29" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="57" t="s">
+      <c r="M29" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="57" t="s">
+      <c r="N29" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="O29" s="57" t="s">
+      <c r="O29" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="57" t="s">
+      <c r="P29" s="54" t="s">
         <v>134</v>
       </c>
       <c r="Q29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="57" t="s">
+      <c r="R29" s="54" t="s">
         <v>135</v>
       </c>
       <c r="S29" s="29"/>
@@ -5204,49 +5230,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="54" t="s">
         <v>137</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="54" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="L33" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="M33" s="57" t="s">
+      <c r="M33" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="N33" s="54" t="s">
         <v>142</v>
       </c>
       <c r="O33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="Q33" s="57" t="s">
+      <c r="Q33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R33" s="54" t="s">
         <v>144</v>
       </c>
       <c r="S33" s="29"/>
@@ -5365,49 +5391,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="54" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="57" t="s">
+      <c r="H37" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="54" t="s">
         <v>149</v>
       </c>
       <c r="J37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="57" t="s">
+      <c r="K37" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="57" t="s">
+      <c r="L37" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="57" t="s">
+      <c r="M37" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="54" t="s">
         <v>153</v>
       </c>
       <c r="O37" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="R37" s="57" t="s">
+      <c r="R37" s="54" t="s">
         <v>107</v>
       </c>
       <c r="S37" s="29"/>
@@ -5528,49 +5554,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="54" t="s">
         <v>156</v>
       </c>
       <c r="J41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="L41" s="57" t="s">
+      <c r="L41" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="57" t="s">
+      <c r="M41" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N41" s="57" t="s">
+      <c r="N41" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="O41" s="57" t="s">
+      <c r="O41" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="P41" s="57" t="s">
+      <c r="P41" s="54" t="s">
         <v>160</v>
       </c>
       <c r="Q41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="57" t="s">
+      <c r="R41" s="54" t="s">
         <v>161</v>
       </c>
       <c r="S41" s="29"/>
@@ -5693,49 +5719,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="54" t="s">
         <v>164</v>
       </c>
       <c r="I45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="57" t="s">
+      <c r="J45" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K45" s="57" t="s">
+      <c r="K45" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="57" t="s">
+      <c r="L45" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="M45" s="57" t="s">
+      <c r="M45" s="54" t="s">
         <v>167</v>
       </c>
       <c r="N45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O45" s="57" t="s">
+      <c r="O45" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="P45" s="57" t="s">
+      <c r="P45" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="Q45" s="57" t="s">
+      <c r="Q45" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="R45" s="57" t="s">
+      <c r="R45" s="54" t="s">
         <v>45</v>
       </c>
       <c r="S45" s="29"/>
@@ -5859,46 +5885,46 @@
       <c r="D49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="54" t="s">
         <v>154</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="57" t="s">
+      <c r="J49" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="57" t="s">
+      <c r="K49" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="57" t="s">
+      <c r="L49" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="M49" s="57" t="s">
+      <c r="M49" s="54" t="s">
         <v>175</v>
       </c>
       <c r="N49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="57" t="s">
+      <c r="O49" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="P49" s="57" t="s">
+      <c r="P49" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" s="57" t="s">
+      <c r="Q49" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="R49" s="57" t="s">
+      <c r="R49" s="54" t="s">
         <v>178</v>
       </c>
       <c r="S49" s="29"/>
@@ -6191,49 +6217,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="I61" s="57" t="s">
+      <c r="I61" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="57" t="s">
+      <c r="K61" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="L61" s="57" t="s">
+      <c r="L61" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="M61" s="57" t="s">
+      <c r="M61" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="N61" s="57" t="s">
+      <c r="N61" s="54" t="s">
         <v>187</v>
       </c>
       <c r="O61" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P61" s="57" t="s">
+      <c r="P61" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q61" s="57" t="s">
+      <c r="Q61" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="R61" s="57" t="s">
+      <c r="R61" s="54" t="s">
         <v>189</v>
       </c>
       <c r="S61" s="29"/>
@@ -6354,49 +6380,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="54" t="s">
         <v>190</v>
       </c>
       <c r="E65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="57" t="s">
+      <c r="F65" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I65" s="57" t="s">
+      <c r="I65" s="54" t="s">
         <v>194</v>
       </c>
       <c r="J65" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="57" t="s">
+      <c r="K65" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="57" t="s">
+      <c r="L65" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="M65" s="57" t="s">
+      <c r="M65" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="N65" s="57" t="s">
+      <c r="N65" s="54" t="s">
         <v>197</v>
       </c>
       <c r="O65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P65" s="57" t="s">
+      <c r="P65" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="Q65" s="57" t="s">
+      <c r="Q65" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="R65" s="57" t="s">
+      <c r="R65" s="54" t="s">
         <v>199</v>
       </c>
       <c r="S65" s="29"/>
@@ -6515,49 +6541,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="54" t="s">
         <v>200</v>
       </c>
       <c r="E69" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="57" t="s">
+      <c r="F69" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="57" t="s">
+      <c r="H69" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I69" s="57" t="s">
+      <c r="I69" s="54" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K69" s="57" t="s">
+      <c r="K69" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="57" t="s">
+      <c r="L69" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="M69" s="57" t="s">
+      <c r="M69" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="N69" s="57" t="s">
+      <c r="N69" s="54" t="s">
         <v>207</v>
       </c>
       <c r="O69" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P69" s="57" t="s">
+      <c r="P69" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="Q69" s="57" t="s">
+      <c r="Q69" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="R69" s="57" t="s">
+      <c r="R69" s="54" t="s">
         <v>210</v>
       </c>
       <c r="S69" s="29"/>
@@ -6676,49 +6702,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="54" t="s">
         <v>210</v>
       </c>
       <c r="E73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G73" s="57" t="s">
+      <c r="G73" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="H73" s="57" t="s">
+      <c r="H73" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I73" s="57" t="s">
+      <c r="I73" s="54" t="s">
         <v>214</v>
       </c>
       <c r="J73" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K73" s="57" t="s">
+      <c r="K73" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="L73" s="57" t="s">
+      <c r="L73" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="M73" s="57" t="s">
+      <c r="M73" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N73" s="57" t="s">
+      <c r="N73" s="54" t="s">
         <v>156</v>
       </c>
       <c r="O73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P73" s="57" t="s">
+      <c r="P73" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="Q73" s="57" t="s">
+      <c r="Q73" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="57" t="s">
+      <c r="R73" s="54" t="s">
         <v>217</v>
       </c>
       <c r="S73" s="29"/>
@@ -6837,49 +6863,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="F77" s="57" t="s">
+      <c r="F77" s="54" t="s">
         <v>220</v>
       </c>
       <c r="G77" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="57" t="s">
+      <c r="H77" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="I77" s="57" t="s">
+      <c r="I77" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="J77" s="57" t="s">
+      <c r="J77" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="K77" s="57" t="s">
+      <c r="K77" s="54" t="s">
         <v>224</v>
       </c>
       <c r="L77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M77" s="57" t="s">
+      <c r="M77" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="N77" s="57" t="s">
+      <c r="N77" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="O77" s="57" t="s">
+      <c r="O77" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="P77" s="57" t="s">
+      <c r="P77" s="54" t="s">
         <v>161</v>
       </c>
       <c r="Q77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R77" s="57" t="s">
+      <c r="R77" s="54" t="s">
         <v>30</v>
       </c>
       <c r="S77" s="29"/>
@@ -6984,19 +7010,19 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="E81" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="G81" s="57" t="s">
+      <c r="G81" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H81" s="54" t="s">
         <v>160</v>
       </c>
       <c r="I81" s="51" t="s">
@@ -7202,49 +7228,49 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="57" t="s">
+      <c r="D89" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="57" t="s">
+      <c r="F89" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="57" t="s">
+      <c r="G89" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="57" t="s">
+      <c r="H89" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="I89" s="57" t="s">
+      <c r="I89" s="54" t="s">
         <v>43</v>
       </c>
       <c r="J89" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="57" t="s">
+      <c r="K89" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L89" s="57" t="s">
+      <c r="L89" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="M89" s="57" t="s">
+      <c r="M89" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="N89" s="57" t="s">
+      <c r="N89" s="54" t="s">
         <v>234</v>
       </c>
       <c r="O89" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P89" s="57" t="s">
+      <c r="P89" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q89" s="57" t="s">
+      <c r="Q89" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="R89" s="57" t="s">
+      <c r="R89" s="54" t="s">
         <v>236</v>
       </c>
       <c r="S89" s="29"/>
@@ -7365,49 +7391,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="57" t="s">
+      <c r="D93" s="54" t="s">
         <v>237</v>
       </c>
       <c r="E93" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="57" t="s">
+      <c r="F93" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G93" s="57" t="s">
+      <c r="G93" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="H93" s="57" t="s">
+      <c r="H93" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="I93" s="57" t="s">
+      <c r="I93" s="54" t="s">
         <v>239</v>
       </c>
       <c r="J93" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K93" s="57" t="s">
+      <c r="K93" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="L93" s="57" t="s">
+      <c r="L93" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="M93" s="57" t="s">
+      <c r="M93" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="N93" s="57" t="s">
+      <c r="N93" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O93" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P93" s="57" t="s">
+      <c r="P93" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="Q93" s="57" t="s">
+      <c r="Q93" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="R93" s="57" t="s">
+      <c r="R93" s="54" t="s">
         <v>246</v>
       </c>
       <c r="S93" s="29"/>
@@ -7526,49 +7552,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="57" t="s">
+      <c r="D97" s="54" t="s">
         <v>247</v>
       </c>
       <c r="E97" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="57" t="s">
+      <c r="F97" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="H97" s="57" t="s">
+      <c r="H97" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="I97" s="57" t="s">
+      <c r="I97" s="54" t="s">
         <v>251</v>
       </c>
       <c r="J97" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K97" s="57" t="s">
+      <c r="K97" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="L97" s="57" t="s">
+      <c r="L97" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="M97" s="57" t="s">
+      <c r="M97" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="N97" s="57" t="s">
+      <c r="N97" s="54" t="s">
         <v>253</v>
       </c>
       <c r="O97" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="P97" s="57" t="s">
+      <c r="P97" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="Q97" s="57" t="s">
+      <c r="Q97" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="R97" s="57" t="s">
+      <c r="R97" s="54" t="s">
         <v>139</v>
       </c>
       <c r="S97" s="29"/>
@@ -7687,49 +7713,49 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="57" t="s">
+      <c r="D101" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="57" t="s">
+      <c r="E101" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="57" t="s">
+      <c r="F101" s="54" t="s">
         <v>194</v>
       </c>
       <c r="G101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H101" s="57" t="s">
+      <c r="H101" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="I101" s="57" t="s">
+      <c r="I101" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="J101" s="57" t="s">
+      <c r="J101" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="K101" s="57" t="s">
+      <c r="K101" s="54" t="s">
         <v>257</v>
       </c>
       <c r="L101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="57" t="s">
+      <c r="M101" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="N101" s="57" t="s">
+      <c r="N101" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="O101" s="57" t="s">
+      <c r="O101" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="P101" s="57" t="s">
+      <c r="P101" s="54" t="s">
         <v>260</v>
       </c>
       <c r="Q101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R101" s="57" t="s">
+      <c r="R101" s="54" t="s">
         <v>261</v>
       </c>
       <c r="S101" s="29"/>
@@ -7848,49 +7874,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="57" t="s">
+      <c r="D105" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="E105" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F105" s="54" t="s">
         <v>264</v>
       </c>
       <c r="G105" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H105" s="57" t="s">
+      <c r="H105" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="I105" s="57" t="s">
+      <c r="I105" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="J105" s="57" t="s">
+      <c r="J105" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="K105" s="57" t="s">
+      <c r="K105" s="54" t="s">
         <v>268</v>
       </c>
       <c r="L105" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M105" s="57" t="s">
+      <c r="M105" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="N105" s="57" t="s">
+      <c r="N105" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="O105" s="59" t="s">
+      <c r="O105" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="P105" s="57" t="s">
+      <c r="P105" s="54" t="s">
         <v>42</v>
       </c>
       <c r="Q105" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R105" s="57" t="s">
+      <c r="R105" s="54" t="s">
         <v>215</v>
       </c>
       <c r="S105" s="29"/>
@@ -8011,49 +8037,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="57" t="s">
+      <c r="D109" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="E109" s="57" t="s">
+      <c r="E109" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="57" t="s">
+      <c r="F109" s="54" t="s">
         <v>156</v>
       </c>
       <c r="G109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="57" t="s">
+      <c r="H109" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I109" s="57" t="s">
+      <c r="I109" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J109" s="57" t="s">
+      <c r="J109" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="K109" s="57" t="s">
+      <c r="K109" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="L109" s="57" t="s">
+      <c r="L109" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="M109" s="57" t="s">
+      <c r="M109" s="54" t="s">
         <v>274</v>
       </c>
       <c r="N109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O109" s="57" t="s">
+      <c r="O109" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="P109" s="57" t="s">
+      <c r="P109" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="Q109" s="57" t="s">
+      <c r="Q109" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="R109" s="57" t="s">
+      <c r="R109" s="54" t="s">
         <v>278</v>
       </c>
       <c r="S109" s="29"/>
@@ -8173,37 +8199,37 @@
       <c r="D113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E113" s="57" t="s">
+      <c r="E113" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="F113" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="G113" s="57" t="s">
+      <c r="G113" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H113" s="57" t="s">
+      <c r="H113" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J113" s="57" t="s">
+      <c r="J113" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K113" s="57" t="s">
+      <c r="K113" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="L113" s="57" t="s">
+      <c r="L113" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="M113" s="57" t="s">
+      <c r="M113" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="N113" s="57" t="s">
+      <c r="N113" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="O113" s="59" t="s">
+      <c r="O113" s="56" t="s">
         <v>160</v>
       </c>
       <c r="P113" s="51" t="s">
@@ -8412,49 +8438,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="57" t="s">
+      <c r="D121" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="E121" s="57" t="s">
+      <c r="E121" s="54" t="s">
         <v>128</v>
       </c>
       <c r="F121" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="G121" s="58" t="s">
+      <c r="G121" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H121" s="57" t="s">
+      <c r="H121" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="I121" s="57" t="s">
+      <c r="I121" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="J121" s="57" t="s">
+      <c r="J121" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="K121" s="57" t="s">
+      <c r="K121" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="L121" s="57" t="s">
+      <c r="L121" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M121" s="57" t="s">
+      <c r="M121" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N121" s="57" t="s">
+      <c r="N121" s="54" t="s">
         <v>271</v>
       </c>
       <c r="O121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P121" s="57" t="s">
+      <c r="P121" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="Q121" s="57" t="s">
+      <c r="Q121" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="R121" s="57" t="s">
+      <c r="R121" s="54" t="s">
         <v>290</v>
       </c>
       <c r="S121" s="29"/>
@@ -8575,49 +8601,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="57" t="s">
+      <c r="D125" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="E125" s="57" t="s">
+      <c r="E125" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F125" s="57" t="s">
+      <c r="F125" s="54" t="s">
         <v>291</v>
       </c>
       <c r="G125" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="57" t="s">
+      <c r="H125" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="I125" s="57" t="s">
+      <c r="I125" s="54" t="s">
         <v>292</v>
       </c>
       <c r="J125" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="K125" s="57" t="s">
+      <c r="K125" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="L125" s="57" t="s">
+      <c r="L125" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M125" s="57" t="s">
+      <c r="M125" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="N125" s="57" t="s">
+      <c r="N125" s="54" t="s">
         <v>282</v>
       </c>
       <c r="O125" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P125" s="57" t="s">
+      <c r="P125" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="Q125" s="57" t="s">
+      <c r="Q125" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="R125" s="57" t="s">
+      <c r="R125" s="54" t="s">
         <v>293</v>
       </c>
       <c r="S125" s="29"/>
@@ -8736,49 +8762,49 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="57" t="s">
+      <c r="D129" s="54" t="s">
         <v>229</v>
       </c>
       <c r="E129" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F129" s="57" t="s">
+      <c r="F129" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="G129" s="57" t="s">
+      <c r="G129" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="H129" s="57" t="s">
+      <c r="H129" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="I129" s="57" t="s">
+      <c r="I129" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="J129" s="57" t="s">
+      <c r="J129" s="54" t="s">
         <v>33</v>
       </c>
       <c r="K129" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L129" s="60" t="s">
+      <c r="L129" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="M129" s="57" t="s">
+      <c r="M129" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="N129" s="57" t="s">
+      <c r="N129" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O129" s="57" t="s">
+      <c r="O129" s="54" t="s">
         <v>297</v>
       </c>
       <c r="P129" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="Q129" s="57" t="s">
+      <c r="Q129" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="R129" s="57" t="s">
+      <c r="R129" s="54" t="s">
         <v>140</v>
       </c>
       <c r="S129" s="29"/>
@@ -8897,49 +8923,49 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="57" t="s">
+      <c r="D133" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E133" s="57" t="s">
+      <c r="E133" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="57" t="s">
+      <c r="F133" s="54" t="s">
         <v>136</v>
       </c>
       <c r="G133" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H133" s="57" t="s">
+      <c r="H133" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I133" s="57" t="s">
+      <c r="I133" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="J133" s="57" t="s">
+      <c r="J133" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K133" s="57" t="s">
+      <c r="K133" s="54" t="s">
         <v>299</v>
       </c>
       <c r="L133" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="57" t="s">
+      <c r="M133" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="N133" s="57" t="s">
+      <c r="N133" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="O133" s="57" t="s">
+      <c r="O133" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="P133" s="57" t="s">
+      <c r="P133" s="54" t="s">
         <v>221</v>
       </c>
       <c r="Q133" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R133" s="57" t="s">
+      <c r="R133" s="54" t="s">
         <v>302</v>
       </c>
       <c r="S133" s="29"/>
@@ -9058,46 +9084,46 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="57" t="s">
+      <c r="D137" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E137" s="57" t="s">
+      <c r="E137" s="54" t="s">
         <v>221</v>
       </c>
       <c r="F137" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="G137" s="57" t="s">
+      <c r="G137" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="H137" s="57" t="s">
+      <c r="H137" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I137" s="57" t="s">
+      <c r="I137" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="J137" s="57" t="s">
+      <c r="J137" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="K137" s="57" t="s">
+      <c r="K137" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="L137" s="57" t="s">
+      <c r="L137" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="M137" s="57" t="s">
+      <c r="M137" s="54" t="s">
         <v>304</v>
       </c>
       <c r="N137" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="O137" s="57" t="s">
+      <c r="O137" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="P137" s="57" t="s">
+      <c r="P137" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="Q137" s="57" t="s">
+      <c r="Q137" s="54" t="s">
         <v>306</v>
       </c>
       <c r="R137" s="51" t="s">
@@ -9224,46 +9250,46 @@
       <c r="D141" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="E141" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F141" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G141" s="58" t="s">
+      <c r="G141" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="H141" s="57" t="s">
+      <c r="H141" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="I141" s="57" t="s">
+      <c r="I141" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="57" t="s">
+      <c r="J141" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="K141" s="57" t="s">
+      <c r="K141" s="54" t="s">
         <v>221</v>
       </c>
       <c r="L141" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M141" s="57" t="s">
+      <c r="M141" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="N141" s="57" t="s">
+      <c r="N141" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="O141" s="57" t="s">
+      <c r="O141" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="P141" s="57" t="s">
+      <c r="P141" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="Q141" s="57" t="s">
+      <c r="Q141" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="R141" s="57" t="s">
+      <c r="R141" s="54" t="s">
         <v>228</v>
       </c>
       <c r="S141" s="29"/>
@@ -9380,46 +9406,46 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="57" t="s">
+      <c r="D145" s="54" t="s">
         <v>269</v>
       </c>
       <c r="E145" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="F145" s="57" t="s">
+      <c r="F145" s="54" t="s">
         <v>312</v>
       </c>
       <c r="G145" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="H145" s="57" t="s">
+      <c r="H145" s="54" t="s">
         <v>313</v>
       </c>
       <c r="I145" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="J145" s="57" t="s">
+      <c r="J145" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="K145" s="57" t="s">
+      <c r="K145" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="L145" s="57" t="s">
+      <c r="L145" s="54" t="s">
         <v>45</v>
       </c>
       <c r="M145" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N145" s="57" t="s">
+      <c r="N145" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="O145" s="57" t="s">
+      <c r="O145" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="P145" s="57" t="s">
+      <c r="P145" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Q145" s="57" t="s">
+      <c r="Q145" s="54" t="s">
         <v>317</v>
       </c>
       <c r="R145" s="51" t="s">

--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C89F4-6D53-41A2-AD77-131F3C8E2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A51153F-C5FF-4463-9DBC-7AFA2CFBED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="109" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="108" r:id="rId4"/>
-    <sheet name="標音字庫" sheetId="107" r:id="rId5"/>
+    <sheet name="缺字表" sheetId="112" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="111" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="110" r:id="rId5"/>
     <sheet name="缺字表 (範例)" sheetId="100" r:id="rId6"/>
     <sheet name="漢字庫（範例）" sheetId="10" r:id="rId7"/>
   </sheets>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="931">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1067,9 +1067,6 @@
     <t>khing3</t>
   </si>
   <si>
-    <t>lah8</t>
-  </si>
-  <si>
     <t>lian5</t>
   </si>
   <si>
@@ -1082,9 +1079,6 @@
     <t>zu2</t>
   </si>
   <si>
-    <t>kiann1</t>
-  </si>
-  <si>
     <t>tik4</t>
   </si>
   <si>
@@ -1139,18 +1133,12 @@
     <t>zing1</t>
   </si>
   <si>
-    <t>ku7</t>
-  </si>
-  <si>
     <t>ze3</t>
   </si>
   <si>
     <t>khik4</t>
   </si>
   <si>
-    <t>tng5</t>
-  </si>
-  <si>
     <t>hian5</t>
   </si>
   <si>
@@ -1620,622 +1608,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>經三去</t>
-  </si>
-  <si>
-    <t>膠八柳</t>
-  </si>
-  <si>
-    <t>艍三時</t>
-  </si>
-  <si>
-    <t>堅五柳</t>
-  </si>
-  <si>
-    <t>君一出</t>
-  </si>
-  <si>
-    <t>經五地</t>
-  </si>
-  <si>
-    <t>艍二曾</t>
-  </si>
-  <si>
-    <t>驚一求</t>
-  </si>
-  <si>
-    <t>經四地</t>
-  </si>
-  <si>
-    <t>丩二時</t>
-  </si>
-  <si>
-    <t>膠一邊</t>
-  </si>
-  <si>
-    <t>經五柳</t>
-  </si>
-  <si>
-    <t>君七求</t>
-  </si>
-  <si>
-    <t>觀八英</t>
-  </si>
-  <si>
-    <t>經五門</t>
-  </si>
-  <si>
-    <t>經三曾</t>
-  </si>
-  <si>
-    <t>公一他</t>
-  </si>
-  <si>
-    <t>巾五入</t>
-  </si>
-  <si>
-    <t>高五喜</t>
-  </si>
-  <si>
-    <t>經四邊</t>
-  </si>
-  <si>
-    <t>檜三喜</t>
-  </si>
-  <si>
-    <t>艍七去</t>
-  </si>
-  <si>
-    <t>經一喜</t>
-  </si>
-  <si>
-    <t>皆二耐</t>
-  </si>
-  <si>
-    <t>恭七地</t>
-  </si>
-  <si>
-    <t>丩一時</t>
-  </si>
-  <si>
-    <t>江八語</t>
-  </si>
-  <si>
-    <t>姜五英</t>
-  </si>
-  <si>
-    <t>交五柳</t>
-  </si>
-  <si>
-    <t>經一曾</t>
-  </si>
-  <si>
-    <t>居五求</t>
-  </si>
-  <si>
-    <t>艍七求</t>
-  </si>
-  <si>
-    <t>伽三曾</t>
-  </si>
-  <si>
-    <t>經四去</t>
-  </si>
-  <si>
-    <t>鋼五地</t>
-  </si>
-  <si>
-    <t>堅五喜</t>
-  </si>
-  <si>
-    <t>金一求</t>
-  </si>
-  <si>
-    <t>居一時</t>
-  </si>
-  <si>
-    <t>艍三喜</t>
-  </si>
-  <si>
-    <t>艍一英</t>
-  </si>
-  <si>
-    <t>恭七時</t>
-  </si>
-  <si>
-    <t>恭八時</t>
-  </si>
-  <si>
-    <t>艍二英</t>
-  </si>
-  <si>
-    <t>公四曾</t>
-  </si>
-  <si>
-    <t>君五門</t>
-  </si>
-  <si>
-    <t>居二英</t>
-  </si>
-  <si>
-    <t>居三求</t>
-  </si>
-  <si>
-    <t>居一曾</t>
-  </si>
-  <si>
-    <t>觀一求</t>
-  </si>
-  <si>
-    <t>艍一喜</t>
-  </si>
-  <si>
-    <t>經三時</t>
-  </si>
-  <si>
-    <t>公七曾</t>
-  </si>
-  <si>
-    <t>皆七曾</t>
-  </si>
-  <si>
-    <t>公七地</t>
-  </si>
-  <si>
-    <t>驚五地</t>
-  </si>
-  <si>
-    <t>巾四英</t>
-  </si>
-  <si>
-    <t>沽五英</t>
-  </si>
-  <si>
-    <t>觀二英</t>
-  </si>
-  <si>
-    <t>干一時</t>
-  </si>
-  <si>
-    <t>君一他</t>
-  </si>
-  <si>
-    <t>恭五地</t>
-  </si>
-  <si>
-    <t>江一求</t>
-  </si>
-  <si>
-    <t>高七喜</t>
-  </si>
-  <si>
-    <t>經五喜</t>
-  </si>
-  <si>
-    <t>艍五門</t>
-  </si>
-  <si>
-    <t>皆五語</t>
-  </si>
-  <si>
-    <t>嬌一地</t>
-  </si>
-  <si>
-    <t>經八時</t>
-  </si>
-  <si>
-    <t>兼一英</t>
-  </si>
-  <si>
-    <t>居三去</t>
-  </si>
-  <si>
-    <t>干七門</t>
-  </si>
-  <si>
-    <t>堅一出</t>
-  </si>
-  <si>
-    <t>艍二出</t>
-  </si>
-  <si>
-    <t>經四曾</t>
-  </si>
-  <si>
-    <t>皆七地</t>
-  </si>
-  <si>
-    <t>迦七英</t>
-  </si>
-  <si>
-    <t>堅五曾</t>
-  </si>
-  <si>
-    <t>君八時</t>
-  </si>
-  <si>
-    <t>居七邊</t>
-  </si>
-  <si>
-    <t>堅五入</t>
-  </si>
-  <si>
-    <t>公四邊</t>
-  </si>
-  <si>
-    <t>兼四求</t>
-  </si>
-  <si>
-    <t>甘五柳</t>
-  </si>
-  <si>
-    <t>經八求</t>
-  </si>
-  <si>
-    <t>嬌一時</t>
-  </si>
-  <si>
-    <t>姜一時</t>
-  </si>
-  <si>
-    <t>嘉四去</t>
-  </si>
-  <si>
-    <t>高一時</t>
-  </si>
-  <si>
-    <t>高一地</t>
-  </si>
-  <si>
-    <t>檜七喜</t>
-  </si>
-  <si>
-    <t>甘二柳</t>
-  </si>
-  <si>
-    <t>君八門</t>
-  </si>
-  <si>
-    <t>經五曾</t>
-  </si>
-  <si>
-    <t>居七英</t>
-  </si>
-  <si>
-    <t>沽五喜</t>
-  </si>
-  <si>
-    <t>恭八入</t>
-  </si>
-  <si>
     <t>規一喜</t>
-  </si>
-  <si>
-    <t>兼五柳</t>
-  </si>
-  <si>
-    <t>檜八語</t>
-  </si>
-  <si>
-    <t>君四邊</t>
-  </si>
-  <si>
-    <t>規一去</t>
-  </si>
-  <si>
-    <t>公一喜</t>
-  </si>
-  <si>
-    <t>沽七耐</t>
-  </si>
-  <si>
-    <t>江八地</t>
-  </si>
-  <si>
-    <t>公七柳</t>
-  </si>
-  <si>
-    <t>皆五邊</t>
-  </si>
-  <si>
-    <t>公一去</t>
-  </si>
-  <si>
-    <t>巾八入</t>
-  </si>
-  <si>
-    <t>經一時</t>
-  </si>
-  <si>
-    <t>君二英</t>
-  </si>
-  <si>
-    <t>嬌七英</t>
-  </si>
-  <si>
-    <t>兼五曾</t>
-  </si>
-  <si>
-    <t>居二柳</t>
-  </si>
-  <si>
-    <t>江五喜</t>
-  </si>
-  <si>
-    <t>經一去</t>
-  </si>
-  <si>
-    <t>金四出</t>
-  </si>
-  <si>
-    <t>規一出</t>
-  </si>
-  <si>
-    <t>公八邊</t>
-  </si>
-  <si>
-    <t>沽七門</t>
-  </si>
-  <si>
-    <t>沽二喜</t>
-  </si>
-  <si>
-    <t>嬌三時</t>
-  </si>
-  <si>
-    <t>觀五英</t>
-  </si>
-  <si>
-    <t>伽五他</t>
-  </si>
-  <si>
-    <t>經一地</t>
-  </si>
-  <si>
-    <t>艍一時</t>
-  </si>
-  <si>
-    <t>丩二英</t>
-  </si>
-  <si>
-    <t>艍二去</t>
-  </si>
-  <si>
-    <t>公四求</t>
-  </si>
-  <si>
-    <t>乖五喜</t>
-  </si>
-  <si>
-    <t>姜一喜</t>
-  </si>
-  <si>
-    <t>丩一英</t>
-  </si>
-  <si>
-    <t>規三英</t>
-  </si>
-  <si>
-    <t>居一求</t>
-  </si>
-  <si>
-    <t>觀二門</t>
-  </si>
-  <si>
-    <t>公八門</t>
-  </si>
-  <si>
-    <t>甘二求</t>
-  </si>
-  <si>
-    <t>居五入</t>
-  </si>
-  <si>
-    <t>居一邊</t>
-  </si>
-  <si>
-    <t>迦二曾</t>
-  </si>
-  <si>
-    <t>居三曾</t>
-  </si>
-  <si>
-    <t>經二求</t>
-  </si>
-  <si>
-    <t>高一頗</t>
-  </si>
-  <si>
-    <t>干五柳</t>
-  </si>
-  <si>
-    <t>經一求</t>
-  </si>
-  <si>
-    <t>膠七喜</t>
-  </si>
-  <si>
-    <t>堅一他</t>
-  </si>
-  <si>
-    <t>公一求</t>
-  </si>
-  <si>
-    <t>經四頗</t>
-  </si>
-  <si>
-    <t>經二去</t>
-  </si>
-  <si>
-    <t>膠一時</t>
-  </si>
-  <si>
-    <t>茄一英</t>
-  </si>
-  <si>
-    <t>姜五時</t>
-  </si>
-  <si>
-    <t>金八曾</t>
-  </si>
-  <si>
-    <t>金二求</t>
-  </si>
-  <si>
-    <t>丩五英</t>
-  </si>
-  <si>
-    <t>經二英</t>
-  </si>
-  <si>
-    <t>干七語</t>
-  </si>
-  <si>
-    <t>居二曾</t>
-  </si>
-  <si>
-    <t>更一出</t>
-  </si>
-  <si>
-    <t>經八喜</t>
-  </si>
-  <si>
-    <t>堅一英</t>
-  </si>
-  <si>
-    <t>艍五頗</t>
-  </si>
-  <si>
-    <t>姜八英</t>
-  </si>
-  <si>
-    <t>經七曾</t>
-  </si>
-  <si>
-    <t>兼五地</t>
-  </si>
-  <si>
-    <t>艍五語</t>
-  </si>
-  <si>
-    <t>瓜一求</t>
-  </si>
-  <si>
-    <t>沽七喜</t>
-  </si>
-  <si>
-    <t>膠四地</t>
-  </si>
-  <si>
-    <t>交七雅</t>
-  </si>
-  <si>
-    <t>金一時</t>
-  </si>
-  <si>
-    <t>公三去</t>
-  </si>
-  <si>
-    <t>巾五時</t>
-  </si>
-  <si>
-    <t>居五英</t>
-  </si>
-  <si>
-    <t>恭二他</t>
-  </si>
-  <si>
-    <t>皆一求</t>
-  </si>
-  <si>
-    <t>公七門</t>
-  </si>
-  <si>
-    <t>伽二邊</t>
-  </si>
-  <si>
-    <t>丩二曾</t>
-  </si>
-  <si>
-    <t>金五柳</t>
-  </si>
-  <si>
-    <t>居二喜</t>
-  </si>
-  <si>
-    <t>牛五英</t>
-  </si>
-  <si>
-    <t>迦一曾</t>
-  </si>
-  <si>
-    <t>恭五時</t>
-  </si>
-  <si>
-    <t>丩五求</t>
-  </si>
-  <si>
-    <t>沽二求</t>
-  </si>
-  <si>
-    <t>居七入</t>
-  </si>
-  <si>
-    <t>規五英</t>
-  </si>
-  <si>
-    <t>皆一曾</t>
-  </si>
-  <si>
-    <t>居二求</t>
-  </si>
-  <si>
-    <t>嬌七門</t>
-  </si>
-  <si>
-    <t>公五地</t>
-  </si>
-  <si>
-    <t>高一求</t>
-  </si>
-  <si>
-    <t>巾五門</t>
-  </si>
-  <si>
-    <t>君一求</t>
-  </si>
-  <si>
-    <t>居七時</t>
-  </si>
-  <si>
-    <t>巾三曾</t>
-  </si>
-  <si>
-    <t>經八英</t>
-  </si>
-  <si>
-    <t>檜三他</t>
-  </si>
-  <si>
-    <t>居五時</t>
-  </si>
-  <si>
-    <t>迦五英</t>
-  </si>
-  <si>
-    <t>巾四邊</t>
-  </si>
-  <si>
-    <t>堅一時</t>
-  </si>
-  <si>
-    <t>居五門</t>
-  </si>
-  <si>
-    <t>沽五雅</t>
-  </si>
-  <si>
-    <t>規一求</t>
   </si>
   <si>
     <t>ham5</t>
@@ -2325,6 +1698,1623 @@
   </si>
   <si>
     <t>tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lik8</t>
+  </si>
+  <si>
+    <t>經八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君七求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆二耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江八語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu7</t>
+  </si>
+  <si>
+    <t>丩七求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ze3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公四曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾四英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>uan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆五語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅一出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公四邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kheeh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉四去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君八門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gueh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜八語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君四邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江八地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公七柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金四出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規一出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀二門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦二曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅一他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經二去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金八曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干七語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cenn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更一出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kua1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交七雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公三去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽二邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩二曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iunn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾四邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽五雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規一求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,7 +3322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2624,8 +3614,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2647,6 +3645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,7 +3732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2910,6 +3914,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4015,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4134,7 +5141,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>731</v>
+        <v>522</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -4143,7 +5150,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22" t="s">
-        <v>732</v>
+        <v>523</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -4159,44 +5166,44 @@
     <row r="4" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="25"/>
       <c r="D4" s="26" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>66</v>
+        <v>530</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>322</v>
+        <v>535</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>324</v>
+        <v>523</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>326</v>
+        <v>542</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>327</v>
+        <v>544</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>63</v>
+        <v>546</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>328</v>
+        <v>548</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="27"/>
@@ -4209,7 +5216,7 @@
       <c r="D5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="61" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="54" t="s">
@@ -4230,7 +5237,7 @@
       <c r="K5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="61" t="s">
         <v>91</v>
       </c>
       <c r="M5" s="54" t="s">
@@ -4258,44 +5265,44 @@
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="33"/>
@@ -4325,43 +5332,43 @@
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
       <c r="D8" s="26" t="s">
-        <v>329</v>
+        <v>550</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
-        <v>331</v>
+        <v>554</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>332</v>
+        <v>556</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26" t="s">
-        <v>333</v>
+        <v>562</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>75</v>
+        <v>564</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>334</v>
+        <v>566</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="Q8" s="26"/>
       <c r="R8" s="26" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
       <c r="S8" s="27"/>
       <c r="V8" s="59"/>
@@ -4423,43 +5430,43 @@
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
       <c r="D10" s="32" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="32" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="S10" s="39"/>
       <c r="V10" s="59"/>
@@ -4476,13 +5483,13 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22" t="s">
-        <v>733</v>
+        <v>524</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>734</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -4491,45 +5498,45 @@
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
       <c r="D12" s="26" t="s">
-        <v>337</v>
+        <v>572</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>338</v>
+        <v>574</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>339</v>
+        <v>576</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>340</v>
+        <v>578</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>341</v>
+        <v>580</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26" t="s">
-        <v>342</v>
+        <v>582</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>343</v>
+        <v>524</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="26" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>346</v>
+        <v>525</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>347</v>
+        <v>593</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>348</v>
+        <v>595</v>
       </c>
       <c r="S12" s="27"/>
       <c r="V12" s="59"/>
@@ -4563,7 +5570,7 @@
       <c r="K13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="L13" s="61" t="s">
         <v>112</v>
       </c>
       <c r="M13" s="54" t="s">
@@ -4575,7 +5582,7 @@
       <c r="O13" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="61" t="s">
         <v>115</v>
       </c>
       <c r="Q13" s="54" t="s">
@@ -4590,45 +5597,45 @@
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
       <c r="D14" s="32" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32" t="s">
-        <v>532</v>
+        <v>583</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="S14" s="39"/>
       <c r="V14" s="59"/>
@@ -4656,44 +5663,44 @@
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
       <c r="D16" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>349</v>
+        <v>597</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>350</v>
+        <v>599</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>351</v>
+        <v>601</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26" t="s">
-        <v>73</v>
+        <v>605</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>353</v>
+        <v>609</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>49</v>
+        <v>611</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>355</v>
+        <v>615</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -4755,44 +5762,44 @@
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
       <c r="D18" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="39"/>
@@ -4844,7 +5851,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -4929,7 +5936,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4999,45 +6006,45 @@
     <row r="28" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="25"/>
       <c r="D28" s="26" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>357</v>
+        <v>619</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>358</v>
+        <v>621</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>327</v>
+        <v>544</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>63</v>
+        <v>546</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>359</v>
+        <v>625</v>
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="26" t="s">
-        <v>360</v>
+        <v>627</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>361</v>
+        <v>629</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>362</v>
+        <v>631</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>364</v>
+        <v>635</v>
       </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26" t="s">
-        <v>716</v>
+        <v>507</v>
       </c>
       <c r="S28" s="27"/>
       <c r="U28" s="43" t="str">
@@ -5106,45 +6113,45 @@
     <row r="30" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="30"/>
       <c r="D30" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>513</v>
-      </c>
       <c r="H30" s="32" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="32" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="32" t="s">
-        <v>723</v>
+        <v>514</v>
       </c>
       <c r="S30" s="39"/>
       <c r="U30" s="43" t="str">
@@ -5180,43 +6187,43 @@
     <row r="32" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="25"/>
       <c r="D32" s="26" t="s">
-        <v>365</v>
+        <v>638</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>366</v>
+        <v>640</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>367</v>
+        <v>642</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>368</v>
+        <v>644</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>369</v>
+        <v>646</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26" t="s">
-        <v>370</v>
+        <v>648</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>370</v>
+        <v>648</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>332</v>
+        <v>556</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>332</v>
+        <v>556</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="26" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>372</v>
+        <v>652</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>344</v>
+        <v>588</v>
       </c>
       <c r="S32" s="27"/>
       <c r="U32" s="43" t="str">
@@ -5281,43 +6288,43 @@
     <row r="34" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="30"/>
       <c r="D34" s="32" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="R34" s="32" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="S34" s="39"/>
       <c r="V34" s="15"/>
@@ -5345,43 +6352,43 @@
     <row r="36" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="25"/>
       <c r="D36" s="26" t="s">
-        <v>373</v>
+        <v>654</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>374</v>
+        <v>656</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>375</v>
+        <v>658</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>376</v>
+        <v>660</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26" t="s">
-        <v>377</v>
+        <v>662</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>378</v>
+        <v>664</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>379</v>
+        <v>666</v>
       </c>
       <c r="O36" s="26"/>
       <c r="P36" s="26" t="s">
-        <v>380</v>
+        <v>668</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="R36" s="26" t="s">
-        <v>339</v>
+        <v>576</v>
       </c>
       <c r="S36" s="27"/>
       <c r="V36" s="15"/>
@@ -5442,43 +6449,43 @@
     <row r="38" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="30"/>
       <c r="D38" s="32" t="s">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
-        <v>572</v>
+        <v>663</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
       <c r="N38" s="32" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="Q38" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="S38" s="39"/>
       <c r="V38" s="15"/>
@@ -5506,45 +6513,45 @@
     <row r="40" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="25"/>
       <c r="D40" s="26" t="s">
-        <v>340</v>
+        <v>578</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>341</v>
+        <v>580</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>357</v>
+        <v>619</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>382</v>
+        <v>674</v>
       </c>
       <c r="J40" s="26"/>
       <c r="K40" s="26" t="s">
-        <v>383</v>
+        <v>676</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>384</v>
+        <v>678</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>385</v>
+        <v>680</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="26" t="s">
-        <v>386</v>
+        <v>682</v>
       </c>
       <c r="S40" s="27"/>
       <c r="V40" s="15"/>
@@ -5605,45 +6612,45 @@
     <row r="42" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="30"/>
       <c r="D42" s="32" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="L42" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>580</v>
+        <v>679</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>581</v>
+        <v>681</v>
       </c>
       <c r="P42" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="Q42" s="32"/>
       <c r="R42" s="32" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="S42" s="39"/>
       <c r="V42" s="15"/>
@@ -5671,45 +6678,45 @@
     <row r="44" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="25"/>
       <c r="D44" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>387</v>
+        <v>684</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>332</v>
+        <v>556</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>372</v>
+        <v>652</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>388</v>
+        <v>686</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="26" t="s">
-        <v>389</v>
+        <v>688</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>69</v>
+        <v>690</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>390</v>
+        <v>692</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>391</v>
+        <v>694</v>
       </c>
       <c r="N44" s="26"/>
       <c r="O44" s="26" t="s">
-        <v>379</v>
+        <v>666</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>392</v>
+        <v>696</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>393</v>
+        <v>698</v>
       </c>
       <c r="R44" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="S44" s="27"/>
       <c r="V44" s="15"/>
@@ -5770,45 +6777,45 @@
     <row r="46" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="30"/>
       <c r="D46" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32" t="s">
-        <v>585</v>
+        <v>689</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="L46" s="32" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>588</v>
+        <v>695</v>
       </c>
       <c r="N46" s="32"/>
       <c r="O46" s="32" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="P46" s="32" t="s">
-        <v>589</v>
+        <v>697</v>
       </c>
       <c r="Q46" s="32" t="s">
-        <v>590</v>
+        <v>699</v>
       </c>
       <c r="R46" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="S46" s="39"/>
       <c r="V46" s="15"/>
@@ -5837,42 +6844,42 @@
       <c r="B48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26" t="s">
-        <v>394</v>
+        <v>700</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>395</v>
+        <v>702</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>351</v>
+        <v>601</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>380</v>
+        <v>668</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="26" t="s">
-        <v>396</v>
+        <v>704</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>397</v>
+        <v>706</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>398</v>
+        <v>708</v>
       </c>
       <c r="N48" s="26"/>
       <c r="O48" s="26" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="P48" s="26" t="s">
-        <v>372</v>
+        <v>652</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>399</v>
+        <v>710</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>400</v>
+        <v>712</v>
       </c>
       <c r="S48" s="27"/>
       <c r="V48" s="15"/>
@@ -5934,42 +6941,42 @@
       <c r="B50" s="30"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>592</v>
+        <v>703</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
-        <v>593</v>
+        <v>705</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="L50" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="P50" s="32" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="Q50" s="32" t="s">
-        <v>596</v>
+        <v>711</v>
       </c>
       <c r="R50" s="32" t="s">
-        <v>597</v>
+        <v>713</v>
       </c>
       <c r="S50" s="39"/>
       <c r="V50" s="15"/>
@@ -6023,7 +7030,7 @@
         <v>179</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -6107,7 +7114,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="E57" s="51"/>
       <c r="F57" s="51"/>
@@ -6169,45 +7176,45 @@
     <row r="60" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="25"/>
       <c r="D60" s="26" t="s">
-        <v>401</v>
+        <v>714</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>358</v>
+        <v>621</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>717</v>
+        <v>508</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
       <c r="J60" s="26"/>
       <c r="K60" s="26" t="s">
-        <v>403</v>
+        <v>717</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>404</v>
+        <v>719</v>
       </c>
       <c r="M60" s="26" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="N60" s="26" t="s">
-        <v>406</v>
+        <v>723</v>
       </c>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
-        <v>376</v>
+        <v>660</v>
       </c>
       <c r="Q60" s="26" t="s">
-        <v>407</v>
+        <v>725</v>
       </c>
       <c r="R60" s="26" t="s">
-        <v>408</v>
+        <v>727</v>
       </c>
       <c r="S60" s="27"/>
       <c r="V60" s="15"/>
@@ -6268,45 +7275,45 @@
     <row r="62" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="30"/>
       <c r="D62" s="32" t="s">
-        <v>598</v>
+        <v>715</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>724</v>
+        <v>515</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>599</v>
+        <v>716</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>599</v>
+        <v>716</v>
       </c>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
-        <v>600</v>
+        <v>718</v>
       </c>
       <c r="L62" s="32" t="s">
-        <v>601</v>
+        <v>720</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>603</v>
+        <v>724</v>
       </c>
       <c r="O62" s="32"/>
       <c r="P62" s="32" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="Q62" s="32" t="s">
-        <v>604</v>
+        <v>726</v>
       </c>
       <c r="R62" s="32" t="s">
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="S62" s="39"/>
       <c r="V62" s="15"/>
@@ -6334,43 +7341,43 @@
     <row r="64" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="25"/>
       <c r="D64" s="26" t="s">
-        <v>370</v>
+        <v>648</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26" t="s">
-        <v>409</v>
+        <v>729</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>410</v>
+        <v>731</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>411</v>
+        <v>733</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="J64" s="26"/>
       <c r="K64" s="26" t="s">
-        <v>413</v>
+        <v>737</v>
       </c>
       <c r="L64" s="26" t="s">
-        <v>77</v>
+        <v>739</v>
       </c>
       <c r="M64" s="26" t="s">
-        <v>414</v>
+        <v>741</v>
       </c>
       <c r="N64" s="26" t="s">
-        <v>415</v>
+        <v>743</v>
       </c>
       <c r="O64" s="26"/>
       <c r="P64" s="26" t="s">
-        <v>366</v>
+        <v>640</v>
       </c>
       <c r="Q64" s="26" t="s">
-        <v>339</v>
+        <v>576</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>416</v>
+        <v>745</v>
       </c>
       <c r="S64" s="27"/>
       <c r="V64" s="15"/>
@@ -6431,43 +7438,43 @@
     <row r="66" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="30"/>
       <c r="D66" s="32" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32" t="s">
-        <v>606</v>
+        <v>730</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>607</v>
+        <v>732</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>608</v>
+        <v>734</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>609</v>
+        <v>736</v>
       </c>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
-        <v>610</v>
+        <v>738</v>
       </c>
       <c r="L66" s="32" t="s">
-        <v>611</v>
+        <v>740</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>612</v>
+        <v>742</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>613</v>
+        <v>744</v>
       </c>
       <c r="O66" s="32"/>
       <c r="P66" s="32" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>614</v>
+        <v>746</v>
       </c>
       <c r="S66" s="39"/>
       <c r="V66" s="15"/>
@@ -6495,43 +7502,43 @@
     <row r="68" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="25"/>
       <c r="D68" s="26" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>391</v>
+        <v>694</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>417</v>
+        <v>747</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>418</v>
+        <v>749</v>
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="26" t="s">
-        <v>718</v>
+        <v>509</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>419</v>
+        <v>751</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>420</v>
+        <v>753</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>421</v>
+        <v>755</v>
       </c>
       <c r="O68" s="26"/>
       <c r="P68" s="26" t="s">
-        <v>422</v>
+        <v>757</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>423</v>
+        <v>759</v>
       </c>
       <c r="R68" s="26" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="S68" s="27"/>
       <c r="V68" s="15"/>
@@ -6592,43 +7599,43 @@
     <row r="70" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="30"/>
       <c r="D70" s="32" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32" t="s">
-        <v>588</v>
+        <v>695</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>615</v>
+        <v>748</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="I70" s="32" t="s">
-        <v>616</v>
+        <v>750</v>
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="32" t="s">
-        <v>725</v>
+        <v>516</v>
       </c>
       <c r="L70" s="32" t="s">
-        <v>617</v>
+        <v>752</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>618</v>
+        <v>754</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>619</v>
+        <v>756</v>
       </c>
       <c r="O70" s="32"/>
       <c r="P70" s="32" t="s">
-        <v>620</v>
+        <v>758</v>
       </c>
       <c r="Q70" s="32" t="s">
-        <v>621</v>
+        <v>760</v>
       </c>
       <c r="R70" s="32" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="S70" s="39"/>
       <c r="V70" s="15"/>
@@ -6656,43 +7663,43 @@
     <row r="72" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="25"/>
       <c r="D72" s="26" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26" t="s">
-        <v>424</v>
+        <v>761</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>425</v>
+        <v>763</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>426</v>
+        <v>765</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>427</v>
+        <v>767</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="26" t="s">
-        <v>428</v>
+        <v>769</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>71</v>
+        <v>771</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>341</v>
+        <v>580</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>382</v>
+        <v>674</v>
       </c>
       <c r="O72" s="26"/>
       <c r="P72" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>429</v>
+        <v>773</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="S72" s="27"/>
       <c r="V72" s="15"/>
@@ -6753,43 +7760,43 @@
     <row r="74" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="30"/>
       <c r="D74" s="32" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32" t="s">
-        <v>622</v>
+        <v>762</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>623</v>
+        <v>764</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>624</v>
+        <v>766</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>625</v>
+        <v>768</v>
       </c>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
-        <v>626</v>
+        <v>770</v>
       </c>
       <c r="L74" s="32" t="s">
-        <v>627</v>
+        <v>772</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="O74" s="32"/>
       <c r="P74" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="Q74" s="32" t="s">
-        <v>628</v>
+        <v>774</v>
       </c>
       <c r="R74" s="32" t="s">
-        <v>629</v>
+        <v>776</v>
       </c>
       <c r="S74" s="39"/>
       <c r="V74" s="15"/>
@@ -6817,43 +7824,43 @@
     <row r="76" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="25"/>
       <c r="D76" s="26" t="s">
-        <v>431</v>
+        <v>777</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>432</v>
+        <v>779</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>433</v>
+        <v>781</v>
       </c>
       <c r="G76" s="26"/>
       <c r="H76" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>719</v>
+        <v>510</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>435</v>
+        <v>785</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>436</v>
+        <v>787</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="26" t="s">
-        <v>437</v>
+        <v>789</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>438</v>
+        <v>791</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>390</v>
+        <v>692</v>
       </c>
       <c r="P76" s="26" t="s">
-        <v>386</v>
+        <v>682</v>
       </c>
       <c r="Q76" s="26"/>
       <c r="R76" s="26" t="s">
-        <v>62</v>
+        <v>793</v>
       </c>
       <c r="S76" s="27"/>
       <c r="V76" s="15"/>
@@ -6914,43 +7921,43 @@
     <row r="78" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="30"/>
       <c r="D78" s="32" t="s">
-        <v>630</v>
+        <v>778</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>631</v>
+        <v>780</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>632</v>
+        <v>782</v>
       </c>
       <c r="G78" s="32"/>
       <c r="H78" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>726</v>
+        <v>517</v>
       </c>
       <c r="J78" s="32" t="s">
-        <v>634</v>
+        <v>786</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>635</v>
+        <v>788</v>
       </c>
       <c r="L78" s="32"/>
       <c r="M78" s="32" t="s">
-        <v>636</v>
+        <v>790</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>637</v>
+        <v>792</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="P78" s="32" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="Q78" s="32"/>
       <c r="R78" s="32" t="s">
-        <v>638</v>
+        <v>794</v>
       </c>
       <c r="S78" s="39"/>
       <c r="V78" s="15"/>
@@ -6978,19 +7985,19 @@
     <row r="80" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="25"/>
       <c r="D80" s="26" t="s">
-        <v>69</v>
+        <v>690</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>61</v>
+        <v>797</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
@@ -7029,7 +8036,7 @@
         <v>38</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="K81" s="51"/>
       <c r="L81" s="51"/>
@@ -7045,19 +8052,19 @@
     <row r="82" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="30"/>
       <c r="D82" s="32" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>640</v>
+        <v>798</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>641</v>
+        <v>800</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
@@ -7118,7 +8125,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="E85" s="51"/>
       <c r="F85" s="51"/>
@@ -7180,45 +8187,45 @@
     <row r="88" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="25"/>
       <c r="D88" s="26" t="s">
-        <v>64</v>
+        <v>801</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>401</v>
+        <v>714</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>441</v>
+        <v>803</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="J88" s="26"/>
       <c r="K88" s="26" t="s">
-        <v>442</v>
+        <v>805</v>
       </c>
       <c r="L88" s="26" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
       <c r="M88" s="26" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="26" t="s">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="Q88" s="26" t="s">
-        <v>445</v>
+        <v>809</v>
       </c>
       <c r="R88" s="26" t="s">
-        <v>446</v>
+        <v>811</v>
       </c>
       <c r="S88" s="27"/>
       <c r="V88" s="15"/>
@@ -7279,45 +8286,45 @@
     <row r="90" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="30"/>
       <c r="D90" s="32" t="s">
-        <v>642</v>
+        <v>802</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>598</v>
+        <v>715</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>643</v>
+        <v>804</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
-        <v>644</v>
+        <v>806</v>
       </c>
       <c r="L90" s="32" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>646</v>
+        <v>539</v>
       </c>
       <c r="O90" s="32"/>
       <c r="P90" s="32" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="Q90" s="32" t="s">
-        <v>647</v>
+        <v>810</v>
       </c>
       <c r="R90" s="32" t="s">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="S90" s="39"/>
       <c r="V90" s="15"/>
@@ -7345,43 +8352,43 @@
     <row r="92" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="25"/>
       <c r="D92" s="26" t="s">
-        <v>447</v>
+        <v>813</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>448</v>
+        <v>815</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>378</v>
+        <v>664</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>449</v>
+        <v>817</v>
       </c>
       <c r="J92" s="26"/>
       <c r="K92" s="26" t="s">
-        <v>450</v>
+        <v>819</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>451</v>
+        <v>821</v>
       </c>
       <c r="M92" s="26" t="s">
-        <v>452</v>
+        <v>823</v>
       </c>
       <c r="N92" s="26" t="s">
-        <v>453</v>
+        <v>825</v>
       </c>
       <c r="O92" s="26"/>
       <c r="P92" s="26" t="s">
-        <v>454</v>
+        <v>827</v>
       </c>
       <c r="Q92" s="26" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
       <c r="R92" s="26" t="s">
-        <v>455</v>
+        <v>829</v>
       </c>
       <c r="S92" s="27"/>
       <c r="V92" s="15"/>
@@ -7442,43 +8449,43 @@
     <row r="94" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="30"/>
       <c r="D94" s="32" t="s">
-        <v>649</v>
+        <v>814</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>650</v>
+        <v>816</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>651</v>
+        <v>818</v>
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
       <c r="L94" s="32" t="s">
-        <v>653</v>
+        <v>822</v>
       </c>
       <c r="M94" s="32" t="s">
-        <v>654</v>
+        <v>824</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>655</v>
+        <v>826</v>
       </c>
       <c r="O94" s="32"/>
       <c r="P94" s="32" t="s">
-        <v>656</v>
+        <v>828</v>
       </c>
       <c r="Q94" s="32" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="R94" s="32" t="s">
-        <v>657</v>
+        <v>830</v>
       </c>
       <c r="S94" s="39"/>
       <c r="V94" s="15"/>
@@ -7506,43 +8513,43 @@
     <row r="96" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="25"/>
       <c r="D96" s="26" t="s">
-        <v>456</v>
+        <v>831</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26" t="s">
-        <v>457</v>
+        <v>833</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>458</v>
+        <v>835</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>720</v>
+        <v>511</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
       <c r="J96" s="26"/>
       <c r="K96" s="26" t="s">
-        <v>721</v>
+        <v>512</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>721</v>
+        <v>512</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>459</v>
+        <v>837</v>
       </c>
       <c r="N96" s="26" t="s">
-        <v>459</v>
+        <v>837</v>
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="26" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="Q96" s="26" t="s">
-        <v>460</v>
+        <v>839</v>
       </c>
       <c r="R96" s="26" t="s">
-        <v>368</v>
+        <v>644</v>
       </c>
       <c r="S96" s="27"/>
       <c r="V96" s="15"/>
@@ -7603,43 +8610,43 @@
     <row r="98" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="30"/>
       <c r="D98" s="32" t="s">
-        <v>658</v>
+        <v>832</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="32" t="s">
-        <v>659</v>
+        <v>834</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>660</v>
+        <v>836</v>
       </c>
       <c r="H98" s="32" t="s">
-        <v>727</v>
+        <v>518</v>
       </c>
       <c r="I98" s="32" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="J98" s="32"/>
       <c r="K98" s="32" t="s">
-        <v>728</v>
+        <v>519</v>
       </c>
       <c r="L98" s="32" t="s">
-        <v>728</v>
+        <v>519</v>
       </c>
       <c r="M98" s="32" t="s">
-        <v>661</v>
+        <v>838</v>
       </c>
       <c r="N98" s="32" t="s">
-        <v>661</v>
+        <v>838</v>
       </c>
       <c r="O98" s="32"/>
       <c r="P98" s="32" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="Q98" s="32" t="s">
-        <v>662</v>
+        <v>840</v>
       </c>
       <c r="R98" s="32" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="S98" s="39"/>
       <c r="V98" s="15"/>
@@ -7667,43 +8674,43 @@
     <row r="100" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="25"/>
       <c r="D100" s="26" t="s">
-        <v>461</v>
+        <v>841</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="G100" s="26"/>
       <c r="H100" s="26" t="s">
-        <v>370</v>
+        <v>648</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>404</v>
+        <v>719</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>379</v>
+        <v>666</v>
       </c>
       <c r="K100" s="26" t="s">
-        <v>417</v>
+        <v>747</v>
       </c>
       <c r="L100" s="26"/>
       <c r="M100" s="26" t="s">
-        <v>462</v>
+        <v>843</v>
       </c>
       <c r="N100" s="26" t="s">
-        <v>447</v>
+        <v>813</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>463</v>
+        <v>845</v>
       </c>
       <c r="P100" s="26" t="s">
-        <v>348</v>
+        <v>595</v>
       </c>
       <c r="Q100" s="26"/>
       <c r="R100" s="26" t="s">
-        <v>464</v>
+        <v>847</v>
       </c>
       <c r="S100" s="27"/>
       <c r="V100" s="15"/>
@@ -7764,43 +8771,43 @@
     <row r="102" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="30"/>
       <c r="D102" s="32" t="s">
-        <v>663</v>
+        <v>842</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>609</v>
+        <v>736</v>
       </c>
       <c r="G102" s="32"/>
       <c r="H102" s="32" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="I102" s="32" t="s">
-        <v>601</v>
+        <v>720</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>615</v>
+        <v>748</v>
       </c>
       <c r="L102" s="32"/>
       <c r="M102" s="32" t="s">
-        <v>664</v>
+        <v>844</v>
       </c>
       <c r="N102" s="32" t="s">
-        <v>649</v>
+        <v>814</v>
       </c>
       <c r="O102" s="32" t="s">
-        <v>665</v>
+        <v>846</v>
       </c>
       <c r="P102" s="32" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="Q102" s="32"/>
       <c r="R102" s="32" t="s">
-        <v>666</v>
+        <v>848</v>
       </c>
       <c r="S102" s="39"/>
       <c r="V102" s="15"/>
@@ -7828,43 +8835,43 @@
     <row r="104" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="25"/>
       <c r="D104" s="26" t="s">
-        <v>456</v>
+        <v>831</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>465</v>
+        <v>849</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>333</v>
+        <v>562</v>
       </c>
       <c r="G104" s="26"/>
       <c r="H104" s="26" t="s">
-        <v>466</v>
+        <v>851</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>467</v>
+        <v>853</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>72</v>
+        <v>855</v>
       </c>
       <c r="K104" s="26" t="s">
-        <v>468</v>
+        <v>857</v>
       </c>
       <c r="L104" s="26"/>
       <c r="M104" s="26" t="s">
-        <v>380</v>
+        <v>668</v>
       </c>
       <c r="N104" s="26" t="s">
-        <v>469</v>
+        <v>859</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="P104" s="26" t="s">
-        <v>69</v>
+        <v>690</v>
       </c>
       <c r="Q104" s="26"/>
       <c r="R104" s="26" t="s">
-        <v>428</v>
+        <v>769</v>
       </c>
       <c r="S104" s="27"/>
       <c r="V104" s="15"/>
@@ -7925,43 +8932,43 @@
     <row r="106" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="30"/>
       <c r="D106" s="32" t="s">
-        <v>658</v>
+        <v>832</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="G106" s="32"/>
       <c r="H106" s="32" t="s">
-        <v>668</v>
+        <v>852</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>669</v>
+        <v>854</v>
       </c>
       <c r="J106" s="32" t="s">
-        <v>670</v>
+        <v>856</v>
       </c>
       <c r="K106" s="32" t="s">
-        <v>671</v>
+        <v>858</v>
       </c>
       <c r="L106" s="32"/>
       <c r="M106" s="32" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="N106" s="32" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="O106" s="32" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="P106" s="32" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="Q106" s="32"/>
       <c r="R106" s="32" t="s">
-        <v>626</v>
+        <v>770</v>
       </c>
       <c r="S106" s="39"/>
       <c r="V106" s="15"/>
@@ -7989,45 +8996,45 @@
     <row r="108" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="25"/>
       <c r="D108" s="26" t="s">
-        <v>71</v>
+        <v>771</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>341</v>
+        <v>580</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>382</v>
+        <v>674</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>429</v>
+        <v>773</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>470</v>
+        <v>861</v>
       </c>
       <c r="K108" s="26" t="s">
-        <v>471</v>
+        <v>863</v>
       </c>
       <c r="L108" s="26" t="s">
-        <v>472</v>
+        <v>865</v>
       </c>
       <c r="M108" s="26" t="s">
-        <v>473</v>
+        <v>867</v>
       </c>
       <c r="N108" s="26"/>
       <c r="O108" s="26" t="s">
-        <v>474</v>
+        <v>869</v>
       </c>
       <c r="P108" s="26" t="s">
-        <v>401</v>
+        <v>714</v>
       </c>
       <c r="Q108" s="26" t="s">
-        <v>475</v>
+        <v>871</v>
       </c>
       <c r="R108" s="26" t="s">
-        <v>476</v>
+        <v>873</v>
       </c>
       <c r="S108" s="27"/>
       <c r="V108" s="15"/>
@@ -8088,45 +9095,45 @@
     <row r="110" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="30"/>
       <c r="D110" s="32" t="s">
-        <v>627</v>
+        <v>772</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="G110" s="32"/>
       <c r="H110" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="I110" s="32" t="s">
-        <v>628</v>
+        <v>774</v>
       </c>
       <c r="J110" s="32" t="s">
-        <v>673</v>
+        <v>862</v>
       </c>
       <c r="K110" s="32" t="s">
-        <v>674</v>
+        <v>864</v>
       </c>
       <c r="L110" s="32" t="s">
-        <v>675</v>
+        <v>866</v>
       </c>
       <c r="M110" s="32" t="s">
-        <v>676</v>
+        <v>868</v>
       </c>
       <c r="N110" s="32"/>
       <c r="O110" s="32" t="s">
-        <v>677</v>
+        <v>870</v>
       </c>
       <c r="P110" s="32" t="s">
-        <v>598</v>
+        <v>715</v>
       </c>
       <c r="Q110" s="32" t="s">
-        <v>678</v>
+        <v>872</v>
       </c>
       <c r="R110" s="32" t="s">
-        <v>679</v>
+        <v>874</v>
       </c>
       <c r="S110" s="39"/>
       <c r="V110" s="15"/>
@@ -8155,35 +9162,35 @@
       <c r="B112" s="25"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26" t="s">
-        <v>477</v>
+        <v>875</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>478</v>
+        <v>877</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>479</v>
+        <v>879</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>407</v>
+        <v>725</v>
       </c>
       <c r="I112" s="26"/>
       <c r="J112" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>480</v>
+        <v>881</v>
       </c>
       <c r="L112" s="26" t="s">
-        <v>481</v>
+        <v>883</v>
       </c>
       <c r="M112" s="26" t="s">
-        <v>481</v>
+        <v>883</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
@@ -8236,7 +9243,7 @@
         <v>38</v>
       </c>
       <c r="Q113" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="R113" s="51"/>
       <c r="S113" s="29"/>
@@ -8246,35 +9253,35 @@
       <c r="B114" s="30"/>
       <c r="D114" s="32"/>
       <c r="E114" s="32" t="s">
-        <v>680</v>
+        <v>876</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>681</v>
+        <v>878</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>682</v>
+        <v>880</v>
       </c>
       <c r="H114" s="32" t="s">
-        <v>604</v>
+        <v>726</v>
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="K114" s="32" t="s">
-        <v>683</v>
+        <v>882</v>
       </c>
       <c r="L114" s="32" t="s">
-        <v>684</v>
+        <v>884</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>684</v>
+        <v>884</v>
       </c>
       <c r="N114" s="32" t="s">
-        <v>641</v>
+        <v>800</v>
       </c>
       <c r="O114" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="P114" s="32"/>
       <c r="Q114" s="32"/>
@@ -8328,7 +9335,7 @@
         <v>29</v>
       </c>
       <c r="D117" s="51" t="s">
-        <v>729</v>
+        <v>520</v>
       </c>
       <c r="E117" s="51"/>
       <c r="F117" s="53"/>
@@ -8390,45 +9397,45 @@
     <row r="120" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="25"/>
       <c r="D120" s="26" t="s">
-        <v>482</v>
+        <v>885</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>358</v>
+        <v>621</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="H120" s="26" t="s">
-        <v>483</v>
+        <v>887</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>484</v>
+        <v>889</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>485</v>
+        <v>891</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="M120" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>470</v>
+        <v>861</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26" t="s">
-        <v>460</v>
+        <v>839</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>399</v>
+        <v>710</v>
       </c>
       <c r="R120" s="26" t="s">
-        <v>486</v>
+        <v>893</v>
       </c>
       <c r="S120" s="27"/>
       <c r="V120" s="15"/>
@@ -8489,45 +9496,45 @@
     <row r="122" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="30"/>
       <c r="D122" s="32" t="s">
-        <v>685</v>
+        <v>886</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="H122" s="32" t="s">
-        <v>686</v>
+        <v>888</v>
       </c>
       <c r="I122" s="32" t="s">
-        <v>687</v>
+        <v>890</v>
       </c>
       <c r="J122" s="32" t="s">
-        <v>688</v>
+        <v>892</v>
       </c>
       <c r="K122" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="L122" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="M122" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>673</v>
+        <v>862</v>
       </c>
       <c r="O122" s="32"/>
       <c r="P122" s="32" t="s">
-        <v>662</v>
+        <v>840</v>
       </c>
       <c r="Q122" s="32" t="s">
-        <v>596</v>
+        <v>711</v>
       </c>
       <c r="R122" s="32" t="s">
-        <v>689</v>
+        <v>894</v>
       </c>
       <c r="S122" s="39"/>
       <c r="V122" s="15"/>
@@ -8555,43 +9562,43 @@
     <row r="124" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="25"/>
       <c r="D124" s="26" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>67</v>
+        <v>895</v>
       </c>
       <c r="G124" s="26"/>
       <c r="H124" s="26" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>487</v>
+        <v>897</v>
       </c>
       <c r="J124" s="26"/>
       <c r="K124" s="26" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="M124" s="26" t="s">
-        <v>397</v>
+        <v>706</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>480</v>
+        <v>881</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>354</v>
+        <v>613</v>
       </c>
       <c r="R124" s="26" t="s">
-        <v>488</v>
+        <v>899</v>
       </c>
       <c r="S124" s="27"/>
       <c r="V124" s="15"/>
@@ -8652,43 +9659,43 @@
     <row r="126" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="30"/>
       <c r="D126" s="32" t="s">
-        <v>641</v>
+        <v>800</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="F126" s="32" t="s">
-        <v>690</v>
+        <v>896</v>
       </c>
       <c r="G126" s="32"/>
       <c r="H126" s="32" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="I126" s="32" t="s">
-        <v>691</v>
+        <v>898</v>
       </c>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="L126" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="M126" s="32" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="N126" s="32" t="s">
-        <v>683</v>
+        <v>882</v>
       </c>
       <c r="O126" s="32"/>
       <c r="P126" s="32" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="Q126" s="32" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="R126" s="32" t="s">
-        <v>692</v>
+        <v>900</v>
       </c>
       <c r="S126" s="39"/>
       <c r="V126" s="15"/>
@@ -8716,43 +9723,43 @@
     <row r="128" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="25"/>
       <c r="D128" s="26" t="s">
-        <v>61</v>
+        <v>797</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26" t="s">
-        <v>436</v>
+        <v>787</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>489</v>
+        <v>901</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>65</v>
+        <v>903</v>
       </c>
       <c r="K128" s="26"/>
       <c r="L128" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="M128" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>70</v>
+        <v>905</v>
       </c>
       <c r="P128" s="26"/>
       <c r="Q128" s="26" t="s">
-        <v>380</v>
+        <v>668</v>
       </c>
       <c r="R128" s="26" t="s">
-        <v>369</v>
+        <v>646</v>
       </c>
       <c r="S128" s="27"/>
       <c r="V128" s="15"/>
@@ -8813,43 +9820,43 @@
     <row r="130" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="30"/>
       <c r="D130" s="32" t="s">
-        <v>640</v>
+        <v>798</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="32" t="s">
-        <v>635</v>
+        <v>788</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>693</v>
+        <v>902</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>694</v>
+        <v>592</v>
       </c>
       <c r="I130" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="J130" s="32" t="s">
-        <v>695</v>
+        <v>904</v>
       </c>
       <c r="K130" s="32"/>
       <c r="L130" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="M130" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="N130" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="O130" s="32" t="s">
-        <v>696</v>
+        <v>906</v>
       </c>
       <c r="P130" s="32"/>
       <c r="Q130" s="32" t="s">
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="R130" s="32" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="S130" s="39"/>
       <c r="V130" s="15"/>
@@ -8877,43 +9884,43 @@
     <row r="132" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="25"/>
       <c r="D132" s="26" t="s">
-        <v>364</v>
+        <v>635</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>365</v>
+        <v>638</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="K132" s="26" t="s">
-        <v>491</v>
+        <v>907</v>
       </c>
       <c r="L132" s="26"/>
       <c r="M132" s="26" t="s">
-        <v>68</v>
+        <v>909</v>
       </c>
       <c r="N132" s="26" t="s">
-        <v>492</v>
+        <v>911</v>
       </c>
       <c r="O132" s="26" t="s">
-        <v>493</v>
+        <v>913</v>
       </c>
       <c r="P132" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="Q132" s="26"/>
       <c r="R132" s="26" t="s">
-        <v>494</v>
+        <v>915</v>
       </c>
       <c r="S132" s="27"/>
       <c r="V132" s="15"/>
@@ -8974,43 +9981,43 @@
     <row r="134" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="30"/>
       <c r="D134" s="32" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="G134" s="32"/>
       <c r="H134" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="I134" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="J134" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="K134" s="32" t="s">
-        <v>697</v>
+        <v>908</v>
       </c>
       <c r="L134" s="32"/>
       <c r="M134" s="32" t="s">
-        <v>698</v>
+        <v>910</v>
       </c>
       <c r="N134" s="32" t="s">
-        <v>699</v>
+        <v>912</v>
       </c>
       <c r="O134" s="32" t="s">
-        <v>700</v>
+        <v>914</v>
       </c>
       <c r="P134" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="Q134" s="32"/>
       <c r="R134" s="32" t="s">
-        <v>701</v>
+        <v>916</v>
       </c>
       <c r="S134" s="39"/>
       <c r="V134" s="15"/>
@@ -9038,42 +10045,42 @@
     <row r="136" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="25"/>
       <c r="D136" s="26" t="s">
-        <v>493</v>
+        <v>913</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26" t="s">
-        <v>386</v>
+        <v>682</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>381</v>
+        <v>670</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="K136" s="26" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="L136" s="26" t="s">
-        <v>469</v>
+        <v>859</v>
       </c>
       <c r="M136" s="26" t="s">
-        <v>496</v>
+        <v>919</v>
       </c>
       <c r="N136" s="26"/>
       <c r="O136" s="26" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="P136" s="26" t="s">
-        <v>497</v>
+        <v>921</v>
       </c>
       <c r="Q136" s="26" t="s">
-        <v>329</v>
+        <v>550</v>
       </c>
       <c r="R136" s="26"/>
       <c r="S136" s="27"/>
@@ -9135,42 +10142,42 @@
     <row r="138" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="30"/>
       <c r="D138" s="32" t="s">
-        <v>700</v>
+        <v>914</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="H138" s="32" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="I138" s="32" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="J138" s="32" t="s">
-        <v>702</v>
+        <v>918</v>
       </c>
       <c r="K138" s="32" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="L138" s="32" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>703</v>
+        <v>920</v>
       </c>
       <c r="N138" s="32"/>
       <c r="O138" s="32" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="P138" s="32" t="s">
-        <v>704</v>
+        <v>922</v>
       </c>
       <c r="Q138" s="32" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="R138" s="32"/>
       <c r="S138" s="39"/>
@@ -9200,44 +10207,44 @@
       <c r="B140" s="25"/>
       <c r="D140" s="26"/>
       <c r="E140" s="26" t="s">
-        <v>498</v>
+        <v>923</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>446</v>
+        <v>811</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>445</v>
+        <v>809</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="J140" s="26" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>434</v>
+        <v>783</v>
       </c>
       <c r="L140" s="26"/>
       <c r="M140" s="26" t="s">
-        <v>72</v>
+        <v>855</v>
       </c>
       <c r="N140" s="26" t="s">
-        <v>446</v>
+        <v>811</v>
       </c>
       <c r="O140" s="26" t="s">
-        <v>445</v>
+        <v>809</v>
       </c>
       <c r="P140" s="26" t="s">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="Q140" s="26" t="s">
-        <v>469</v>
+        <v>859</v>
       </c>
       <c r="R140" s="26" t="s">
-        <v>439</v>
+        <v>795</v>
       </c>
       <c r="S140" s="27"/>
       <c r="V140" s="15"/>
@@ -9299,44 +10306,44 @@
       <c r="B142" s="30"/>
       <c r="D142" s="32"/>
       <c r="E142" s="32" t="s">
-        <v>705</v>
+        <v>924</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>647</v>
+        <v>810</v>
       </c>
       <c r="H142" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="I142" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="J142" s="32" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="K142" s="32" t="s">
-        <v>633</v>
+        <v>784</v>
       </c>
       <c r="L142" s="32"/>
       <c r="M142" s="32" t="s">
-        <v>670</v>
+        <v>856</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="O142" s="32" t="s">
-        <v>647</v>
+        <v>810</v>
       </c>
       <c r="P142" s="32" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="Q142" s="32" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="R142" s="32" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="S142" s="39"/>
       <c r="V142" s="15"/>
@@ -9364,38 +10371,38 @@
     <row r="144" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="25"/>
       <c r="D144" s="26" t="s">
-        <v>469</v>
+        <v>859</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" s="26" t="s">
-        <v>473</v>
+        <v>867</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
-        <v>722</v>
+        <v>513</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>499</v>
+        <v>925</v>
       </c>
       <c r="K144" s="26" t="s">
-        <v>71</v>
+        <v>771</v>
       </c>
       <c r="L144" s="26" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="M144" s="26"/>
       <c r="N144" s="26" t="s">
-        <v>500</v>
+        <v>927</v>
       </c>
       <c r="O144" s="26" t="s">
-        <v>452</v>
+        <v>823</v>
       </c>
       <c r="P144" s="26" t="s">
-        <v>352</v>
+        <v>607</v>
       </c>
       <c r="Q144" s="26" t="s">
-        <v>501</v>
+        <v>929</v>
       </c>
       <c r="R144" s="26"/>
       <c r="S144" s="27"/>
@@ -9457,38 +10464,38 @@
     <row r="146" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="30"/>
       <c r="D146" s="32" t="s">
-        <v>672</v>
+        <v>860</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32" t="s">
-        <v>676</v>
+        <v>868</v>
       </c>
       <c r="G146" s="32"/>
       <c r="H146" s="32" t="s">
-        <v>730</v>
+        <v>521</v>
       </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32" t="s">
-        <v>706</v>
+        <v>926</v>
       </c>
       <c r="K146" s="32" t="s">
-        <v>627</v>
+        <v>772</v>
       </c>
       <c r="L146" s="32" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="M146" s="32"/>
       <c r="N146" s="32" t="s">
-        <v>707</v>
+        <v>928</v>
       </c>
       <c r="O146" s="32" t="s">
-        <v>654</v>
+        <v>824</v>
       </c>
       <c r="P146" s="32" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="Q146" s="32" t="s">
-        <v>708</v>
+        <v>930</v>
       </c>
       <c r="R146" s="32"/>
       <c r="S146" s="39"/>
@@ -11615,126 +12622,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D3C5A-9A9F-4993-BA48-0CEBF522BB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED3FE0-A7F7-4354-951F-22F08195F85D}">
   <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" t="s">
-        <v>721</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5171F7A5-3314-4C75-98D8-09CB1FA58B28}">
-  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11754,6 +12643,166 @@
         <v>80</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F47B1E8-E17B-4F0F-8F53-55CEF3A5416C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11761,7 +12810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49355E6-4F77-4AF5-A5C6-2B188104B7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB90EF23-7AF1-4F22-986E-727539437AA1}">
   <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11798,7 +12847,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11820,7 +12869,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -11831,7 +12880,7 @@
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -11842,7 +12891,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11853,7 +12902,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -11864,7 +12913,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11875,7 +12924,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11886,7 +12935,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -11897,7 +12946,7 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -11919,7 +12968,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -11930,7 +12979,7 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11941,7 +12990,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -11952,7 +13001,7 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11963,7 +13012,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -11996,7 +13045,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12018,7 +13067,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12029,7 +13078,7 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -12040,7 +13089,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -12051,7 +13100,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -12062,7 +13111,7 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -12073,7 +13122,7 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -12084,7 +13133,7 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -12095,7 +13144,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -12106,7 +13155,7 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -12128,7 +13177,7 @@
         <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -12139,7 +13188,7 @@
         <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12150,7 +13199,7 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12161,7 +13210,7 @@
         <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>486</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12172,7 +13221,7 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -12183,7 +13232,7 @@
         <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12194,7 +13243,7 @@
         <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -12205,7 +13254,7 @@
         <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -12216,7 +13265,7 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -12249,7 +13298,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -12260,7 +13309,7 @@
         <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -12282,7 +13331,7 @@
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -12293,7 +13342,7 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -12304,7 +13353,7 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -12315,7 +13364,7 @@
         <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -12326,7 +13375,7 @@
         <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -12348,7 +13397,7 @@
         <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -12359,7 +13408,7 @@
         <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -12370,7 +13419,7 @@
         <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -12381,7 +13430,7 @@
         <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -12392,7 +13441,7 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -12403,7 +13452,7 @@
         <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -12414,7 +13463,7 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -12425,7 +13474,7 @@
         <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -12436,7 +13485,7 @@
         <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -12447,7 +13496,7 @@
         <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -12458,7 +13507,7 @@
         <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -12469,7 +13518,7 @@
         <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -12480,7 +13529,7 @@
         <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -12491,7 +13540,7 @@
         <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -12502,7 +13551,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -12513,7 +13562,7 @@
         <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -12524,7 +13573,7 @@
         <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -12535,7 +13584,7 @@
         <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -12546,7 +13595,7 @@
         <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -12557,7 +13606,7 @@
         <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -12568,7 +13617,7 @@
         <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -12590,7 +13639,7 @@
         <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -12601,7 +13650,7 @@
         <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -12612,7 +13661,7 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -12623,7 +13672,7 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -12645,7 +13694,7 @@
         <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -12656,7 +13705,7 @@
         <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -12667,7 +13716,7 @@
         <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -12678,7 +13727,7 @@
         <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -12689,7 +13738,7 @@
         <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -12700,7 +13749,7 @@
         <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -12711,7 +13760,7 @@
         <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -12722,7 +13771,7 @@
         <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -12733,7 +13782,7 @@
         <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -12744,7 +13793,7 @@
         <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -12766,7 +13815,7 @@
         <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -12777,7 +13826,7 @@
         <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -12788,7 +13837,7 @@
         <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -12799,7 +13848,7 @@
         <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -12810,7 +13859,7 @@
         <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -12821,7 +13870,7 @@
         <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -12832,7 +13881,7 @@
         <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -12843,7 +13892,7 @@
         <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -12854,7 +13903,7 @@
         <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -12865,7 +13914,7 @@
         <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -12876,7 +13925,7 @@
         <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -12887,7 +13936,7 @@
         <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -12898,7 +13947,7 @@
         <v>178</v>
       </c>
       <c r="B103" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -12909,7 +13958,7 @@
         <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -12920,7 +13969,7 @@
         <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -12931,7 +13980,7 @@
         <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -12942,7 +13991,7 @@
         <v>184</v>
       </c>
       <c r="B107" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -12953,7 +14002,7 @@
         <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -12964,7 +14013,7 @@
         <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -12975,7 +14024,7 @@
         <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -12986,7 +14035,7 @@
         <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -12997,7 +14046,7 @@
         <v>189</v>
       </c>
       <c r="B112" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -13008,7 +14057,7 @@
         <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -13019,7 +14068,7 @@
         <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -13030,7 +14079,7 @@
         <v>192</v>
       </c>
       <c r="B115" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -13041,7 +14090,7 @@
         <v>193</v>
       </c>
       <c r="B116" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -13052,7 +14101,7 @@
         <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -13063,7 +14112,7 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -13085,7 +14134,7 @@
         <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -13096,7 +14145,7 @@
         <v>197</v>
       </c>
       <c r="B121" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -13107,7 +14156,7 @@
         <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -13118,7 +14167,7 @@
         <v>199</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -13129,7 +14178,7 @@
         <v>200</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -13140,7 +14189,7 @@
         <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -13151,7 +14200,7 @@
         <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -13162,7 +14211,7 @@
         <v>203</v>
       </c>
       <c r="B127" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -13173,7 +14222,7 @@
         <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -13184,7 +14233,7 @@
         <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -13195,7 +14244,7 @@
         <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -13206,7 +14255,7 @@
         <v>208</v>
       </c>
       <c r="B131" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -13217,7 +14266,7 @@
         <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -13228,7 +14277,7 @@
         <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -13239,7 +14288,7 @@
         <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -13250,7 +14299,7 @@
         <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -13261,7 +14310,7 @@
         <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -13272,7 +14321,7 @@
         <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -13283,7 +14332,7 @@
         <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -13305,7 +14354,7 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -13316,7 +14365,7 @@
         <v>217</v>
       </c>
       <c r="B141" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -13327,7 +14376,7 @@
         <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -13338,7 +14387,7 @@
         <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -13349,7 +14398,7 @@
         <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -13360,7 +14409,7 @@
         <v>221</v>
       </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C145">
         <v>7</v>
@@ -13371,7 +14420,7 @@
         <v>223</v>
       </c>
       <c r="B146" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -13382,7 +14431,7 @@
         <v>224</v>
       </c>
       <c r="B147" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -13393,7 +14442,7 @@
         <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -13404,7 +14453,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -13415,7 +14464,7 @@
         <v>227</v>
       </c>
       <c r="B150" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -13437,7 +14486,7 @@
         <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -13459,7 +14508,7 @@
         <v>230</v>
       </c>
       <c r="B154" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -13481,7 +14530,7 @@
         <v>231</v>
       </c>
       <c r="B156" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -13492,7 +14541,7 @@
         <v>232</v>
       </c>
       <c r="B157" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -13503,7 +14552,7 @@
         <v>233</v>
       </c>
       <c r="B158" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -13514,7 +14563,7 @@
         <v>234</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -13525,7 +14574,7 @@
         <v>235</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -13536,7 +14585,7 @@
         <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -13547,7 +14596,7 @@
         <v>237</v>
       </c>
       <c r="B162" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -13558,7 +14607,7 @@
         <v>238</v>
       </c>
       <c r="B163" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -13569,7 +14618,7 @@
         <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -13580,7 +14629,7 @@
         <v>240</v>
       </c>
       <c r="B165" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -13591,7 +14640,7 @@
         <v>241</v>
       </c>
       <c r="B166" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -13602,7 +14651,7 @@
         <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -13613,7 +14662,7 @@
         <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -13624,7 +14673,7 @@
         <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -13635,7 +14684,7 @@
         <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -13646,7 +14695,7 @@
         <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -13657,7 +14706,7 @@
         <v>247</v>
       </c>
       <c r="B172" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -13668,7 +14717,7 @@
         <v>248</v>
       </c>
       <c r="B173" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -13679,7 +14728,7 @@
         <v>249</v>
       </c>
       <c r="B174" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -13690,7 +14739,7 @@
         <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -13701,7 +14750,7 @@
         <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -13712,7 +14761,7 @@
         <v>254</v>
       </c>
       <c r="B177" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -13723,7 +14772,7 @@
         <v>255</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -13734,7 +14783,7 @@
         <v>256</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -13745,7 +14794,7 @@
         <v>257</v>
       </c>
       <c r="B180" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -13756,7 +14805,7 @@
         <v>258</v>
       </c>
       <c r="B181" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -13767,7 +14816,7 @@
         <v>259</v>
       </c>
       <c r="B182" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -13778,7 +14827,7 @@
         <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -13789,7 +14838,7 @@
         <v>261</v>
       </c>
       <c r="B184" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -13800,7 +14849,7 @@
         <v>262</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -13811,7 +14860,7 @@
         <v>263</v>
       </c>
       <c r="B186" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -13822,7 +14871,7 @@
         <v>264</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -13833,7 +14882,7 @@
         <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -13844,7 +14893,7 @@
         <v>266</v>
       </c>
       <c r="B189" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -13866,7 +14915,7 @@
         <v>268</v>
       </c>
       <c r="B191" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -13877,7 +14926,7 @@
         <v>269</v>
       </c>
       <c r="B192" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C192">
         <v>4</v>
@@ -13899,7 +14948,7 @@
         <v>271</v>
       </c>
       <c r="B194" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -13910,7 +14959,7 @@
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13921,7 +14970,7 @@
         <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13932,7 +14981,7 @@
         <v>274</v>
       </c>
       <c r="B197" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13943,7 +14992,7 @@
         <v>275</v>
       </c>
       <c r="B198" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13954,7 +15003,7 @@
         <v>276</v>
       </c>
       <c r="B199" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13965,7 +15014,7 @@
         <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13976,7 +15025,7 @@
         <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13987,7 +15036,7 @@
         <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13998,7 +15047,7 @@
         <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -14009,7 +15058,7 @@
         <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -14020,7 +15069,7 @@
         <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -14031,7 +15080,7 @@
         <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -14042,7 +15091,7 @@
         <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -14053,7 +15102,7 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -14064,7 +15113,7 @@
         <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -14075,7 +15124,7 @@
         <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -14097,7 +15146,7 @@
         <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14119,7 +15168,7 @@
         <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14130,7 +15179,7 @@
         <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14141,7 +15190,7 @@
         <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14152,7 +15201,7 @@
         <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14163,7 +15212,7 @@
         <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14196,7 +15245,7 @@
         <v>298</v>
       </c>
       <c r="B221" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14207,7 +15256,7 @@
         <v>299</v>
       </c>
       <c r="B222" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14229,7 +15278,7 @@
         <v>300</v>
       </c>
       <c r="B224" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14240,7 +15289,7 @@
         <v>301</v>
       </c>
       <c r="B225" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -14251,7 +15300,7 @@
         <v>302</v>
       </c>
       <c r="B226" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14262,7 +15311,7 @@
         <v>303</v>
       </c>
       <c r="B227" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14273,7 +15322,7 @@
         <v>304</v>
       </c>
       <c r="B228" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14284,7 +15333,7 @@
         <v>305</v>
       </c>
       <c r="B229" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14295,7 +15344,7 @@
         <v>306</v>
       </c>
       <c r="B230" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14306,7 +15355,7 @@
         <v>309</v>
       </c>
       <c r="B231" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14328,7 +15377,7 @@
         <v>312</v>
       </c>
       <c r="B233" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14339,7 +15388,7 @@
         <v>314</v>
       </c>
       <c r="B234" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14350,7 +15399,7 @@
         <v>315</v>
       </c>
       <c r="B235" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14361,7 +15410,7 @@
         <v>316</v>
       </c>
       <c r="B236" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14372,7 +15421,7 @@
         <v>36</v>
       </c>
       <c r="B237" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14383,7 +15432,7 @@
         <v>317</v>
       </c>
       <c r="B238" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14424,7 +15473,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14435,7 +15484,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -14446,7 +15495,7 @@
         <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>501</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -14457,7 +15506,7 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>711</v>
+        <v>502</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14468,7 +15517,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>503</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14479,7 +15528,7 @@
         <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>713</v>
+        <v>504</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14490,7 +15539,7 @@
         <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>505</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -14501,7 +15550,7 @@
         <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>715</v>
+        <v>506</v>
       </c>
       <c r="C9">
         <v>1</v>

--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C225FE23-E2AE-48F4-AF6B-03FE159C095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CE931-A593-42D5-811F-F5C8EFE532D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25935" yWindow="1335" windowWidth="22575" windowHeight="14280" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-25935" yWindow="1335" windowWidth="22575" windowHeight="14280" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="缺字表" sheetId="112" r:id="rId2"/>
-    <sheet name="人工標音字庫" sheetId="111" r:id="rId3"/>
-    <sheet name="標音字庫" sheetId="110" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="112" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="111" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="110" r:id="rId5"/>
     <sheet name="缺字表 (範例)" sheetId="100" r:id="rId6"/>
     <sheet name="漢字庫（範例）" sheetId="10" r:id="rId7"/>
   </sheets>
@@ -5718,4240 +5718,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5794496-5F47-46C0-B155-827A3E4C1424}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>921</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>921</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>921</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>921</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>921</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>921</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>921</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C2CF57-AEE1-4181-9D5E-CCB04A118944}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" t="s">
-        <v>921</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEDB634-8DEA-48B2-9ED0-1BD771C77A52}">
-  <dimension ref="A1:E237"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>921</v>
-      </c>
-      <c r="E2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>921</v>
-      </c>
-      <c r="E3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" t="s">
-        <v>921</v>
-      </c>
-      <c r="E4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E5" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" t="s">
-        <v>921</v>
-      </c>
-      <c r="E6" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" t="s">
-        <v>921</v>
-      </c>
-      <c r="E7" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" t="s">
-        <v>921</v>
-      </c>
-      <c r="E8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" t="s">
-        <v>921</v>
-      </c>
-      <c r="E9" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" t="s">
-        <v>921</v>
-      </c>
-      <c r="E10" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" t="s">
-        <v>921</v>
-      </c>
-      <c r="E11" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>921</v>
-      </c>
-      <c r="E12" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" t="s">
-        <v>921</v>
-      </c>
-      <c r="E13" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" t="s">
-        <v>921</v>
-      </c>
-      <c r="E14" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D15" t="s">
-        <v>921</v>
-      </c>
-      <c r="E15" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" t="s">
-        <v>921</v>
-      </c>
-      <c r="E16" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" t="s">
-        <v>921</v>
-      </c>
-      <c r="E17" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>921</v>
-      </c>
-      <c r="E18" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>921</v>
-      </c>
-      <c r="E19" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>332</v>
-      </c>
-      <c r="D20" t="s">
-        <v>921</v>
-      </c>
-      <c r="E20" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>921</v>
-      </c>
-      <c r="E21" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" t="s">
-        <v>921</v>
-      </c>
-      <c r="E22" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" t="s">
-        <v>921</v>
-      </c>
-      <c r="E23" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" t="s">
-        <v>921</v>
-      </c>
-      <c r="E24" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" t="s">
-        <v>921</v>
-      </c>
-      <c r="E25" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" t="s">
-        <v>921</v>
-      </c>
-      <c r="E26" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" t="s">
-        <v>921</v>
-      </c>
-      <c r="E27" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" t="s">
-        <v>921</v>
-      </c>
-      <c r="E28" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" t="s">
-        <v>921</v>
-      </c>
-      <c r="E29" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>341</v>
-      </c>
-      <c r="D30" t="s">
-        <v>921</v>
-      </c>
-      <c r="E30" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>921</v>
-      </c>
-      <c r="E31" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>921</v>
-      </c>
-      <c r="E32" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>343</v>
-      </c>
-      <c r="D33" t="s">
-        <v>921</v>
-      </c>
-      <c r="E33" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" t="s">
-        <v>921</v>
-      </c>
-      <c r="E34" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D35" t="s">
-        <v>921</v>
-      </c>
-      <c r="E35" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>346</v>
-      </c>
-      <c r="D36" t="s">
-        <v>921</v>
-      </c>
-      <c r="E36" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>347</v>
-      </c>
-      <c r="D37" t="s">
-        <v>921</v>
-      </c>
-      <c r="E37" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" t="s">
-        <v>921</v>
-      </c>
-      <c r="E38" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>349</v>
-      </c>
-      <c r="D39" t="s">
-        <v>921</v>
-      </c>
-      <c r="E39" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" t="s">
-        <v>921</v>
-      </c>
-      <c r="E40" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>921</v>
-      </c>
-      <c r="E41" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>921</v>
-      </c>
-      <c r="E42" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>351</v>
-      </c>
-      <c r="D43" t="s">
-        <v>921</v>
-      </c>
-      <c r="E43" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D44" t="s">
-        <v>921</v>
-      </c>
-      <c r="E44" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>921</v>
-      </c>
-      <c r="E45" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>353</v>
-      </c>
-      <c r="D46" t="s">
-        <v>921</v>
-      </c>
-      <c r="E46" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" t="s">
-        <v>921</v>
-      </c>
-      <c r="E47" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" t="s">
-        <v>921</v>
-      </c>
-      <c r="E48" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>356</v>
-      </c>
-      <c r="D49" t="s">
-        <v>921</v>
-      </c>
-      <c r="E49" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>357</v>
-      </c>
-      <c r="D50" t="s">
-        <v>921</v>
-      </c>
-      <c r="E50" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>921</v>
-      </c>
-      <c r="E51" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52" t="s">
-        <v>921</v>
-      </c>
-      <c r="E52" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>359</v>
-      </c>
-      <c r="D53" t="s">
-        <v>921</v>
-      </c>
-      <c r="E53" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D54" t="s">
-        <v>921</v>
-      </c>
-      <c r="E54" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>361</v>
-      </c>
-      <c r="D55" t="s">
-        <v>921</v>
-      </c>
-      <c r="E55" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>362</v>
-      </c>
-      <c r="D56" t="s">
-        <v>921</v>
-      </c>
-      <c r="E56" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>363</v>
-      </c>
-      <c r="D57" t="s">
-        <v>921</v>
-      </c>
-      <c r="E57" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>364</v>
-      </c>
-      <c r="D58" t="s">
-        <v>921</v>
-      </c>
-      <c r="E58" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>365</v>
-      </c>
-      <c r="D59" t="s">
-        <v>921</v>
-      </c>
-      <c r="E59" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D60" t="s">
-        <v>921</v>
-      </c>
-      <c r="E60" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D61" t="s">
-        <v>921</v>
-      </c>
-      <c r="E61" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>368</v>
-      </c>
-      <c r="D62" t="s">
-        <v>921</v>
-      </c>
-      <c r="E62" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>369</v>
-      </c>
-      <c r="D63" t="s">
-        <v>921</v>
-      </c>
-      <c r="E63" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>331</v>
-      </c>
-      <c r="D64" t="s">
-        <v>921</v>
-      </c>
-      <c r="E64" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" t="s">
-        <v>921</v>
-      </c>
-      <c r="E65" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>371</v>
-      </c>
-      <c r="D66" t="s">
-        <v>921</v>
-      </c>
-      <c r="E66" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D67" t="s">
-        <v>921</v>
-      </c>
-      <c r="E67" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>372</v>
-      </c>
-      <c r="D68" t="s">
-        <v>921</v>
-      </c>
-      <c r="E68" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>373</v>
-      </c>
-      <c r="D69" t="s">
-        <v>921</v>
-      </c>
-      <c r="E69" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>374</v>
-      </c>
-      <c r="D70" t="s">
-        <v>921</v>
-      </c>
-      <c r="E70" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>375</v>
-      </c>
-      <c r="D71" t="s">
-        <v>921</v>
-      </c>
-      <c r="E71" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>376</v>
-      </c>
-      <c r="D72" t="s">
-        <v>921</v>
-      </c>
-      <c r="E72" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" t="s">
-        <v>921</v>
-      </c>
-      <c r="E73" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>377</v>
-      </c>
-      <c r="D74" t="s">
-        <v>921</v>
-      </c>
-      <c r="E74" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>378</v>
-      </c>
-      <c r="D75" t="s">
-        <v>921</v>
-      </c>
-      <c r="E75" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>379</v>
-      </c>
-      <c r="D76" t="s">
-        <v>921</v>
-      </c>
-      <c r="E76" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>380</v>
-      </c>
-      <c r="D77" t="s">
-        <v>921</v>
-      </c>
-      <c r="E77" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>921</v>
-      </c>
-      <c r="E78" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>381</v>
-      </c>
-      <c r="D79" t="s">
-        <v>921</v>
-      </c>
-      <c r="E79" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>382</v>
-      </c>
-      <c r="D80" t="s">
-        <v>921</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>383</v>
-      </c>
-      <c r="D81" t="s">
-        <v>921</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>384</v>
-      </c>
-      <c r="D82" t="s">
-        <v>921</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>353</v>
-      </c>
-      <c r="D83" t="s">
-        <v>921</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" t="s">
-        <v>921</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>386</v>
-      </c>
-      <c r="D85" t="s">
-        <v>921</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>371</v>
-      </c>
-      <c r="D86" t="s">
-        <v>921</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>387</v>
-      </c>
-      <c r="D87" t="s">
-        <v>921</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>388</v>
-      </c>
-      <c r="D88" t="s">
-        <v>921</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" t="s">
-        <v>921</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>389</v>
-      </c>
-      <c r="D90" t="s">
-        <v>921</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>390</v>
-      </c>
-      <c r="D91" t="s">
-        <v>921</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>378</v>
-      </c>
-      <c r="D92" t="s">
-        <v>921</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>391</v>
-      </c>
-      <c r="D93" t="s">
-        <v>921</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>392</v>
-      </c>
-      <c r="D94" t="s">
-        <v>921</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>393</v>
-      </c>
-      <c r="D95" t="s">
-        <v>921</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>394</v>
-      </c>
-      <c r="D96" t="s">
-        <v>921</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" t="s">
-        <v>921</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>396</v>
-      </c>
-      <c r="D98" t="s">
-        <v>921</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>397</v>
-      </c>
-      <c r="D99" t="s">
-        <v>921</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" t="s">
-        <v>921</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>398</v>
-      </c>
-      <c r="D101" t="s">
-        <v>921</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>399</v>
-      </c>
-      <c r="D102" t="s">
-        <v>921</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>180</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>400</v>
-      </c>
-      <c r="D103" t="s">
-        <v>921</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>182</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>351</v>
-      </c>
-      <c r="D104" t="s">
-        <v>921</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" t="s">
-        <v>921</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>184</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>402</v>
-      </c>
-      <c r="D106" t="s">
-        <v>921</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>403</v>
-      </c>
-      <c r="D107" t="s">
-        <v>921</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>404</v>
-      </c>
-      <c r="D108" t="s">
-        <v>921</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>405</v>
-      </c>
-      <c r="D109" t="s">
-        <v>921</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>188</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>406</v>
-      </c>
-      <c r="D110" t="s">
-        <v>921</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>407</v>
-      </c>
-      <c r="D111" t="s">
-        <v>921</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>190</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" t="s">
-        <v>369</v>
-      </c>
-      <c r="D112" t="s">
-        <v>921</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>191</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>408</v>
-      </c>
-      <c r="D113" t="s">
-        <v>921</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>192</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>409</v>
-      </c>
-      <c r="D114" t="s">
-        <v>921</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>410</v>
-      </c>
-      <c r="D115" t="s">
-        <v>921</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>194</v>
-      </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>411</v>
-      </c>
-      <c r="D116" t="s">
-        <v>921</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>412</v>
-      </c>
-      <c r="D117" t="s">
-        <v>921</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>195</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>77</v>
-      </c>
-      <c r="D118" t="s">
-        <v>921</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>196</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" t="s">
-        <v>921</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>197</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="s">
-        <v>414</v>
-      </c>
-      <c r="D120" t="s">
-        <v>921</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>198</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>338</v>
-      </c>
-      <c r="D121" t="s">
-        <v>921</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>199</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>415</v>
-      </c>
-      <c r="D122" t="s">
-        <v>921</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>370</v>
-      </c>
-      <c r="D123" t="s">
-        <v>921</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>201</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" t="s">
-        <v>921</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>202</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>416</v>
-      </c>
-      <c r="D125" t="s">
-        <v>921</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" t="s">
-        <v>921</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>205</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>418</v>
-      </c>
-      <c r="D127" t="s">
-        <v>921</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>206</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>419</v>
-      </c>
-      <c r="D128" t="s">
-        <v>921</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>207</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
-        <v>420</v>
-      </c>
-      <c r="D129" t="s">
-        <v>921</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>421</v>
-      </c>
-      <c r="D130" t="s">
-        <v>921</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>209</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>422</v>
-      </c>
-      <c r="D131" t="s">
-        <v>921</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>210</v>
-      </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>329</v>
-      </c>
-      <c r="D132" t="s">
-        <v>921</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" t="s">
-        <v>423</v>
-      </c>
-      <c r="D133" t="s">
-        <v>921</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>212</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>424</v>
-      </c>
-      <c r="D134" t="s">
-        <v>921</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>213</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>425</v>
-      </c>
-      <c r="D135" t="s">
-        <v>921</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>214</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
-        <v>426</v>
-      </c>
-      <c r="D136" t="s">
-        <v>921</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>215</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>427</v>
-      </c>
-      <c r="D137" t="s">
-        <v>921</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>216</v>
-      </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" t="s">
-        <v>921</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>27</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139" t="s">
-        <v>428</v>
-      </c>
-      <c r="D139" t="s">
-        <v>921</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>217</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>429</v>
-      </c>
-      <c r="D140" t="s">
-        <v>921</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>430</v>
-      </c>
-      <c r="D141" t="s">
-        <v>921</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>219</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>431</v>
-      </c>
-      <c r="D142" t="s">
-        <v>921</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>220</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>432</v>
-      </c>
-      <c r="D143" t="s">
-        <v>921</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>221</v>
-      </c>
-      <c r="B144">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>433</v>
-      </c>
-      <c r="D144" t="s">
-        <v>921</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>223</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>434</v>
-      </c>
-      <c r="D145" t="s">
-        <v>921</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>224</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>435</v>
-      </c>
-      <c r="D146" t="s">
-        <v>921</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>225</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>436</v>
-      </c>
-      <c r="D147" t="s">
-        <v>921</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>226</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>437</v>
-      </c>
-      <c r="D148" t="s">
-        <v>921</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>227</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>389</v>
-      </c>
-      <c r="D149" t="s">
-        <v>921</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>30</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>62</v>
-      </c>
-      <c r="D150" t="s">
-        <v>921</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>438</v>
-      </c>
-      <c r="D151" t="s">
-        <v>921</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>229</v>
-      </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>61</v>
-      </c>
-      <c r="D152" t="s">
-        <v>921</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>230</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>439</v>
-      </c>
-      <c r="D153" t="s">
-        <v>921</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>64</v>
-      </c>
-      <c r="D154" t="s">
-        <v>921</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>231</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>440</v>
-      </c>
-      <c r="D155" t="s">
-        <v>921</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>232</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>441</v>
-      </c>
-      <c r="D156" t="s">
-        <v>921</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>233</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>442</v>
-      </c>
-      <c r="D157" t="s">
-        <v>921</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>234</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>443</v>
-      </c>
-      <c r="D158" t="s">
-        <v>921</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>235</v>
-      </c>
-      <c r="B159">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>444</v>
-      </c>
-      <c r="D159" t="s">
-        <v>921</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>236</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>445</v>
-      </c>
-      <c r="D160" t="s">
-        <v>921</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>237</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161" t="s">
-        <v>446</v>
-      </c>
-      <c r="D161" t="s">
-        <v>921</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>238</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>447</v>
-      </c>
-      <c r="D162" t="s">
-        <v>921</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>239</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>448</v>
-      </c>
-      <c r="D163" t="s">
-        <v>921</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>240</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>449</v>
-      </c>
-      <c r="D164" t="s">
-        <v>921</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>241</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>450</v>
-      </c>
-      <c r="D165" t="s">
-        <v>921</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>242</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>451</v>
-      </c>
-      <c r="D166" t="s">
-        <v>921</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>243</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>452</v>
-      </c>
-      <c r="D167" t="s">
-        <v>921</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>244</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>453</v>
-      </c>
-      <c r="D168" t="s">
-        <v>921</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>245</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>442</v>
-      </c>
-      <c r="D169" t="s">
-        <v>921</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>246</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>454</v>
-      </c>
-      <c r="D170" t="s">
-        <v>921</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>247</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>455</v>
-      </c>
-      <c r="D171" t="s">
-        <v>921</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>248</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>456</v>
-      </c>
-      <c r="D172" t="s">
-        <v>921</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>249</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
-        <v>457</v>
-      </c>
-      <c r="D173" t="s">
-        <v>921</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>251</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>442</v>
-      </c>
-      <c r="D174" t="s">
-        <v>921</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>253</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175" t="s">
-        <v>458</v>
-      </c>
-      <c r="D175" t="s">
-        <v>921</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>254</v>
-      </c>
-      <c r="B176">
-        <v>2</v>
-      </c>
-      <c r="C176" t="s">
-        <v>459</v>
-      </c>
-      <c r="D176" t="s">
-        <v>921</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>255</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>460</v>
-      </c>
-      <c r="D177" t="s">
-        <v>921</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>256</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>369</v>
-      </c>
-      <c r="D178" t="s">
-        <v>921</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>257</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
-        <v>416</v>
-      </c>
-      <c r="D179" t="s">
-        <v>921</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>258</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>461</v>
-      </c>
-      <c r="D180" t="s">
-        <v>921</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>259</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>462</v>
-      </c>
-      <c r="D181" t="s">
-        <v>921</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>260</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>347</v>
-      </c>
-      <c r="D182" t="s">
-        <v>921</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>261</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>463</v>
-      </c>
-      <c r="D183" t="s">
-        <v>921</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>262</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>455</v>
-      </c>
-      <c r="D184" t="s">
-        <v>921</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>263</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>464</v>
-      </c>
-      <c r="D185" t="s">
-        <v>921</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>264</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>332</v>
-      </c>
-      <c r="D186" t="s">
-        <v>921</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>265</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>465</v>
-      </c>
-      <c r="D187" t="s">
-        <v>921</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>266</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>466</v>
-      </c>
-      <c r="D188" t="s">
-        <v>921</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>267</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>72</v>
-      </c>
-      <c r="D189" t="s">
-        <v>921</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>268</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>467</v>
-      </c>
-      <c r="D190" t="s">
-        <v>921</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>269</v>
-      </c>
-      <c r="B191">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s">
-        <v>468</v>
-      </c>
-      <c r="D191" t="s">
-        <v>921</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>270</v>
-      </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192" t="s">
-        <v>50</v>
-      </c>
-      <c r="D192" t="s">
-        <v>921</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>271</v>
-      </c>
-      <c r="B193">
-        <v>2</v>
-      </c>
-      <c r="C193" t="s">
-        <v>469</v>
-      </c>
-      <c r="D193" t="s">
-        <v>921</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>272</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>470</v>
-      </c>
-      <c r="D194" t="s">
-        <v>921</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>273</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>471</v>
-      </c>
-      <c r="D195" t="s">
-        <v>921</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>274</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>472</v>
-      </c>
-      <c r="D196" t="s">
-        <v>921</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>275</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>473</v>
-      </c>
-      <c r="D197" t="s">
-        <v>921</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>276</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>400</v>
-      </c>
-      <c r="D198" t="s">
-        <v>921</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>277</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>474</v>
-      </c>
-      <c r="D199" t="s">
-        <v>921</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>278</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>475</v>
-      </c>
-      <c r="D200" t="s">
-        <v>921</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>279</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>476</v>
-      </c>
-      <c r="D201" t="s">
-        <v>921</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>280</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>477</v>
-      </c>
-      <c r="D202" t="s">
-        <v>921</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>281</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>478</v>
-      </c>
-      <c r="D203" t="s">
-        <v>921</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>282</v>
-      </c>
-      <c r="B204">
-        <v>2</v>
-      </c>
-      <c r="C204" t="s">
-        <v>479</v>
-      </c>
-      <c r="D204" t="s">
-        <v>921</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>283</v>
-      </c>
-      <c r="B205">
-        <v>2</v>
-      </c>
-      <c r="C205" t="s">
-        <v>480</v>
-      </c>
-      <c r="D205" t="s">
-        <v>921</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>284</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
-        <v>481</v>
-      </c>
-      <c r="D206" t="s">
-        <v>921</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>286</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
-        <v>482</v>
-      </c>
-      <c r="D207" t="s">
-        <v>921</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>287</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
-        <v>483</v>
-      </c>
-      <c r="D208" t="s">
-        <v>921</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>288</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>484</v>
-      </c>
-      <c r="D209" t="s">
-        <v>921</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>289</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>78</v>
-      </c>
-      <c r="D210" t="s">
-        <v>921</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>290</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>485</v>
-      </c>
-      <c r="D211" t="s">
-        <v>921</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>291</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>67</v>
-      </c>
-      <c r="D212" t="s">
-        <v>921</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>292</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>486</v>
-      </c>
-      <c r="D213" t="s">
-        <v>921</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>293</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>487</v>
-      </c>
-      <c r="D214" t="s">
-        <v>921</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>294</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>435</v>
-      </c>
-      <c r="D215" t="s">
-        <v>921</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>295</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>488</v>
-      </c>
-      <c r="D216" t="s">
-        <v>921</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>296</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>489</v>
-      </c>
-      <c r="D217" t="s">
-        <v>921</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>33</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>65</v>
-      </c>
-      <c r="D218" t="s">
-        <v>921</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>297</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>70</v>
-      </c>
-      <c r="D219" t="s">
-        <v>921</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>298</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>379</v>
-      </c>
-      <c r="D220" t="s">
-        <v>921</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>299</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>490</v>
-      </c>
-      <c r="D221" t="s">
-        <v>921</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>41</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>68</v>
-      </c>
-      <c r="D222" t="s">
-        <v>921</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>300</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>491</v>
-      </c>
-      <c r="D223" t="s">
-        <v>921</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>301</v>
-      </c>
-      <c r="B224">
-        <v>2</v>
-      </c>
-      <c r="C224" t="s">
-        <v>492</v>
-      </c>
-      <c r="D224" t="s">
-        <v>921</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>302</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>493</v>
-      </c>
-      <c r="D225" t="s">
-        <v>921</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>303</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>494</v>
-      </c>
-      <c r="D226" t="s">
-        <v>921</v>
-      </c>
-      <c r="E226" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>304</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>495</v>
-      </c>
-      <c r="D227" t="s">
-        <v>921</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>305</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>496</v>
-      </c>
-      <c r="D228" t="s">
-        <v>921</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>306</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>328</v>
-      </c>
-      <c r="D229" t="s">
-        <v>921</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>309</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>497</v>
-      </c>
-      <c r="D230" t="s">
-        <v>921</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>310</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>72</v>
-      </c>
-      <c r="D231" t="s">
-        <v>921</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>312</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>472</v>
-      </c>
-      <c r="D232" t="s">
-        <v>921</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>314</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>498</v>
-      </c>
-      <c r="D233" t="s">
-        <v>921</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>315</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>499</v>
-      </c>
-      <c r="D234" t="s">
-        <v>921</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>316</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>451</v>
-      </c>
-      <c r="D235" t="s">
-        <v>921</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>36</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>351</v>
-      </c>
-      <c r="D236" t="s">
-        <v>921</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>317</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
-        <v>500</v>
-      </c>
-      <c r="D237" t="s">
-        <v>921</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -17528,6 +13294,4242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5794496-5F47-46C0-B155-827A3E4C1424}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>921</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>921</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>921</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>921</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C2CF57-AEE1-4181-9D5E-CCB04A118944}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEDB634-8DEA-48B2-9ED0-1BD771C77A52}">
+  <dimension ref="A1:E237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>921</v>
+      </c>
+      <c r="E3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>921</v>
+      </c>
+      <c r="E7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" t="s">
+        <v>921</v>
+      </c>
+      <c r="E8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" t="s">
+        <v>921</v>
+      </c>
+      <c r="E9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
+        <v>921</v>
+      </c>
+      <c r="E10" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
+        <v>921</v>
+      </c>
+      <c r="E11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>921</v>
+      </c>
+      <c r="E12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" t="s">
+        <v>921</v>
+      </c>
+      <c r="E13" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" t="s">
+        <v>921</v>
+      </c>
+      <c r="E14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" t="s">
+        <v>921</v>
+      </c>
+      <c r="E15" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" t="s">
+        <v>921</v>
+      </c>
+      <c r="E16" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E17" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>921</v>
+      </c>
+      <c r="E18" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>921</v>
+      </c>
+      <c r="E19" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" t="s">
+        <v>921</v>
+      </c>
+      <c r="E20" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>921</v>
+      </c>
+      <c r="E21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" t="s">
+        <v>921</v>
+      </c>
+      <c r="E22" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>921</v>
+      </c>
+      <c r="E23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
+        <v>921</v>
+      </c>
+      <c r="E24" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>921</v>
+      </c>
+      <c r="E25" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>921</v>
+      </c>
+      <c r="E26" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" t="s">
+        <v>921</v>
+      </c>
+      <c r="E27" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>921</v>
+      </c>
+      <c r="E28" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" t="s">
+        <v>921</v>
+      </c>
+      <c r="E29" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>921</v>
+      </c>
+      <c r="E30" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>921</v>
+      </c>
+      <c r="E31" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>921</v>
+      </c>
+      <c r="E32" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
+        <v>921</v>
+      </c>
+      <c r="E33" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" t="s">
+        <v>921</v>
+      </c>
+      <c r="E34" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D35" t="s">
+        <v>921</v>
+      </c>
+      <c r="E35" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" t="s">
+        <v>921</v>
+      </c>
+      <c r="E36" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" t="s">
+        <v>921</v>
+      </c>
+      <c r="E37" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" t="s">
+        <v>921</v>
+      </c>
+      <c r="E38" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" t="s">
+        <v>921</v>
+      </c>
+      <c r="E39" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>921</v>
+      </c>
+      <c r="E40" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>921</v>
+      </c>
+      <c r="E41" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>921</v>
+      </c>
+      <c r="E42" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D43" t="s">
+        <v>921</v>
+      </c>
+      <c r="E43" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D44" t="s">
+        <v>921</v>
+      </c>
+      <c r="E44" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>921</v>
+      </c>
+      <c r="E45" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46" t="s">
+        <v>921</v>
+      </c>
+      <c r="E46" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
+      <c r="D47" t="s">
+        <v>921</v>
+      </c>
+      <c r="E47" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>921</v>
+      </c>
+      <c r="E48" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>356</v>
+      </c>
+      <c r="D49" t="s">
+        <v>921</v>
+      </c>
+      <c r="E49" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" t="s">
+        <v>921</v>
+      </c>
+      <c r="E50" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>921</v>
+      </c>
+      <c r="E51" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D52" t="s">
+        <v>921</v>
+      </c>
+      <c r="E52" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" t="s">
+        <v>921</v>
+      </c>
+      <c r="E53" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" t="s">
+        <v>921</v>
+      </c>
+      <c r="E54" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" t="s">
+        <v>921</v>
+      </c>
+      <c r="E55" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" t="s">
+        <v>921</v>
+      </c>
+      <c r="E56" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" t="s">
+        <v>921</v>
+      </c>
+      <c r="E57" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>364</v>
+      </c>
+      <c r="D58" t="s">
+        <v>921</v>
+      </c>
+      <c r="E58" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>365</v>
+      </c>
+      <c r="D59" t="s">
+        <v>921</v>
+      </c>
+      <c r="E59" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D60" t="s">
+        <v>921</v>
+      </c>
+      <c r="E60" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" t="s">
+        <v>921</v>
+      </c>
+      <c r="E61" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>368</v>
+      </c>
+      <c r="D62" t="s">
+        <v>921</v>
+      </c>
+      <c r="E62" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>369</v>
+      </c>
+      <c r="D63" t="s">
+        <v>921</v>
+      </c>
+      <c r="E63" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>331</v>
+      </c>
+      <c r="D64" t="s">
+        <v>921</v>
+      </c>
+      <c r="E64" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" t="s">
+        <v>921</v>
+      </c>
+      <c r="E65" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" t="s">
+        <v>921</v>
+      </c>
+      <c r="E66" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>343</v>
+      </c>
+      <c r="D67" t="s">
+        <v>921</v>
+      </c>
+      <c r="E67" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>372</v>
+      </c>
+      <c r="D68" t="s">
+        <v>921</v>
+      </c>
+      <c r="E68" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D69" t="s">
+        <v>921</v>
+      </c>
+      <c r="E69" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>374</v>
+      </c>
+      <c r="D70" t="s">
+        <v>921</v>
+      </c>
+      <c r="E70" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>375</v>
+      </c>
+      <c r="D71" t="s">
+        <v>921</v>
+      </c>
+      <c r="E71" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>376</v>
+      </c>
+      <c r="D72" t="s">
+        <v>921</v>
+      </c>
+      <c r="E72" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>921</v>
+      </c>
+      <c r="E73" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" t="s">
+        <v>921</v>
+      </c>
+      <c r="E74" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>921</v>
+      </c>
+      <c r="E75" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" t="s">
+        <v>921</v>
+      </c>
+      <c r="E76" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77" t="s">
+        <v>921</v>
+      </c>
+      <c r="E77" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>921</v>
+      </c>
+      <c r="E78" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" t="s">
+        <v>921</v>
+      </c>
+      <c r="E79" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" t="s">
+        <v>921</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" t="s">
+        <v>921</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" t="s">
+        <v>921</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" t="s">
+        <v>921</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
+        <v>921</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" t="s">
+        <v>921</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>371</v>
+      </c>
+      <c r="D86" t="s">
+        <v>921</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" t="s">
+        <v>921</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>388</v>
+      </c>
+      <c r="D88" t="s">
+        <v>921</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>921</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" t="s">
+        <v>921</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>390</v>
+      </c>
+      <c r="D91" t="s">
+        <v>921</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>378</v>
+      </c>
+      <c r="D92" t="s">
+        <v>921</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" t="s">
+        <v>921</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>392</v>
+      </c>
+      <c r="D94" t="s">
+        <v>921</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" t="s">
+        <v>921</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" t="s">
+        <v>921</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" t="s">
+        <v>921</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" t="s">
+        <v>921</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" t="s">
+        <v>921</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" t="s">
+        <v>921</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>398</v>
+      </c>
+      <c r="D101" t="s">
+        <v>921</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" t="s">
+        <v>921</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>400</v>
+      </c>
+      <c r="D103" t="s">
+        <v>921</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>351</v>
+      </c>
+      <c r="D104" t="s">
+        <v>921</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" t="s">
+        <v>921</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>402</v>
+      </c>
+      <c r="D106" t="s">
+        <v>921</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" t="s">
+        <v>921</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>404</v>
+      </c>
+      <c r="D108" t="s">
+        <v>921</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>405</v>
+      </c>
+      <c r="D109" t="s">
+        <v>921</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>406</v>
+      </c>
+      <c r="D110" t="s">
+        <v>921</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>407</v>
+      </c>
+      <c r="D111" t="s">
+        <v>921</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" t="s">
+        <v>921</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="s">
+        <v>921</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>409</v>
+      </c>
+      <c r="D114" t="s">
+        <v>921</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>410</v>
+      </c>
+      <c r="D115" t="s">
+        <v>921</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" t="s">
+        <v>921</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>412</v>
+      </c>
+      <c r="D117" t="s">
+        <v>921</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>195</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" t="s">
+        <v>921</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" t="s">
+        <v>921</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>414</v>
+      </c>
+      <c r="D120" t="s">
+        <v>921</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" t="s">
+        <v>921</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D122" t="s">
+        <v>921</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>370</v>
+      </c>
+      <c r="D123" t="s">
+        <v>921</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" t="s">
+        <v>921</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>416</v>
+      </c>
+      <c r="D125" t="s">
+        <v>921</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>417</v>
+      </c>
+      <c r="D126" t="s">
+        <v>921</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>418</v>
+      </c>
+      <c r="D127" t="s">
+        <v>921</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>419</v>
+      </c>
+      <c r="D128" t="s">
+        <v>921</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>207</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>420</v>
+      </c>
+      <c r="D129" t="s">
+        <v>921</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>421</v>
+      </c>
+      <c r="D130" t="s">
+        <v>921</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>422</v>
+      </c>
+      <c r="D131" t="s">
+        <v>921</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" t="s">
+        <v>921</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>423</v>
+      </c>
+      <c r="D133" t="s">
+        <v>921</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>424</v>
+      </c>
+      <c r="D134" t="s">
+        <v>921</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" t="s">
+        <v>921</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>426</v>
+      </c>
+      <c r="D136" t="s">
+        <v>921</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>215</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>427</v>
+      </c>
+      <c r="D137" t="s">
+        <v>921</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" t="s">
+        <v>921</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" t="s">
+        <v>921</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" t="s">
+        <v>921</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" t="s">
+        <v>921</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>431</v>
+      </c>
+      <c r="D142" t="s">
+        <v>921</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>432</v>
+      </c>
+      <c r="D143" t="s">
+        <v>921</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>433</v>
+      </c>
+      <c r="D144" t="s">
+        <v>921</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>434</v>
+      </c>
+      <c r="D145" t="s">
+        <v>921</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>435</v>
+      </c>
+      <c r="D146" t="s">
+        <v>921</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>225</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>436</v>
+      </c>
+      <c r="D147" t="s">
+        <v>921</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>226</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>437</v>
+      </c>
+      <c r="D148" t="s">
+        <v>921</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>227</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>389</v>
+      </c>
+      <c r="D149" t="s">
+        <v>921</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
+        <v>921</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>438</v>
+      </c>
+      <c r="D151" t="s">
+        <v>921</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>921</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>439</v>
+      </c>
+      <c r="D153" t="s">
+        <v>921</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" t="s">
+        <v>921</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>440</v>
+      </c>
+      <c r="D155" t="s">
+        <v>921</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>441</v>
+      </c>
+      <c r="D156" t="s">
+        <v>921</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>442</v>
+      </c>
+      <c r="D157" t="s">
+        <v>921</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>443</v>
+      </c>
+      <c r="D158" t="s">
+        <v>921</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>444</v>
+      </c>
+      <c r="D159" t="s">
+        <v>921</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>445</v>
+      </c>
+      <c r="D160" t="s">
+        <v>921</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>446</v>
+      </c>
+      <c r="D161" t="s">
+        <v>921</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>447</v>
+      </c>
+      <c r="D162" t="s">
+        <v>921</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>448</v>
+      </c>
+      <c r="D163" t="s">
+        <v>921</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>449</v>
+      </c>
+      <c r="D164" t="s">
+        <v>921</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>241</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" t="s">
+        <v>921</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>242</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>451</v>
+      </c>
+      <c r="D166" t="s">
+        <v>921</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>452</v>
+      </c>
+      <c r="D167" t="s">
+        <v>921</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>453</v>
+      </c>
+      <c r="D168" t="s">
+        <v>921</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>245</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>442</v>
+      </c>
+      <c r="D169" t="s">
+        <v>921</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>246</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>454</v>
+      </c>
+      <c r="D170" t="s">
+        <v>921</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>455</v>
+      </c>
+      <c r="D171" t="s">
+        <v>921</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>456</v>
+      </c>
+      <c r="D172" t="s">
+        <v>921</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>457</v>
+      </c>
+      <c r="D173" t="s">
+        <v>921</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>251</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>442</v>
+      </c>
+      <c r="D174" t="s">
+        <v>921</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>253</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>458</v>
+      </c>
+      <c r="D175" t="s">
+        <v>921</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>254</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>459</v>
+      </c>
+      <c r="D176" t="s">
+        <v>921</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>255</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>460</v>
+      </c>
+      <c r="D177" t="s">
+        <v>921</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>256</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>369</v>
+      </c>
+      <c r="D178" t="s">
+        <v>921</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>416</v>
+      </c>
+      <c r="D179" t="s">
+        <v>921</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>258</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>461</v>
+      </c>
+      <c r="D180" t="s">
+        <v>921</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>259</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>462</v>
+      </c>
+      <c r="D181" t="s">
+        <v>921</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>347</v>
+      </c>
+      <c r="D182" t="s">
+        <v>921</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>261</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>463</v>
+      </c>
+      <c r="D183" t="s">
+        <v>921</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>455</v>
+      </c>
+      <c r="D184" t="s">
+        <v>921</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>263</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>464</v>
+      </c>
+      <c r="D185" t="s">
+        <v>921</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>264</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>332</v>
+      </c>
+      <c r="D186" t="s">
+        <v>921</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>265</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>465</v>
+      </c>
+      <c r="D187" t="s">
+        <v>921</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>266</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>466</v>
+      </c>
+      <c r="D188" t="s">
+        <v>921</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>72</v>
+      </c>
+      <c r="D189" t="s">
+        <v>921</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>268</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>467</v>
+      </c>
+      <c r="D190" t="s">
+        <v>921</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>269</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>468</v>
+      </c>
+      <c r="D191" t="s">
+        <v>921</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>50</v>
+      </c>
+      <c r="D192" t="s">
+        <v>921</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>271</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>469</v>
+      </c>
+      <c r="D193" t="s">
+        <v>921</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>272</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>470</v>
+      </c>
+      <c r="D194" t="s">
+        <v>921</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>471</v>
+      </c>
+      <c r="D195" t="s">
+        <v>921</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>274</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>472</v>
+      </c>
+      <c r="D196" t="s">
+        <v>921</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>275</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>473</v>
+      </c>
+      <c r="D197" t="s">
+        <v>921</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>276</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>400</v>
+      </c>
+      <c r="D198" t="s">
+        <v>921</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>277</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>474</v>
+      </c>
+      <c r="D199" t="s">
+        <v>921</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>278</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>475</v>
+      </c>
+      <c r="D200" t="s">
+        <v>921</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>279</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>476</v>
+      </c>
+      <c r="D201" t="s">
+        <v>921</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>477</v>
+      </c>
+      <c r="D202" t="s">
+        <v>921</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>281</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>478</v>
+      </c>
+      <c r="D203" t="s">
+        <v>921</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>479</v>
+      </c>
+      <c r="D204" t="s">
+        <v>921</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>283</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>480</v>
+      </c>
+      <c r="D205" t="s">
+        <v>921</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>481</v>
+      </c>
+      <c r="D206" t="s">
+        <v>921</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>286</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>482</v>
+      </c>
+      <c r="D207" t="s">
+        <v>921</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>287</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>483</v>
+      </c>
+      <c r="D208" t="s">
+        <v>921</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>288</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>484</v>
+      </c>
+      <c r="D209" t="s">
+        <v>921</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>289</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>78</v>
+      </c>
+      <c r="D210" t="s">
+        <v>921</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>290</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>485</v>
+      </c>
+      <c r="D211" t="s">
+        <v>921</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>291</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" t="s">
+        <v>921</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>292</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>486</v>
+      </c>
+      <c r="D213" t="s">
+        <v>921</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>293</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>487</v>
+      </c>
+      <c r="D214" t="s">
+        <v>921</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>294</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>435</v>
+      </c>
+      <c r="D215" t="s">
+        <v>921</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>295</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>488</v>
+      </c>
+      <c r="D216" t="s">
+        <v>921</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>296</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>489</v>
+      </c>
+      <c r="D217" t="s">
+        <v>921</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>65</v>
+      </c>
+      <c r="D218" t="s">
+        <v>921</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>297</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" t="s">
+        <v>921</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>298</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>379</v>
+      </c>
+      <c r="D220" t="s">
+        <v>921</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>299</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>490</v>
+      </c>
+      <c r="D221" t="s">
+        <v>921</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>921</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>300</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>491</v>
+      </c>
+      <c r="D223" t="s">
+        <v>921</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>301</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>492</v>
+      </c>
+      <c r="D224" t="s">
+        <v>921</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>302</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>493</v>
+      </c>
+      <c r="D225" t="s">
+        <v>921</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>303</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>494</v>
+      </c>
+      <c r="D226" t="s">
+        <v>921</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>304</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>495</v>
+      </c>
+      <c r="D227" t="s">
+        <v>921</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>305</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>496</v>
+      </c>
+      <c r="D228" t="s">
+        <v>921</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>306</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>328</v>
+      </c>
+      <c r="D229" t="s">
+        <v>921</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>497</v>
+      </c>
+      <c r="D230" t="s">
+        <v>921</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>310</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>72</v>
+      </c>
+      <c r="D231" t="s">
+        <v>921</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>312</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>472</v>
+      </c>
+      <c r="D232" t="s">
+        <v>921</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>314</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>498</v>
+      </c>
+      <c r="D233" t="s">
+        <v>921</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>315</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>499</v>
+      </c>
+      <c r="D234" t="s">
+        <v>921</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>316</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>451</v>
+      </c>
+      <c r="D235" t="s">
+        <v>921</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>36</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>351</v>
+      </c>
+      <c r="D236" t="s">
+        <v>921</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>317</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>500</v>
+      </c>
+      <c r="D237" t="s">
+        <v>921</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B202779-97F1-45AD-8A81-B321A4B5163D}">
   <dimension ref="A1:D9"/>

--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EBE62A-9C2E-44FB-9E6A-2CDF01113B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE132440-A2E5-40D2-A13C-80BF1A162171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1176">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4057,54 +4057,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>loo5</t>
-  </si>
-  <si>
-    <t>loo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭五出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘五出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經一他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭四喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4396,16 +4356,8 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4427,18 +4379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4520,7 +4460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4700,10 +4640,10 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4713,9 +4653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6571,7 +6508,7 @@
       <c r="S2" s="18"/>
       <c r="V2" s="19">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="23" customFormat="1" ht="60" customHeight="1">
@@ -6593,52 +6530,24 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="T3" s="24"/>
-      <c r="V3" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="V3" s="57"/>
     </row>
     <row r="4" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="25"/>
-      <c r="D4" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>534</v>
-      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>550</v>
-      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="S4" s="27"/>
       <c r="V4" s="58"/>
@@ -6647,97 +6556,41 @@
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>38</v>
-      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
       <c r="S5" s="29"/>
       <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>535</v>
-      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>551</v>
-      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
       <c r="S6" s="33"/>
       <c r="V6" s="58"/>
@@ -6765,45 +6618,21 @@
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>562</v>
-      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>570</v>
-      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
-        <v>572</v>
-      </c>
+      <c r="R8" s="26"/>
       <c r="S8" s="27"/>
       <c r="V8" s="58"/>
     </row>
@@ -6812,96 +6641,42 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>104</v>
-      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
       <c r="S9" s="29"/>
       <c r="T9" s="24"/>
       <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="D10" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>533</v>
-      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>563</v>
-      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>571</v>
-      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
-      <c r="R10" s="32" t="s">
-        <v>573</v>
-      </c>
+      <c r="R10" s="32"/>
       <c r="S10" s="39"/>
       <c r="V10" s="58"/>
     </row>
@@ -6927,47 +6702,21 @@
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="D12" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>1177</v>
-      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>590</v>
-      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>598</v>
-      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
       <c r="S12" s="27"/>
       <c r="V12" s="58"/>
     </row>
@@ -6976,97 +6725,41 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>117</v>
-      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
       <c r="S13" s="29"/>
       <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
-      <c r="D14" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>1178</v>
-      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="32" t="s">
-        <v>585</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>591</v>
-      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>599</v>
-      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
       <c r="S14" s="39"/>
       <c r="V14" s="58"/>
     </row>
@@ -7092,46 +6785,20 @@
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>606</v>
-      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>620</v>
-      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
       <c r="V16" s="58"/>
@@ -7141,96 +6808,40 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>38</v>
-      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="29"/>
       <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
-      <c r="D18" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>607</v>
-      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>621</v>
-      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="39"/>
       <c r="V18" s="58"/>
@@ -7280,23 +6891,21 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
       <c r="S21" s="29"/>
       <c r="V21" s="58"/>
     </row>
@@ -7365,23 +6974,21 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
       <c r="S25" s="29"/>
       <c r="V25" s="15"/>
     </row>
@@ -7435,47 +7042,21 @@
     </row>
     <row r="28" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="25"/>
-      <c r="D28" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>628</v>
-      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="N28" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>638</v>
-      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
-      <c r="R28" s="26" t="s">
-        <v>504</v>
-      </c>
+      <c r="R28" s="26"/>
       <c r="S28" s="27"/>
       <c r="U28" s="43" t="str">
         <f t="shared" si="1"/>
@@ -7488,51 +7069,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" s="65" t="s">
-        <v>135</v>
-      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
       <c r="S29" s="29"/>
       <c r="U29" s="43" t="str">
         <f t="shared" si="1"/>
@@ -7542,47 +7093,21 @@
     </row>
     <row r="30" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="30"/>
-      <c r="D30" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>629</v>
-      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>635</v>
-      </c>
-      <c r="O30" s="32" t="s">
-        <v>637</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>639</v>
-      </c>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
-      <c r="R30" s="32" t="s">
-        <v>1179</v>
-      </c>
+      <c r="R30" s="32"/>
       <c r="S30" s="39"/>
       <c r="U30" s="43" t="str">
         <f t="shared" si="1"/>
@@ -7616,45 +7141,21 @@
     </row>
     <row r="32" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="25"/>
-      <c r="D32" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>642</v>
-      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>648</v>
-      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>558</v>
-      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q32" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>590</v>
-      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
       <c r="S32" s="27"/>
       <c r="U32" s="43" t="str">
         <f t="shared" si="1"/>
@@ -7667,95 +7168,41 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q33" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="61" t="s">
-        <v>144</v>
-      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
       <c r="S33" s="29"/>
       <c r="V33" s="15"/>
     </row>
     <row r="34" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="30"/>
-      <c r="D34" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>643</v>
-      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>649</v>
-      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="N34" s="32" t="s">
-        <v>559</v>
-      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="32"/>
-      <c r="P34" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q34" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="R34" s="32" t="s">
-        <v>591</v>
-      </c>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="39"/>
       <c r="V34" s="15"/>
     </row>
@@ -7781,45 +7228,21 @@
     </row>
     <row r="36" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="25"/>
-      <c r="D36" s="26" t="s">
-        <v>656</v>
-      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>662</v>
-      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="M36" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>668</v>
-      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q36" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="R36" s="26" t="s">
-        <v>578</v>
-      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
       <c r="S36" s="27"/>
       <c r="V36" s="15"/>
     </row>
@@ -7828,95 +7251,41 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="N37" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="O37" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="P37" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q37" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="R37" s="61" t="s">
-        <v>107</v>
-      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
       <c r="S37" s="29"/>
       <c r="V37" s="15"/>
     </row>
     <row r="38" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="30"/>
-      <c r="D38" s="32" t="s">
-        <v>657</v>
-      </c>
+      <c r="D38" s="32"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>718</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>663</v>
-      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="M38" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>669</v>
-      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
       <c r="O38" s="32"/>
-      <c r="P38" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q38" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="R38" s="32" t="s">
-        <v>579</v>
-      </c>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="39"/>
       <c r="V38" s="15"/>
     </row>
@@ -7942,47 +7311,21 @@
     </row>
     <row r="40" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="25"/>
-      <c r="D40" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>676</v>
-      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="L40" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="P40" s="26" t="s">
-        <v>616</v>
-      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
-      <c r="R40" s="26" t="s">
-        <v>684</v>
-      </c>
+      <c r="R40" s="26"/>
       <c r="S40" s="27"/>
       <c r="V40" s="15"/>
     </row>
@@ -7991,97 +7334,41 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="L41" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="N41" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="O41" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="P41" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q41" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="R41" s="61" t="s">
-        <v>161</v>
-      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
       <c r="S41" s="29"/>
       <c r="V41" s="15"/>
     </row>
     <row r="42" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="30"/>
-      <c r="D42" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>675</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>677</v>
-      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="32" t="s">
-        <v>679</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="N42" s="32" t="s">
-        <v>681</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>617</v>
-      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="32" t="s">
-        <v>685</v>
-      </c>
+      <c r="R42" s="32"/>
       <c r="S42" s="39"/>
       <c r="V42" s="15"/>
     </row>
@@ -8107,47 +7394,21 @@
     </row>
     <row r="44" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="25"/>
-      <c r="D44" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>688</v>
-      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>696</v>
-      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="26"/>
-      <c r="O44" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="P44" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q44" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="R44" s="26" t="s">
-        <v>560</v>
-      </c>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
       <c r="S44" s="27"/>
       <c r="V44" s="15"/>
     </row>
@@ -8156,97 +7417,41 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="R45" s="61" t="s">
-        <v>45</v>
-      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
       <c r="S45" s="29"/>
       <c r="V45" s="15"/>
     </row>
     <row r="46" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="30"/>
-      <c r="D46" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>687</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>689</v>
-      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>697</v>
-      </c>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="32" t="s">
-        <v>669</v>
-      </c>
-      <c r="P46" s="32" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q46" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="R46" s="32" t="s">
-        <v>561</v>
-      </c>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
       <c r="S46" s="39"/>
       <c r="V46" s="15"/>
     </row>
@@ -8273,44 +7478,20 @@
     <row r="48" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="25"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>670</v>
-      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="L48" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>710</v>
-      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="P48" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q48" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="R48" s="26" t="s">
-        <v>714</v>
-      </c>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
       <c r="S48" s="27"/>
       <c r="V48" s="15"/>
     </row>
@@ -8319,95 +7500,41 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="M49" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="P49" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>178</v>
-      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
       <c r="S49" s="29"/>
       <c r="V49" s="15"/>
     </row>
     <row r="50" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="30"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>705</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>671</v>
-      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="32" t="s">
-        <v>707</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="L50" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="M50" s="32" t="s">
-        <v>711</v>
-      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="32"/>
-      <c r="O50" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="P50" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q50" s="32" t="s">
-        <v>713</v>
-      </c>
-      <c r="R50" s="32" t="s">
-        <v>715</v>
-      </c>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
       <c r="S50" s="39"/>
       <c r="V50" s="15"/>
     </row>
@@ -8456,25 +7583,21 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
       <c r="S53" s="29"/>
       <c r="V53" s="15"/>
     </row>
@@ -8543,23 +7666,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
       <c r="S57" s="29"/>
       <c r="V57" s="15"/>
     </row>
@@ -8605,47 +7726,21 @@
     </row>
     <row r="60" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="25"/>
-      <c r="D60" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>502</v>
-      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="L60" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="M60" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="N60" s="26" t="s">
-        <v>725</v>
-      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="26"/>
-      <c r="P60" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q60" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="R60" s="26" t="s">
-        <v>729</v>
-      </c>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="27"/>
       <c r="V60" s="15"/>
     </row>
@@ -8654,97 +7749,41 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="G61" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="J61" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="M61" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="N61" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="O61" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="P61" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q61" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="R61" s="61" t="s">
-        <v>189</v>
-      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
       <c r="S61" s="29"/>
       <c r="V61" s="15"/>
     </row>
     <row r="62" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="30"/>
-      <c r="D62" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>718</v>
-      </c>
-      <c r="I62" s="32" t="s">
-        <v>718</v>
-      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="32"/>
-      <c r="K62" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="L62" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="M62" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="N62" s="32" t="s">
-        <v>726</v>
-      </c>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="32" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q62" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="R62" s="32" t="s">
-        <v>730</v>
-      </c>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
       <c r="S62" s="39"/>
       <c r="V62" s="15"/>
     </row>
@@ -8770,45 +7809,21 @@
     </row>
     <row r="64" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="25"/>
-      <c r="D64" s="26" t="s">
-        <v>650</v>
-      </c>
+      <c r="D64" s="26"/>
       <c r="E64" s="26"/>
-      <c r="F64" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>737</v>
-      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="L64" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="M64" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="N64" s="26" t="s">
-        <v>745</v>
-      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="26"/>
-      <c r="P64" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q64" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="R64" s="26" t="s">
-        <v>747</v>
-      </c>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
       <c r="S64" s="27"/>
       <c r="V64" s="15"/>
     </row>
@@ -8817,95 +7832,41 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="J65" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="M65" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="O65" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P65" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q65" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="R65" s="61" t="s">
-        <v>199</v>
-      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
       <c r="S65" s="29"/>
       <c r="V65" s="15"/>
     </row>
     <row r="66" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="30"/>
-      <c r="D66" s="32" t="s">
-        <v>651</v>
-      </c>
+      <c r="D66" s="32"/>
       <c r="E66" s="32"/>
-      <c r="F66" s="32" t="s">
-        <v>732</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>734</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>736</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>738</v>
-      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="L66" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="M66" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="N66" s="32" t="s">
-        <v>746</v>
-      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q66" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="R66" s="32" t="s">
-        <v>748</v>
-      </c>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
       <c r="S66" s="39"/>
       <c r="V66" s="15"/>
     </row>
@@ -8931,45 +7892,21 @@
     </row>
     <row r="68" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="25"/>
-      <c r="D68" s="26" t="s">
-        <v>652</v>
-      </c>
+      <c r="D68" s="26"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="I68" s="26" t="s">
-        <v>751</v>
-      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="L68" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="M68" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="N68" s="26" t="s">
-        <v>757</v>
-      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
       <c r="O68" s="26"/>
-      <c r="P68" s="26" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q68" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="R68" s="26" t="s">
-        <v>554</v>
-      </c>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
       <c r="S68" s="27"/>
       <c r="V68" s="15"/>
     </row>
@@ -8978,95 +7915,41 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="J69" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="M69" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="N69" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="O69" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="P69" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q69" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="R69" s="61" t="s">
-        <v>210</v>
-      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
       <c r="S69" s="29"/>
       <c r="V69" s="15"/>
     </row>
     <row r="70" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="30"/>
-      <c r="D70" s="32" t="s">
-        <v>653</v>
-      </c>
+      <c r="D70" s="32"/>
       <c r="E70" s="32"/>
-      <c r="F70" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>750</v>
-      </c>
-      <c r="H70" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="I70" s="32" t="s">
-        <v>752</v>
-      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
       <c r="J70" s="32"/>
-      <c r="K70" s="32" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L70" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="M70" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="N70" s="32" t="s">
-        <v>758</v>
-      </c>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
       <c r="O70" s="32"/>
-      <c r="P70" s="32" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q70" s="32" t="s">
-        <v>762</v>
-      </c>
-      <c r="R70" s="32" t="s">
-        <v>555</v>
-      </c>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
       <c r="S70" s="39"/>
       <c r="V70" s="15"/>
     </row>
@@ -9092,45 +7975,21 @@
     </row>
     <row r="72" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="25"/>
-      <c r="D72" s="26" t="s">
-        <v>554</v>
-      </c>
+      <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>769</v>
-      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="26"/>
-      <c r="K72" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="M72" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="N72" s="26" t="s">
-        <v>676</v>
-      </c>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
       <c r="O72" s="26"/>
-      <c r="P72" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q72" s="26" t="s">
-        <v>775</v>
-      </c>
-      <c r="R72" s="26" t="s">
-        <v>777</v>
-      </c>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
       <c r="S72" s="27"/>
       <c r="V72" s="15"/>
     </row>
@@ -9139,95 +7998,41 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="J73" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="K73" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="L73" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="M73" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="N73" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="O73" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P73" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q73" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R73" s="61" t="s">
-        <v>217</v>
-      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
       <c r="S73" s="29"/>
       <c r="V73" s="15"/>
     </row>
     <row r="74" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="30"/>
-      <c r="D74" s="32" t="s">
-        <v>555</v>
-      </c>
+      <c r="D74" s="32"/>
       <c r="E74" s="32"/>
-      <c r="F74" s="32" t="s">
-        <v>764</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>766</v>
-      </c>
-      <c r="H74" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>770</v>
-      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
       <c r="J74" s="32"/>
-      <c r="K74" s="32" t="s">
-        <v>772</v>
-      </c>
-      <c r="L74" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="M74" s="32" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N74" s="32" t="s">
-        <v>677</v>
-      </c>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q74" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="R74" s="32" t="s">
-        <v>778</v>
-      </c>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
       <c r="S74" s="39"/>
       <c r="V74" s="15"/>
     </row>
@@ -9253,45 +8058,21 @@
     </row>
     <row r="76" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="25"/>
-      <c r="D76" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>783</v>
-      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="26"/>
-      <c r="H76" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="I76" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="K76" s="26" t="s">
-        <v>789</v>
-      </c>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
       <c r="L76" s="26"/>
-      <c r="M76" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="N76" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="O76" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="P76" s="26" t="s">
-        <v>684</v>
-      </c>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
-      <c r="R76" s="26" t="s">
-        <v>795</v>
-      </c>
+      <c r="R76" s="26"/>
       <c r="S76" s="27"/>
       <c r="V76" s="15"/>
     </row>
@@ -9300,95 +8081,41 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="I77" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="J77" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="K77" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="L77" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M77" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="N77" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="O77" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="P77" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q77" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="R77" s="61" t="s">
-        <v>30</v>
-      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="60"/>
       <c r="S77" s="29"/>
       <c r="V77" s="15"/>
     </row>
     <row r="78" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="30"/>
-      <c r="D78" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>784</v>
-      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
       <c r="G78" s="32"/>
-      <c r="H78" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="I78" s="32" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J78" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>790</v>
-      </c>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
       <c r="L78" s="32"/>
-      <c r="M78" s="32" t="s">
-        <v>792</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>794</v>
-      </c>
-      <c r="O78" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="P78" s="32" t="s">
-        <v>685</v>
-      </c>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
       <c r="Q78" s="32"/>
-      <c r="R78" s="32" t="s">
-        <v>796</v>
-      </c>
+      <c r="R78" s="32"/>
       <c r="S78" s="39"/>
       <c r="V78" s="15"/>
     </row>
@@ -9414,21 +8141,11 @@
     </row>
     <row r="80" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="25"/>
-      <c r="D80" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>797</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>616</v>
-      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
       <c r="K80" s="26"/>
@@ -9447,55 +8164,31 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="G81" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="51"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="60"/>
       <c r="S81" s="29"/>
       <c r="V81" s="15"/>
     </row>
     <row r="82" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="30"/>
-      <c r="D82" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="H82" s="32" t="s">
-        <v>617</v>
-      </c>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32"/>
@@ -9554,23 +8247,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="51"/>
-      <c r="N85" s="51"/>
-      <c r="O85" s="51"/>
-      <c r="P85" s="51"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="51"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="60"/>
       <c r="S85" s="29"/>
       <c r="V85" s="15"/>
     </row>
@@ -9616,47 +8307,21 @@
     </row>
     <row r="88" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="25"/>
-      <c r="D88" s="26" t="s">
-        <v>803</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="I88" s="26" t="s">
-        <v>554</v>
-      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="L88" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="M88" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="N88" s="26" t="s">
-        <v>811</v>
-      </c>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
       <c r="O88" s="26"/>
-      <c r="P88" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q88" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="R88" s="26" t="s">
-        <v>815</v>
-      </c>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
       <c r="S88" s="27"/>
       <c r="V88" s="15"/>
     </row>
@@ -9665,97 +8330,41 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G89" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K89" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="L89" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="M89" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="N89" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="O89" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P89" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q89" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="R89" s="61" t="s">
-        <v>236</v>
-      </c>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
       <c r="S89" s="29"/>
       <c r="V89" s="15"/>
     </row>
     <row r="90" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="30"/>
-      <c r="D90" s="32" t="s">
-        <v>804</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="G90" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>806</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>555</v>
-      </c>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="32"/>
-      <c r="K90" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="L90" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="M90" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="N90" s="32" t="s">
-        <v>812</v>
-      </c>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
       <c r="O90" s="32"/>
-      <c r="P90" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q90" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="R90" s="32" t="s">
-        <v>816</v>
-      </c>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
       <c r="S90" s="39"/>
       <c r="V90" s="15"/>
     </row>
@@ -9781,45 +8390,21 @@
     </row>
     <row r="92" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="25"/>
-      <c r="D92" s="26" t="s">
-        <v>817</v>
-      </c>
+      <c r="D92" s="26"/>
       <c r="E92" s="26"/>
-      <c r="F92" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>819</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="I92" s="26" t="s">
-        <v>821</v>
-      </c>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="26" t="s">
-        <v>823</v>
-      </c>
-      <c r="L92" s="26" t="s">
-        <v>825</v>
-      </c>
-      <c r="M92" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="N92" s="26" t="s">
-        <v>829</v>
-      </c>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
       <c r="O92" s="26"/>
-      <c r="P92" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q92" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="R92" s="26" t="s">
-        <v>833</v>
-      </c>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
       <c r="S92" s="27"/>
       <c r="V92" s="15"/>
     </row>
@@ -9828,95 +8413,41 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G93" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H93" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="I93" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="L93" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="M93" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="N93" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="O93" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P93" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q93" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="R93" s="61" t="s">
-        <v>246</v>
-      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="60"/>
+      <c r="R93" s="60"/>
       <c r="S93" s="29"/>
       <c r="V93" s="15"/>
     </row>
     <row r="94" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="30"/>
-      <c r="D94" s="32" t="s">
-        <v>818</v>
-      </c>
+      <c r="D94" s="32"/>
       <c r="E94" s="32"/>
-      <c r="F94" s="32" t="s">
-        <v>637</v>
-      </c>
-      <c r="G94" s="32" t="s">
-        <v>820</v>
-      </c>
-      <c r="H94" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="I94" s="32" t="s">
-        <v>822</v>
-      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="32"/>
-      <c r="K94" s="32" t="s">
-        <v>824</v>
-      </c>
-      <c r="L94" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="M94" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="N94" s="32" t="s">
-        <v>830</v>
-      </c>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
       <c r="O94" s="32"/>
-      <c r="P94" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q94" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="R94" s="32" t="s">
-        <v>834</v>
-      </c>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
       <c r="S94" s="39"/>
       <c r="V94" s="15"/>
     </row>
@@ -9942,45 +8473,21 @@
     </row>
     <row r="96" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="25"/>
-      <c r="D96" s="26" t="s">
-        <v>835</v>
-      </c>
+      <c r="D96" s="26"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>839</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="I96" s="26" t="s">
-        <v>809</v>
-      </c>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="L96" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="M96" s="26" t="s">
-        <v>841</v>
-      </c>
-      <c r="N96" s="26" t="s">
-        <v>841</v>
-      </c>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
       <c r="O96" s="26"/>
-      <c r="P96" s="26" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q96" s="26" t="s">
-        <v>843</v>
-      </c>
-      <c r="R96" s="26" t="s">
-        <v>646</v>
-      </c>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
       <c r="S96" s="27"/>
       <c r="V96" s="15"/>
     </row>
@@ -9989,95 +8496,41 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="G97" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="H97" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="I97" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K97" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="L97" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="P97" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q97" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="R97" s="61" t="s">
-        <v>139</v>
-      </c>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="60"/>
       <c r="S97" s="29"/>
       <c r="V97" s="15"/>
     </row>
     <row r="98" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="30"/>
-      <c r="D98" s="32" t="s">
-        <v>836</v>
-      </c>
+      <c r="D98" s="32"/>
       <c r="E98" s="32"/>
-      <c r="F98" s="32" t="s">
-        <v>838</v>
-      </c>
-      <c r="G98" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="H98" s="32" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>810</v>
-      </c>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="32"/>
-      <c r="K98" s="32" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L98" s="32" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M98" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="N98" s="32" t="s">
-        <v>842</v>
-      </c>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
       <c r="O98" s="32"/>
-      <c r="P98" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="Q98" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="R98" s="32" t="s">
-        <v>647</v>
-      </c>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
       <c r="S98" s="39"/>
       <c r="V98" s="15"/>
     </row>
@@ -10103,45 +8556,21 @@
     </row>
     <row r="100" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="25"/>
-      <c r="D100" s="26" t="s">
-        <v>845</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>737</v>
-      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
       <c r="G100" s="26"/>
-      <c r="H100" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="J100" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="K100" s="26" t="s">
-        <v>749</v>
-      </c>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
       <c r="L100" s="26"/>
-      <c r="M100" s="26" t="s">
-        <v>847</v>
-      </c>
-      <c r="N100" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="O100" s="26" t="s">
-        <v>849</v>
-      </c>
-      <c r="P100" s="26" t="s">
-        <v>598</v>
-      </c>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
-      <c r="R100" s="26" t="s">
-        <v>851</v>
-      </c>
+      <c r="R100" s="26"/>
       <c r="S100" s="27"/>
       <c r="V100" s="15"/>
     </row>
@@ -10150,95 +8579,41 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="G101" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="I101" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="J101" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="L101" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M101" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="N101" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="O101" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="P101" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q101" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>261</v>
-      </c>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="60"/>
+      <c r="Q101" s="60"/>
+      <c r="R101" s="60"/>
       <c r="S101" s="29"/>
       <c r="V101" s="15"/>
     </row>
     <row r="102" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="30"/>
-      <c r="D102" s="32" t="s">
-        <v>846</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>637</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>738</v>
-      </c>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
       <c r="G102" s="32"/>
-      <c r="H102" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="J102" s="32" t="s">
-        <v>669</v>
-      </c>
-      <c r="K102" s="32" t="s">
-        <v>750</v>
-      </c>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
       <c r="L102" s="32"/>
-      <c r="M102" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="N102" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="O102" s="32" t="s">
-        <v>850</v>
-      </c>
-      <c r="P102" s="32" t="s">
-        <v>599</v>
-      </c>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
       <c r="Q102" s="32"/>
-      <c r="R102" s="32" t="s">
-        <v>852</v>
-      </c>
+      <c r="R102" s="32"/>
       <c r="S102" s="39"/>
       <c r="V102" s="15"/>
     </row>
@@ -10264,45 +8639,21 @@
     </row>
     <row r="104" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="25"/>
-      <c r="D104" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>853</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>564</v>
-      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="26"/>
-      <c r="H104" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>857</v>
-      </c>
-      <c r="J104" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="K104" s="26" t="s">
-        <v>861</v>
-      </c>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
       <c r="L104" s="26"/>
-      <c r="M104" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="N104" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="O104" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="P104" s="26" t="s">
-        <v>692</v>
-      </c>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
       <c r="Q104" s="26"/>
-      <c r="R104" s="26" t="s">
-        <v>771</v>
-      </c>
+      <c r="R104" s="26"/>
       <c r="S104" s="27"/>
       <c r="V104" s="15"/>
     </row>
@@ -10311,95 +8662,41 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="G105" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M105" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="N105" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="O105" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="P105" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q105" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="R105" s="61" t="s">
-        <v>215</v>
-      </c>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="60"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="60"/>
       <c r="S105" s="29"/>
       <c r="V105" s="15"/>
     </row>
     <row r="106" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="30"/>
-      <c r="D106" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="F106" s="32" t="s">
-        <v>565</v>
-      </c>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
       <c r="G106" s="32"/>
-      <c r="H106" s="32" t="s">
-        <v>856</v>
-      </c>
-      <c r="I106" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="J106" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="K106" s="32" t="s">
-        <v>862</v>
-      </c>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
       <c r="L106" s="32"/>
-      <c r="M106" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="N106" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="O106" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="P106" s="32" t="s">
-        <v>693</v>
-      </c>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
       <c r="Q106" s="32"/>
-      <c r="R106" s="32" t="s">
-        <v>772</v>
-      </c>
+      <c r="R106" s="32"/>
       <c r="S106" s="39"/>
       <c r="V106" s="15"/>
     </row>
@@ -10425,47 +8722,21 @@
     </row>
     <row r="108" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="25"/>
-      <c r="D108" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>676</v>
-      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="26"/>
-      <c r="H108" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="I108" s="26" t="s">
-        <v>775</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>865</v>
-      </c>
-      <c r="K108" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="L108" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="M108" s="26" t="s">
-        <v>871</v>
-      </c>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="26"/>
-      <c r="O108" s="26" t="s">
-        <v>873</v>
-      </c>
-      <c r="P108" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q108" s="26" t="s">
-        <v>875</v>
-      </c>
-      <c r="R108" s="26" t="s">
-        <v>877</v>
-      </c>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
       <c r="S108" s="27"/>
       <c r="V108" s="15"/>
     </row>
@@ -10474,97 +8745,41 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F109" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="G109" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H109" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I109" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="J109" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="K109" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="L109" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="M109" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="N109" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O109" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="P109" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q109" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="R109" s="61" t="s">
-        <v>278</v>
-      </c>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="60"/>
+      <c r="N109" s="60"/>
+      <c r="O109" s="60"/>
+      <c r="P109" s="60"/>
+      <c r="Q109" s="60"/>
+      <c r="R109" s="60"/>
       <c r="S109" s="29"/>
       <c r="V109" s="15"/>
     </row>
     <row r="110" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="30"/>
-      <c r="D110" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F110" s="32" t="s">
-        <v>677</v>
-      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
       <c r="G110" s="32"/>
-      <c r="H110" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="I110" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="J110" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="K110" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="L110" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="M110" s="32" t="s">
-        <v>872</v>
-      </c>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
       <c r="N110" s="32"/>
-      <c r="O110" s="32" t="s">
-        <v>874</v>
-      </c>
-      <c r="P110" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q110" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="R110" s="32" t="s">
-        <v>878</v>
-      </c>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
       <c r="S110" s="39"/>
       <c r="V110" s="15"/>
     </row>
@@ -10591,37 +8806,17 @@
     <row r="112" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="25"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="26" t="s">
-        <v>879</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>881</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>883</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>727</v>
-      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="K112" s="26" t="s">
-        <v>885</v>
-      </c>
-      <c r="L112" s="26" t="s">
-        <v>887</v>
-      </c>
-      <c r="M112" s="26" t="s">
-        <v>887</v>
-      </c>
-      <c r="N112" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="O112" s="26" t="s">
-        <v>616</v>
-      </c>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
       <c r="R112" s="45"/>
@@ -10633,86 +8828,38 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="F113" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="G113" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="H113" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="J113" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="K113" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="L113" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="M113" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="N113" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="O113" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="P113" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R113" s="51"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="63"/>
+      <c r="P113" s="60"/>
+      <c r="Q113" s="60"/>
+      <c r="R113" s="60"/>
       <c r="S113" s="29"/>
       <c r="V113" s="15"/>
     </row>
     <row r="114" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="30"/>
       <c r="D114" s="32"/>
-      <c r="E114" s="32" t="s">
-        <v>880</v>
-      </c>
-      <c r="F114" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="G114" s="32" t="s">
-        <v>884</v>
-      </c>
-      <c r="H114" s="32" t="s">
-        <v>728</v>
-      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
       <c r="I114" s="32"/>
-      <c r="J114" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="K114" s="32" t="s">
-        <v>886</v>
-      </c>
-      <c r="L114" s="32" t="s">
-        <v>888</v>
-      </c>
-      <c r="M114" s="32" t="s">
-        <v>888</v>
-      </c>
-      <c r="N114" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="O114" s="32" t="s">
-        <v>617</v>
-      </c>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
       <c r="P114" s="32"/>
       <c r="Q114" s="32"/>
       <c r="R114" s="46"/>
@@ -10764,23 +8911,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E117" s="51"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="51"/>
-      <c r="K117" s="51"/>
-      <c r="L117" s="51"/>
-      <c r="M117" s="51"/>
-      <c r="N117" s="51"/>
-      <c r="O117" s="51"/>
-      <c r="P117" s="51"/>
-      <c r="Q117" s="51"/>
-      <c r="R117" s="51"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="60"/>
+      <c r="O117" s="60"/>
+      <c r="P117" s="60"/>
+      <c r="Q117" s="60"/>
+      <c r="R117" s="60"/>
       <c r="S117" s="29"/>
       <c r="V117" s="15"/>
     </row>
@@ -10826,47 +8971,21 @@
     </row>
     <row r="120" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="25"/>
-      <c r="D120" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>624</v>
-      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
       <c r="F120" s="26"/>
-      <c r="G120" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="I120" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="J120" s="26" t="s">
-        <v>895</v>
-      </c>
-      <c r="K120" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="L120" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="M120" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="N120" s="26" t="s">
-        <v>865</v>
-      </c>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
       <c r="O120" s="26"/>
-      <c r="P120" s="26" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q120" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="R120" s="26" t="s">
-        <v>897</v>
-      </c>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
       <c r="S120" s="27"/>
       <c r="V120" s="15"/>
     </row>
@@ -10875,97 +8994,41 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="E121" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F121" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="G121" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="I121" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="J121" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="K121" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="L121" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="M121" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="N121" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="O121" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P121" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q121" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="R121" s="61" t="s">
-        <v>290</v>
-      </c>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="60"/>
+      <c r="P121" s="60"/>
+      <c r="Q121" s="60"/>
+      <c r="R121" s="60"/>
       <c r="S121" s="29"/>
       <c r="V121" s="15"/>
     </row>
     <row r="122" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="30"/>
-      <c r="D122" s="32" t="s">
-        <v>890</v>
-      </c>
-      <c r="E122" s="32" t="s">
-        <v>625</v>
-      </c>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="32"/>
-      <c r="G122" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="H122" s="32" t="s">
-        <v>892</v>
-      </c>
-      <c r="I122" s="32" t="s">
-        <v>894</v>
-      </c>
-      <c r="J122" s="32" t="s">
-        <v>896</v>
-      </c>
-      <c r="K122" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="L122" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="M122" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="N122" s="32" t="s">
-        <v>866</v>
-      </c>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
       <c r="O122" s="32"/>
-      <c r="P122" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="Q122" s="32" t="s">
-        <v>713</v>
-      </c>
-      <c r="R122" s="32" t="s">
-        <v>898</v>
-      </c>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
       <c r="S122" s="39"/>
       <c r="V122" s="15"/>
     </row>
@@ -10991,45 +9054,21 @@
     </row>
     <row r="124" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="25"/>
-      <c r="D124" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>899</v>
-      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="26"/>
-      <c r="H124" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="I124" s="26" t="s">
-        <v>901</v>
-      </c>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
       <c r="J124" s="26"/>
-      <c r="K124" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="L124" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="M124" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="N124" s="26" t="s">
-        <v>885</v>
-      </c>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
       <c r="O124" s="26"/>
-      <c r="P124" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q124" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="R124" s="26" t="s">
-        <v>903</v>
-      </c>
+      <c r="P124" s="26"/>
+      <c r="Q124" s="26"/>
+      <c r="R124" s="26"/>
       <c r="S124" s="27"/>
       <c r="V124" s="15"/>
     </row>
@@ -11038,95 +9077,41 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="E125" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F125" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H125" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="I125" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="J125" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="K125" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="L125" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="M125" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="N125" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="O125" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P125" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q125" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="R125" s="61" t="s">
-        <v>293</v>
-      </c>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="60"/>
+      <c r="M125" s="60"/>
+      <c r="N125" s="60"/>
+      <c r="O125" s="60"/>
+      <c r="P125" s="60"/>
+      <c r="Q125" s="60"/>
+      <c r="R125" s="60"/>
       <c r="S125" s="29"/>
       <c r="V125" s="15"/>
     </row>
     <row r="126" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="30"/>
-      <c r="D126" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>900</v>
-      </c>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
       <c r="G126" s="32"/>
-      <c r="H126" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="I126" s="32" t="s">
-        <v>902</v>
-      </c>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
       <c r="J126" s="32"/>
-      <c r="K126" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="L126" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="N126" s="32" t="s">
-        <v>886</v>
-      </c>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
       <c r="O126" s="32"/>
-      <c r="P126" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q126" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="R126" s="32" t="s">
-        <v>904</v>
-      </c>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
       <c r="S126" s="39"/>
       <c r="V126" s="15"/>
     </row>
@@ -11152,45 +9137,21 @@
     </row>
     <row r="128" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="25"/>
-      <c r="D128" s="26" t="s">
-        <v>799</v>
-      </c>
+      <c r="D128" s="26"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="26" t="s">
-        <v>789</v>
-      </c>
-      <c r="G128" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="H128" s="26" t="s">
-        <v>907</v>
-      </c>
-      <c r="I128" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="J128" s="26" t="s">
-        <v>909</v>
-      </c>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
       <c r="K128" s="26"/>
-      <c r="L128" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="M128" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="N128" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="O128" s="26" t="s">
-        <v>911</v>
-      </c>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="26"/>
       <c r="P128" s="26"/>
-      <c r="Q128" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="R128" s="26" t="s">
-        <v>648</v>
-      </c>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="26"/>
       <c r="S128" s="27"/>
       <c r="V128" s="15"/>
     </row>
@@ -11199,95 +9160,41 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="E129" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="G129" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="H129" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="I129" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="J129" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="K129" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="L129" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="M129" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="N129" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="O129" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="P129" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q129" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="R129" s="61" t="s">
-        <v>140</v>
-      </c>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="64"/>
+      <c r="M129" s="60"/>
+      <c r="N129" s="60"/>
+      <c r="O129" s="60"/>
+      <c r="P129" s="60"/>
+      <c r="Q129" s="60"/>
+      <c r="R129" s="60"/>
       <c r="S129" s="29"/>
       <c r="V129" s="15"/>
     </row>
     <row r="130" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="30"/>
-      <c r="D130" s="32" t="s">
-        <v>800</v>
-      </c>
+      <c r="D130" s="32"/>
       <c r="E130" s="32"/>
-      <c r="F130" s="32" t="s">
-        <v>790</v>
-      </c>
-      <c r="G130" s="32" t="s">
-        <v>906</v>
-      </c>
-      <c r="H130" s="32" t="s">
-        <v>908</v>
-      </c>
-      <c r="I130" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="J130" s="32" t="s">
-        <v>910</v>
-      </c>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
       <c r="K130" s="32"/>
-      <c r="L130" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="M130" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="N130" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="O130" s="32" t="s">
-        <v>912</v>
-      </c>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
       <c r="P130" s="32"/>
-      <c r="Q130" s="32" t="s">
-        <v>671</v>
-      </c>
-      <c r="R130" s="32" t="s">
-        <v>649</v>
-      </c>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
       <c r="S130" s="39"/>
       <c r="V130" s="15"/>
     </row>
@@ -11313,45 +9220,21 @@
     </row>
     <row r="132" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="25"/>
-      <c r="D132" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>640</v>
-      </c>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="26"/>
-      <c r="H132" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="I132" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="J132" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="K132" s="26" t="s">
-        <v>913</v>
-      </c>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
       <c r="L132" s="26"/>
-      <c r="M132" s="26" t="s">
-        <v>915</v>
-      </c>
-      <c r="N132" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="O132" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="P132" s="26" t="s">
-        <v>785</v>
-      </c>
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="26"/>
+      <c r="P132" s="26"/>
       <c r="Q132" s="26"/>
-      <c r="R132" s="26" t="s">
-        <v>921</v>
-      </c>
+      <c r="R132" s="26"/>
       <c r="S132" s="27"/>
       <c r="V132" s="15"/>
     </row>
@@ -11360,95 +9243,41 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F133" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G133" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I133" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="J133" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="K133" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="L133" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M133" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="N133" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="O133" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="P133" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q133" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="R133" s="61" t="s">
-        <v>302</v>
-      </c>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="60"/>
+      <c r="M133" s="60"/>
+      <c r="N133" s="60"/>
+      <c r="O133" s="60"/>
+      <c r="P133" s="60"/>
+      <c r="Q133" s="60"/>
+      <c r="R133" s="60"/>
       <c r="S133" s="29"/>
       <c r="V133" s="15"/>
     </row>
     <row r="134" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="30"/>
-      <c r="D134" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>641</v>
-      </c>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
       <c r="G134" s="32"/>
-      <c r="H134" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="I134" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="J134" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="K134" s="32" t="s">
-        <v>914</v>
-      </c>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
       <c r="L134" s="32"/>
-      <c r="M134" s="32" t="s">
-        <v>916</v>
-      </c>
-      <c r="N134" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="O134" s="32" t="s">
-        <v>920</v>
-      </c>
-      <c r="P134" s="32" t="s">
-        <v>786</v>
-      </c>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
       <c r="Q134" s="32"/>
-      <c r="R134" s="32" t="s">
-        <v>922</v>
-      </c>
+      <c r="R134" s="32"/>
       <c r="S134" s="39"/>
       <c r="V134" s="15"/>
     </row>
@@ -11474,44 +9303,20 @@
     </row>
     <row r="136" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="25"/>
-      <c r="D136" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>785</v>
-      </c>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="26"/>
-      <c r="G136" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H136" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="I136" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="J136" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="K136" s="26" t="s">
-        <v>797</v>
-      </c>
-      <c r="L136" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="M136" s="26" t="s">
-        <v>925</v>
-      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
       <c r="N136" s="26"/>
-      <c r="O136" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="P136" s="26" t="s">
-        <v>927</v>
-      </c>
-      <c r="Q136" s="26" t="s">
-        <v>552</v>
-      </c>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26"/>
       <c r="R136" s="26"/>
       <c r="S136" s="27"/>
       <c r="V136" s="15"/>
@@ -11521,94 +9326,40 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="E137" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F137" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="G137" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="H137" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I137" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="J137" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="K137" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="L137" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="M137" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="N137" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="O137" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="P137" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q137" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="R137" s="61" t="s">
-        <v>307</v>
-      </c>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="60"/>
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
+      <c r="L137" s="60"/>
+      <c r="M137" s="60"/>
+      <c r="N137" s="60"/>
+      <c r="O137" s="60"/>
+      <c r="P137" s="60"/>
+      <c r="Q137" s="60"/>
+      <c r="R137" s="60"/>
       <c r="S137" s="29"/>
       <c r="V137" s="15"/>
     </row>
     <row r="138" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="30"/>
-      <c r="D138" s="32" t="s">
-        <v>920</v>
-      </c>
-      <c r="E138" s="32" t="s">
-        <v>786</v>
-      </c>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
       <c r="F138" s="32"/>
-      <c r="G138" s="32" t="s">
-        <v>685</v>
-      </c>
-      <c r="H138" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="I138" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="J138" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="K138" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="L138" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="M138" s="32" t="s">
-        <v>926</v>
-      </c>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+      <c r="M138" s="32"/>
       <c r="N138" s="32"/>
-      <c r="O138" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="P138" s="32" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q138" s="32" t="s">
-        <v>553</v>
-      </c>
+      <c r="O138" s="32"/>
+      <c r="P138" s="32"/>
+      <c r="Q138" s="32"/>
       <c r="R138" s="32"/>
       <c r="S138" s="39"/>
       <c r="V138" s="15"/>
@@ -11636,46 +9387,20 @@
     <row r="140" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="25"/>
       <c r="D140" s="26"/>
-      <c r="E140" s="26" t="s">
-        <v>929</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="I140" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="J140" s="26" t="s">
-        <v>797</v>
-      </c>
-      <c r="K140" s="26" t="s">
-        <v>785</v>
-      </c>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
       <c r="L140" s="26"/>
-      <c r="M140" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="N140" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="O140" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="P140" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q140" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="R140" s="26" t="s">
-        <v>797</v>
-      </c>
+      <c r="M140" s="26"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="26"/>
+      <c r="P140" s="26"/>
+      <c r="Q140" s="26"/>
+      <c r="R140" s="26"/>
       <c r="S140" s="27"/>
       <c r="V140" s="15"/>
     </row>
@@ -11684,97 +9409,41 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="E141" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="F141" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G141" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="H141" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I141" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="J141" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K141" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="L141" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="M141" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="N141" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="O141" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="P141" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q141" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="R141" s="61" t="s">
-        <v>228</v>
-      </c>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="60"/>
+      <c r="M141" s="60"/>
+      <c r="N141" s="60"/>
+      <c r="O141" s="60"/>
+      <c r="P141" s="60"/>
+      <c r="Q141" s="60"/>
+      <c r="R141" s="60"/>
       <c r="S141" s="29"/>
       <c r="V141" s="15"/>
     </row>
     <row r="142" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="30"/>
       <c r="D142" s="32"/>
-      <c r="E142" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="G142" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="H142" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="I142" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="J142" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="K142" s="32" t="s">
-        <v>786</v>
-      </c>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
       <c r="L142" s="32"/>
-      <c r="M142" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="N142" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="O142" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="P142" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q142" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="R142" s="32" t="s">
-        <v>798</v>
-      </c>
+      <c r="M142" s="32"/>
+      <c r="N142" s="32"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="32"/>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="32"/>
       <c r="S142" s="39"/>
       <c r="V142" s="15"/>
     </row>
@@ -11800,40 +9469,20 @@
     </row>
     <row r="144" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="25"/>
-      <c r="D144" s="26" t="s">
-        <v>863</v>
-      </c>
+      <c r="D144" s="26"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="26" t="s">
-        <v>871</v>
-      </c>
+      <c r="F144" s="26"/>
       <c r="G144" s="26"/>
-      <c r="H144" s="26" t="s">
-        <v>516</v>
-      </c>
+      <c r="H144" s="26"/>
       <c r="I144" s="26"/>
-      <c r="J144" s="26" t="s">
-        <v>931</v>
-      </c>
-      <c r="K144" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="L144" s="26" t="s">
-        <v>560</v>
-      </c>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
       <c r="M144" s="26"/>
-      <c r="N144" s="26" t="s">
-        <v>933</v>
-      </c>
-      <c r="O144" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="P144" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q144" s="26" t="s">
-        <v>935</v>
-      </c>
+      <c r="N144" s="26"/>
+      <c r="O144" s="26"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
       <c r="R144" s="26"/>
       <c r="S144" s="27"/>
       <c r="V144" s="15"/>
@@ -11843,90 +9492,40 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="E145" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="F145" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="G145" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H145" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="I145" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="J145" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="K145" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="L145" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="M145" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="N145" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O145" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="P145" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q145" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="R145" s="61" t="s">
-        <v>179</v>
-      </c>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="60"/>
+      <c r="N145" s="60"/>
+      <c r="O145" s="60"/>
+      <c r="P145" s="60"/>
+      <c r="Q145" s="60"/>
+      <c r="R145" s="60"/>
       <c r="S145" s="29"/>
       <c r="V145" s="15"/>
     </row>
     <row r="146" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="30"/>
-      <c r="D146" s="32" t="s">
-        <v>864</v>
-      </c>
+      <c r="D146" s="32"/>
       <c r="E146" s="32"/>
-      <c r="F146" s="32" t="s">
-        <v>872</v>
-      </c>
+      <c r="F146" s="32"/>
       <c r="G146" s="32"/>
-      <c r="H146" s="32" t="s">
-        <v>1185</v>
-      </c>
+      <c r="H146" s="32"/>
       <c r="I146" s="32"/>
-      <c r="J146" s="32" t="s">
-        <v>932</v>
-      </c>
-      <c r="K146" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="L146" s="32" t="s">
-        <v>561</v>
-      </c>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32"/>
+      <c r="L146" s="32"/>
       <c r="M146" s="32"/>
-      <c r="N146" s="32" t="s">
-        <v>934</v>
-      </c>
-      <c r="O146" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="P146" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q146" s="32" t="s">
-        <v>936</v>
-      </c>
+      <c r="N146" s="32"/>
+      <c r="O146" s="32"/>
+      <c r="P146" s="32"/>
+      <c r="Q146" s="32"/>
       <c r="R146" s="32"/>
       <c r="S146" s="39"/>
       <c r="V146" s="15"/>
@@ -11976,23 +9575,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
-      <c r="I149" s="51"/>
-      <c r="J149" s="51"/>
-      <c r="K149" s="51"/>
-      <c r="L149" s="51"/>
-      <c r="M149" s="51"/>
-      <c r="N149" s="51"/>
-      <c r="O149" s="51"/>
-      <c r="P149" s="51"/>
-      <c r="Q149" s="51"/>
-      <c r="R149" s="51"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="60"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="60"/>
+      <c r="K149" s="60"/>
+      <c r="L149" s="60"/>
+      <c r="M149" s="60"/>
+      <c r="N149" s="60"/>
+      <c r="O149" s="60"/>
+      <c r="P149" s="60"/>
+      <c r="Q149" s="60"/>
+      <c r="R149" s="60"/>
       <c r="S149" s="29"/>
       <c r="V149" s="15"/>
     </row>
@@ -12061,21 +9658,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="51"/>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="51"/>
-      <c r="J153" s="51"/>
-      <c r="K153" s="51"/>
-      <c r="L153" s="51"/>
-      <c r="M153" s="51"/>
-      <c r="N153" s="51"/>
-      <c r="O153" s="51"/>
-      <c r="P153" s="51"/>
-      <c r="Q153" s="51"/>
-      <c r="R153" s="51"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
+      <c r="P153" s="60"/>
+      <c r="Q153" s="60"/>
+      <c r="R153" s="60"/>
       <c r="S153" s="29"/>
       <c r="V153" s="15"/>
     </row>
@@ -12144,21 +9741,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="51"/>
-      <c r="E157" s="51"/>
-      <c r="F157" s="51"/>
-      <c r="G157" s="51"/>
-      <c r="H157" s="51"/>
-      <c r="I157" s="51"/>
-      <c r="J157" s="51"/>
-      <c r="K157" s="51"/>
-      <c r="L157" s="51"/>
-      <c r="M157" s="51"/>
-      <c r="N157" s="51"/>
-      <c r="O157" s="51"/>
-      <c r="P157" s="51"/>
-      <c r="Q157" s="51"/>
-      <c r="R157" s="51"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="60"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
+      <c r="L157" s="60"/>
+      <c r="M157" s="60"/>
+      <c r="N157" s="60"/>
+      <c r="O157" s="60"/>
+      <c r="P157" s="60"/>
+      <c r="Q157" s="60"/>
+      <c r="R157" s="60"/>
       <c r="S157" s="29"/>
       <c r="V157" s="15"/>
     </row>
@@ -12227,21 +9824,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
-      <c r="F161" s="51"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="51"/>
-      <c r="K161" s="51"/>
-      <c r="L161" s="51"/>
-      <c r="M161" s="51"/>
-      <c r="N161" s="51"/>
-      <c r="O161" s="51"/>
-      <c r="P161" s="51"/>
-      <c r="Q161" s="51"/>
-      <c r="R161" s="51"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="60"/>
+      <c r="O161" s="60"/>
+      <c r="P161" s="60"/>
+      <c r="Q161" s="60"/>
+      <c r="R161" s="60"/>
       <c r="S161" s="29"/>
       <c r="V161" s="15"/>
     </row>
@@ -12310,21 +9907,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="51"/>
-      <c r="E165" s="51"/>
-      <c r="F165" s="51"/>
-      <c r="G165" s="51"/>
-      <c r="H165" s="51"/>
-      <c r="I165" s="51"/>
-      <c r="J165" s="51"/>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
-      <c r="M165" s="51"/>
-      <c r="N165" s="51"/>
-      <c r="O165" s="51"/>
-      <c r="P165" s="51"/>
-      <c r="Q165" s="51"/>
-      <c r="R165" s="51"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="60"/>
+      <c r="O165" s="60"/>
+      <c r="P165" s="60"/>
+      <c r="Q165" s="60"/>
+      <c r="R165" s="60"/>
       <c r="S165" s="29"/>
       <c r="V165" s="15"/>
     </row>
@@ -12392,21 +9989,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="14"/>
-      <c r="D169" s="51"/>
-      <c r="E169" s="51"/>
-      <c r="F169" s="51"/>
-      <c r="G169" s="51"/>
-      <c r="H169" s="51"/>
-      <c r="I169" s="51"/>
-      <c r="J169" s="51"/>
-      <c r="K169" s="51"/>
-      <c r="L169" s="51"/>
-      <c r="M169" s="51"/>
-      <c r="N169" s="51"/>
-      <c r="O169" s="51"/>
-      <c r="P169" s="51"/>
-      <c r="Q169" s="51"/>
-      <c r="R169" s="51"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="60"/>
+      <c r="O169" s="60"/>
+      <c r="P169" s="60"/>
+      <c r="Q169" s="60"/>
+      <c r="R169" s="60"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="30"/>
@@ -12471,21 +10068,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="14"/>
-      <c r="D173" s="51"/>
-      <c r="E173" s="51"/>
-      <c r="F173" s="51"/>
-      <c r="G173" s="53"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="51"/>
-      <c r="J173" s="51"/>
-      <c r="K173" s="51"/>
-      <c r="L173" s="51"/>
-      <c r="M173" s="51"/>
-      <c r="N173" s="51"/>
-      <c r="O173" s="51"/>
-      <c r="P173" s="51"/>
-      <c r="Q173" s="51"/>
-      <c r="R173" s="51"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="60"/>
+      <c r="G173" s="62"/>
+      <c r="H173" s="60"/>
+      <c r="I173" s="60"/>
+      <c r="J173" s="60"/>
+      <c r="K173" s="60"/>
+      <c r="L173" s="60"/>
+      <c r="M173" s="60"/>
+      <c r="N173" s="60"/>
+      <c r="O173" s="60"/>
+      <c r="P173" s="60"/>
+      <c r="Q173" s="60"/>
+      <c r="R173" s="60"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="30"/>
@@ -12550,21 +10147,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="14"/>
-      <c r="D177" s="51"/>
-      <c r="E177" s="51"/>
-      <c r="F177" s="51"/>
-      <c r="G177" s="51"/>
-      <c r="H177" s="51"/>
-      <c r="I177" s="51"/>
-      <c r="J177" s="51"/>
-      <c r="K177" s="51"/>
-      <c r="L177" s="51"/>
-      <c r="M177" s="51"/>
-      <c r="N177" s="51"/>
-      <c r="O177" s="51"/>
-      <c r="P177" s="51"/>
-      <c r="Q177" s="51"/>
-      <c r="R177" s="51"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="60"/>
+      <c r="G177" s="60"/>
+      <c r="H177" s="60"/>
+      <c r="I177" s="60"/>
+      <c r="J177" s="60"/>
+      <c r="K177" s="60"/>
+      <c r="L177" s="60"/>
+      <c r="M177" s="60"/>
+      <c r="N177" s="60"/>
+      <c r="O177" s="60"/>
+      <c r="P177" s="60"/>
+      <c r="Q177" s="60"/>
+      <c r="R177" s="60"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="30"/>
@@ -12629,21 +10226,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="14"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="51"/>
-      <c r="J181" s="51"/>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="51"/>
-      <c r="N181" s="51"/>
-      <c r="O181" s="51"/>
-      <c r="P181" s="51"/>
-      <c r="Q181" s="51"/>
-      <c r="R181" s="51"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="62"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="60"/>
+      <c r="M181" s="60"/>
+      <c r="N181" s="60"/>
+      <c r="O181" s="60"/>
+      <c r="P181" s="60"/>
+      <c r="Q181" s="60"/>
+      <c r="R181" s="60"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="30"/>
@@ -12708,21 +10305,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="14"/>
-      <c r="D185" s="51"/>
-      <c r="E185" s="51"/>
-      <c r="F185" s="51"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="51"/>
-      <c r="I185" s="51"/>
-      <c r="J185" s="51"/>
-      <c r="K185" s="51"/>
-      <c r="L185" s="51"/>
-      <c r="M185" s="51"/>
-      <c r="N185" s="51"/>
-      <c r="O185" s="51"/>
-      <c r="P185" s="51"/>
-      <c r="Q185" s="51"/>
-      <c r="R185" s="51"/>
+      <c r="D185" s="60"/>
+      <c r="E185" s="60"/>
+      <c r="F185" s="60"/>
+      <c r="G185" s="60"/>
+      <c r="H185" s="60"/>
+      <c r="I185" s="60"/>
+      <c r="J185" s="60"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
+      <c r="O185" s="60"/>
+      <c r="P185" s="60"/>
+      <c r="Q185" s="60"/>
+      <c r="R185" s="60"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="30"/>
@@ -12787,21 +10384,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="14"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="51"/>
-      <c r="F189" s="51"/>
-      <c r="G189" s="51"/>
-      <c r="H189" s="51"/>
-      <c r="I189" s="51"/>
-      <c r="J189" s="51"/>
-      <c r="K189" s="51"/>
-      <c r="L189" s="51"/>
-      <c r="M189" s="51"/>
-      <c r="N189" s="51"/>
-      <c r="O189" s="51"/>
-      <c r="P189" s="51"/>
-      <c r="Q189" s="51"/>
-      <c r="R189" s="51"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="60"/>
+      <c r="F189" s="60"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="60"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="60"/>
+      <c r="L189" s="60"/>
+      <c r="M189" s="60"/>
+      <c r="N189" s="60"/>
+      <c r="O189" s="60"/>
+      <c r="P189" s="60"/>
+      <c r="Q189" s="60"/>
+      <c r="R189" s="60"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="30"/>
@@ -12866,21 +10463,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="14"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="53"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
-      <c r="J193" s="51"/>
-      <c r="K193" s="51"/>
-      <c r="L193" s="51"/>
-      <c r="M193" s="51"/>
-      <c r="N193" s="51"/>
-      <c r="O193" s="51"/>
-      <c r="P193" s="51"/>
-      <c r="Q193" s="51"/>
-      <c r="R193" s="51"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="60"/>
+      <c r="F193" s="60"/>
+      <c r="G193" s="62"/>
+      <c r="H193" s="60"/>
+      <c r="I193" s="60"/>
+      <c r="J193" s="60"/>
+      <c r="K193" s="60"/>
+      <c r="L193" s="60"/>
+      <c r="M193" s="60"/>
+      <c r="N193" s="60"/>
+      <c r="O193" s="60"/>
+      <c r="P193" s="60"/>
+      <c r="Q193" s="60"/>
+      <c r="R193" s="60"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="30"/>
@@ -12945,21 +10542,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="14"/>
-      <c r="D197" s="51"/>
-      <c r="E197" s="51"/>
-      <c r="F197" s="51"/>
-      <c r="G197" s="53"/>
-      <c r="H197" s="51"/>
-      <c r="I197" s="51"/>
-      <c r="J197" s="51"/>
-      <c r="K197" s="51"/>
-      <c r="L197" s="51"/>
-      <c r="M197" s="51"/>
-      <c r="N197" s="51"/>
-      <c r="O197" s="51"/>
-      <c r="P197" s="51"/>
-      <c r="Q197" s="51"/>
-      <c r="R197" s="51"/>
+      <c r="D197" s="60"/>
+      <c r="E197" s="60"/>
+      <c r="F197" s="60"/>
+      <c r="G197" s="62"/>
+      <c r="H197" s="60"/>
+      <c r="I197" s="60"/>
+      <c r="J197" s="60"/>
+      <c r="K197" s="60"/>
+      <c r="L197" s="60"/>
+      <c r="M197" s="60"/>
+      <c r="N197" s="60"/>
+      <c r="O197" s="60"/>
+      <c r="P197" s="60"/>
+      <c r="Q197" s="60"/>
+      <c r="R197" s="60"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="30"/>
@@ -13024,21 +10621,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="14"/>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="53"/>
-      <c r="H201" s="51"/>
-      <c r="I201" s="51"/>
-      <c r="J201" s="51"/>
-      <c r="K201" s="51"/>
-      <c r="L201" s="51"/>
-      <c r="M201" s="51"/>
-      <c r="N201" s="51"/>
-      <c r="O201" s="51"/>
-      <c r="P201" s="51"/>
-      <c r="Q201" s="51"/>
-      <c r="R201" s="51"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="62"/>
+      <c r="H201" s="60"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="60"/>
+      <c r="K201" s="60"/>
+      <c r="L201" s="60"/>
+      <c r="M201" s="60"/>
+      <c r="N201" s="60"/>
+      <c r="O201" s="60"/>
+      <c r="P201" s="60"/>
+      <c r="Q201" s="60"/>
+      <c r="R201" s="60"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="30"/>
@@ -13103,21 +10700,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="14"/>
-      <c r="D205" s="51"/>
-      <c r="E205" s="51"/>
-      <c r="F205" s="51"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="51"/>
-      <c r="I205" s="51"/>
-      <c r="J205" s="51"/>
-      <c r="K205" s="51"/>
-      <c r="L205" s="51"/>
-      <c r="M205" s="51"/>
-      <c r="N205" s="51"/>
-      <c r="O205" s="51"/>
-      <c r="P205" s="51"/>
-      <c r="Q205" s="51"/>
-      <c r="R205" s="51"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="60"/>
+      <c r="G205" s="62"/>
+      <c r="H205" s="60"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="60"/>
+      <c r="K205" s="60"/>
+      <c r="L205" s="60"/>
+      <c r="M205" s="60"/>
+      <c r="N205" s="60"/>
+      <c r="O205" s="60"/>
+      <c r="P205" s="60"/>
+      <c r="Q205" s="60"/>
+      <c r="R205" s="60"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="30"/>
@@ -13182,21 +10779,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="14"/>
-      <c r="D209" s="51"/>
-      <c r="E209" s="51"/>
-      <c r="F209" s="51"/>
-      <c r="G209" s="53"/>
-      <c r="H209" s="51"/>
-      <c r="I209" s="51"/>
-      <c r="J209" s="51"/>
-      <c r="K209" s="51"/>
-      <c r="L209" s="51"/>
-      <c r="M209" s="51"/>
-      <c r="N209" s="51"/>
-      <c r="O209" s="51"/>
-      <c r="P209" s="51"/>
-      <c r="Q209" s="51"/>
-      <c r="R209" s="51"/>
+      <c r="D209" s="60"/>
+      <c r="E209" s="60"/>
+      <c r="F209" s="60"/>
+      <c r="G209" s="62"/>
+      <c r="H209" s="60"/>
+      <c r="I209" s="60"/>
+      <c r="J209" s="60"/>
+      <c r="K209" s="60"/>
+      <c r="L209" s="60"/>
+      <c r="M209" s="60"/>
+      <c r="N209" s="60"/>
+      <c r="O209" s="60"/>
+      <c r="P209" s="60"/>
+      <c r="Q209" s="60"/>
+      <c r="R209" s="60"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="30"/>
@@ -13261,21 +10858,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="14"/>
-      <c r="D213" s="51"/>
-      <c r="E213" s="51"/>
-      <c r="F213" s="51"/>
-      <c r="G213" s="53"/>
-      <c r="H213" s="51"/>
-      <c r="I213" s="51"/>
-      <c r="J213" s="51"/>
-      <c r="K213" s="51"/>
-      <c r="L213" s="51"/>
-      <c r="M213" s="51"/>
-      <c r="N213" s="51"/>
-      <c r="O213" s="51"/>
-      <c r="P213" s="51"/>
-      <c r="Q213" s="51"/>
-      <c r="R213" s="51"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="62"/>
+      <c r="H213" s="60"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="60"/>
+      <c r="K213" s="60"/>
+      <c r="L213" s="60"/>
+      <c r="M213" s="60"/>
+      <c r="N213" s="60"/>
+      <c r="O213" s="60"/>
+      <c r="P213" s="60"/>
+      <c r="Q213" s="60"/>
+      <c r="R213" s="60"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="30"/>
@@ -13340,21 +10937,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="14"/>
-      <c r="D217" s="51"/>
-      <c r="E217" s="51"/>
-      <c r="F217" s="51"/>
-      <c r="G217" s="53"/>
-      <c r="H217" s="51"/>
-      <c r="I217" s="51"/>
-      <c r="J217" s="51"/>
-      <c r="K217" s="51"/>
-      <c r="L217" s="51"/>
-      <c r="M217" s="51"/>
-      <c r="N217" s="51"/>
-      <c r="O217" s="51"/>
-      <c r="P217" s="51"/>
-      <c r="Q217" s="51"/>
-      <c r="R217" s="51"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="60"/>
+      <c r="G217" s="62"/>
+      <c r="H217" s="60"/>
+      <c r="I217" s="60"/>
+      <c r="J217" s="60"/>
+      <c r="K217" s="60"/>
+      <c r="L217" s="60"/>
+      <c r="M217" s="60"/>
+      <c r="N217" s="60"/>
+      <c r="O217" s="60"/>
+      <c r="P217" s="60"/>
+      <c r="Q217" s="60"/>
+      <c r="R217" s="60"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="30"/>
@@ -13419,21 +11016,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="14"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
-      <c r="F221" s="51"/>
-      <c r="G221" s="53"/>
-      <c r="H221" s="51"/>
-      <c r="I221" s="51"/>
-      <c r="J221" s="51"/>
-      <c r="K221" s="51"/>
-      <c r="L221" s="51"/>
-      <c r="M221" s="51"/>
-      <c r="N221" s="51"/>
-      <c r="O221" s="51"/>
-      <c r="P221" s="51"/>
-      <c r="Q221" s="51"/>
-      <c r="R221" s="51"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="60"/>
+      <c r="F221" s="60"/>
+      <c r="G221" s="62"/>
+      <c r="H221" s="60"/>
+      <c r="I221" s="60"/>
+      <c r="J221" s="60"/>
+      <c r="K221" s="60"/>
+      <c r="L221" s="60"/>
+      <c r="M221" s="60"/>
+      <c r="N221" s="60"/>
+      <c r="O221" s="60"/>
+      <c r="P221" s="60"/>
+      <c r="Q221" s="60"/>
+      <c r="R221" s="60"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="30"/>
@@ -13498,21 +11095,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="14"/>
-      <c r="D225" s="51"/>
-      <c r="E225" s="51"/>
-      <c r="F225" s="51"/>
-      <c r="G225" s="53"/>
-      <c r="H225" s="51"/>
-      <c r="I225" s="51"/>
-      <c r="J225" s="51"/>
-      <c r="K225" s="51"/>
-      <c r="L225" s="51"/>
-      <c r="M225" s="51"/>
-      <c r="N225" s="51"/>
-      <c r="O225" s="51"/>
-      <c r="P225" s="51"/>
-      <c r="Q225" s="51"/>
-      <c r="R225" s="51"/>
+      <c r="D225" s="60"/>
+      <c r="E225" s="60"/>
+      <c r="F225" s="60"/>
+      <c r="G225" s="62"/>
+      <c r="H225" s="60"/>
+      <c r="I225" s="60"/>
+      <c r="J225" s="60"/>
+      <c r="K225" s="60"/>
+      <c r="L225" s="60"/>
+      <c r="M225" s="60"/>
+      <c r="N225" s="60"/>
+      <c r="O225" s="60"/>
+      <c r="P225" s="60"/>
+      <c r="Q225" s="60"/>
+      <c r="R225" s="60"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="30"/>
@@ -13577,21 +11174,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="14"/>
-      <c r="D229" s="51"/>
-      <c r="E229" s="51"/>
-      <c r="F229" s="51"/>
-      <c r="G229" s="53"/>
-      <c r="H229" s="51"/>
-      <c r="I229" s="51"/>
-      <c r="J229" s="51"/>
-      <c r="K229" s="51"/>
-      <c r="L229" s="51"/>
-      <c r="M229" s="51"/>
-      <c r="N229" s="51"/>
-      <c r="O229" s="51"/>
-      <c r="P229" s="51"/>
-      <c r="Q229" s="51"/>
-      <c r="R229" s="51"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="60"/>
+      <c r="F229" s="60"/>
+      <c r="G229" s="62"/>
+      <c r="H229" s="60"/>
+      <c r="I229" s="60"/>
+      <c r="J229" s="60"/>
+      <c r="K229" s="60"/>
+      <c r="L229" s="60"/>
+      <c r="M229" s="60"/>
+      <c r="N229" s="60"/>
+      <c r="O229" s="60"/>
+      <c r="P229" s="60"/>
+      <c r="Q229" s="60"/>
+      <c r="R229" s="60"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="30"/>
@@ -13656,21 +11253,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="14"/>
-      <c r="D233" s="51"/>
-      <c r="E233" s="51"/>
-      <c r="F233" s="51"/>
-      <c r="G233" s="53"/>
-      <c r="H233" s="51"/>
-      <c r="I233" s="51"/>
-      <c r="J233" s="51"/>
-      <c r="K233" s="51"/>
-      <c r="L233" s="51"/>
-      <c r="M233" s="51"/>
-      <c r="N233" s="51"/>
-      <c r="O233" s="51"/>
-      <c r="P233" s="51"/>
-      <c r="Q233" s="51"/>
-      <c r="R233" s="51"/>
+      <c r="D233" s="60"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="60"/>
+      <c r="G233" s="62"/>
+      <c r="H233" s="60"/>
+      <c r="I233" s="60"/>
+      <c r="J233" s="60"/>
+      <c r="K233" s="60"/>
+      <c r="L233" s="60"/>
+      <c r="M233" s="60"/>
+      <c r="N233" s="60"/>
+      <c r="O233" s="60"/>
+      <c r="P233" s="60"/>
+      <c r="Q233" s="60"/>
+      <c r="R233" s="60"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="30"/>
@@ -13735,21 +11332,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="14"/>
-      <c r="D237" s="51"/>
-      <c r="E237" s="51"/>
-      <c r="F237" s="51"/>
-      <c r="G237" s="53"/>
-      <c r="H237" s="51"/>
-      <c r="I237" s="51"/>
-      <c r="J237" s="51"/>
-      <c r="K237" s="51"/>
-      <c r="L237" s="51"/>
-      <c r="M237" s="51"/>
-      <c r="N237" s="51"/>
-      <c r="O237" s="51"/>
-      <c r="P237" s="51"/>
-      <c r="Q237" s="51"/>
-      <c r="R237" s="51"/>
+      <c r="D237" s="60"/>
+      <c r="E237" s="60"/>
+      <c r="F237" s="60"/>
+      <c r="G237" s="62"/>
+      <c r="H237" s="60"/>
+      <c r="I237" s="60"/>
+      <c r="J237" s="60"/>
+      <c r="K237" s="60"/>
+      <c r="L237" s="60"/>
+      <c r="M237" s="60"/>
+      <c r="N237" s="60"/>
+      <c r="O237" s="60"/>
+      <c r="P237" s="60"/>
+      <c r="Q237" s="60"/>
+      <c r="R237" s="60"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="30"/>
@@ -13814,21 +11411,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="14"/>
-      <c r="D241" s="51"/>
-      <c r="E241" s="51"/>
-      <c r="F241" s="51"/>
-      <c r="G241" s="53"/>
-      <c r="H241" s="51"/>
-      <c r="I241" s="51"/>
-      <c r="J241" s="51"/>
-      <c r="K241" s="51"/>
-      <c r="L241" s="51"/>
-      <c r="M241" s="51"/>
-      <c r="N241" s="51"/>
-      <c r="O241" s="51"/>
-      <c r="P241" s="51"/>
-      <c r="Q241" s="51"/>
-      <c r="R241" s="51"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="60"/>
+      <c r="G241" s="62"/>
+      <c r="H241" s="60"/>
+      <c r="I241" s="60"/>
+      <c r="J241" s="60"/>
+      <c r="K241" s="60"/>
+      <c r="L241" s="60"/>
+      <c r="M241" s="60"/>
+      <c r="N241" s="60"/>
+      <c r="O241" s="60"/>
+      <c r="P241" s="60"/>
+      <c r="Q241" s="60"/>
+      <c r="R241" s="60"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="30"/>
@@ -14765,7 +12362,7 @@
         <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E30" t="s">
         <v>965</v>
@@ -25724,43 +23321,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="40">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
     <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="38">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
     <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="37" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
     <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="48">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27">
     <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -25772,19 +23369,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
     <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -25796,19 +23393,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="24">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
     <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -25820,35 +23417,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:R67">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67">
     <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
     <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:R75">
     <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -25860,11 +23457,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">

--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8DFA0-BB2E-4AAF-ADBD-F68622D276B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B3814-11C6-45F7-BFCE-3576E81231D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="22575" windowHeight="14280" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId3"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId4"/>
+    <sheet name="缺字表" sheetId="110" r:id="rId4"/>
     <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId5"/>
     <sheet name="缺字表 (範例r1)" sheetId="100" r:id="rId6"/>
     <sheet name="漢字庫（範例）" sheetId="10" r:id="rId7"/>
@@ -4924,7 +4924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5077,15 +5077,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5104,30 +5095,14 @@
     <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6638,10 +6613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="26.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6681,95 +6656,95 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="b">
+      <c r="C8" s="54" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="30">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6809,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A83" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -6926,610 +6901,610 @@
     <row r="3" spans="1:22" s="17" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
       <c r="T3" s="18"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="57" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="19"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="21"/>
-      <c r="V4" s="52"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="45" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="45" t="s">
         <v>1177</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="45" t="s">
         <v>1178</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="45" t="s">
         <v>1179</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="45" t="s">
         <v>1180</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="45" t="s">
         <v>1181</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="45" t="s">
         <v>1182</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="45" t="s">
         <v>1183</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="45" t="s">
         <v>1184</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="45" t="s">
         <v>1185</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="45" t="s">
         <v>1186</v>
       </c>
       <c r="S5" s="23"/>
-      <c r="V5" s="52"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="28" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="27"/>
-      <c r="V6" s="52"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="31"/>
-      <c r="V7" s="52"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="21"/>
-      <c r="V8" s="52"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="22">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="45" t="s">
         <v>1187</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="45" t="s">
         <v>1188</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="45" t="s">
         <v>1189</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>1190</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="45" t="s">
         <v>1191</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="45" t="s">
         <v>1192</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="45" t="s">
         <v>1193</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="45" t="s">
         <v>1194</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="45" t="s">
         <v>1195</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="45" t="s">
         <v>1196</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="45" t="s">
         <v>1197</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="45" t="s">
         <v>1198</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="18"/>
-      <c r="V9" s="52"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
       <c r="S10" s="33"/>
-      <c r="V10" s="52"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="34"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="V11" s="52"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="19"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
       <c r="S12" s="21"/>
-      <c r="V12" s="52"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="22">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="45" t="s">
         <v>1199</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="45" t="s">
         <v>1200</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="45" t="s">
         <v>1201</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="45" t="s">
         <v>1202</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="45" t="s">
         <v>1203</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="45" t="s">
         <v>1204</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="45" t="s">
         <v>1205</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="45" t="s">
         <v>1206</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="45" t="s">
         <v>1207</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="45" t="s">
         <v>1208</v>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="45" t="s">
         <v>31</v>
       </c>
       <c r="S13" s="23"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
       <c r="S14" s="33"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="V15" s="52"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="19"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="21"/>
-      <c r="V16" s="52"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="22">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="45" t="s">
         <v>1209</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="45" t="s">
         <v>1210</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="45" t="s">
         <v>1211</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="45" t="s">
         <v>1212</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="45" t="s">
         <v>1213</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="45" t="s">
         <v>1181</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="45" t="s">
         <v>1214</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="45" t="s">
         <v>1215</v>
       </c>
-      <c r="R17" s="60" t="s">
+      <c r="R17" s="45" t="s">
         <v>1216</v>
       </c>
       <c r="S17" s="23"/>
-      <c r="V17" s="52"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="33"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="V19" s="52"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="19"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
       <c r="S20" s="21"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="22">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="45" t="s">
         <v>1217</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="45" t="s">
         <v>1218</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="45" t="s">
         <v>1189</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="45" t="s">
         <v>1177</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="45" t="s">
         <v>1220</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="45" t="s">
         <v>1221</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="45" t="s">
         <v>1222</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="45" t="s">
         <v>1223</v>
       </c>
       <c r="S21" s="23"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="33"/>
-      <c r="V22" s="53"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
       <c r="V23" s="38"/>
     </row>
     <row r="24" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="19"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
       <c r="S24" s="21"/>
       <c r="V24" s="9"/>
     </row>
@@ -7538,49 +7513,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="45" t="s">
         <v>1224</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="45" t="s">
         <v>1225</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="45" t="s">
         <v>1226</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="45" t="s">
         <v>1187</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="45" t="s">
         <v>1188</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="45" t="s">
         <v>1227</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="45" t="s">
         <v>1228</v>
       </c>
-      <c r="O25" s="60" t="s">
+      <c r="O25" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="P25" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="45" t="s">
         <v>110</v>
       </c>
       <c r="S25" s="23"/>
@@ -7588,21 +7563,21 @@
     </row>
     <row r="26" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="24"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
       <c r="S26" s="33"/>
       <c r="U26" s="8" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
@@ -7613,21 +7588,21 @@
     <row r="27" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="14"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
       <c r="U27" s="37" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -7636,21 +7611,21 @@
     </row>
     <row r="28" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="19"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
       <c r="S28" s="21"/>
       <c r="U28" s="37" t="str">
         <f t="shared" si="1"/>
@@ -7663,49 +7638,49 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="45" t="s">
         <v>1229</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="45" t="s">
         <v>1230</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="45" t="s">
         <v>1231</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="45" t="s">
         <v>1232</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="45" t="s">
         <v>1233</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="O29" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="P29" s="60" t="s">
+      <c r="P29" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="60" t="s">
+      <c r="R29" s="45" t="s">
         <v>1219</v>
       </c>
       <c r="S29" s="23"/>
@@ -7717,21 +7692,21 @@
     </row>
     <row r="30" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="24"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
       <c r="S30" s="33"/>
       <c r="U30" s="37" t="str">
         <f t="shared" si="1"/>
@@ -7742,21 +7717,21 @@
     <row r="31" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="14"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
       <c r="U31" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7765,21 +7740,21 @@
     </row>
     <row r="32" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="19"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
       <c r="S32" s="21"/>
       <c r="U32" s="37" t="str">
         <f t="shared" si="1"/>
@@ -7792,49 +7767,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="45" t="s">
         <v>1234</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="45" t="s">
         <v>1235</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="45" t="s">
         <v>1236</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="45" t="s">
         <v>1237</v>
       </c>
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="45" t="s">
         <v>1238</v>
       </c>
-      <c r="N33" s="60" t="s">
+      <c r="N33" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="60" t="s">
+      <c r="O33" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="P33" s="60" t="s">
+      <c r="P33" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="60" t="s">
+      <c r="Q33" s="45" t="s">
         <v>1239</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="R33" s="45" t="s">
         <v>202</v>
       </c>
       <c r="S33" s="23"/>
@@ -7842,59 +7817,59 @@
     </row>
     <row r="34" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="24"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
       <c r="S34" s="33"/>
       <c r="V34" s="9"/>
     </row>
     <row r="35" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="14"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="V35" s="38"/>
     </row>
     <row r="36" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
@@ -7905,67 +7880,67 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="45" t="s">
         <v>1240</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="45" t="s">
         <v>1239</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="45" t="s">
         <v>1241</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="45" t="s">
         <v>1194</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="45" t="s">
         <v>1187</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="45" t="s">
         <v>1188</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="45" t="s">
         <v>1196</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="45" t="s">
         <v>1197</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P37" s="60" t="str">
+      <c r="P37" s="45" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
       <c r="S37" s="23"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="24"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="33"/>
@@ -7974,7 +7949,7 @@
     <row r="39" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="14"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="65"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -7993,7 +7968,7 @@
     </row>
     <row r="40" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="19"/>
-      <c r="D40" s="66"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -8016,31 +7991,31 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="60" t="str">
+      <c r="D41" s="45" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
       <c r="S41" s="23"/>
       <c r="V41" s="9"/>
     </row>
     <row r="42" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="24"/>
-      <c r="D42" s="67"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -8061,40 +8036,40 @@
     <row r="43" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="14"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
       <c r="V43" s="38"/>
     </row>
     <row r="44" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="19"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
       <c r="S44" s="21"/>
       <c r="V44" s="9"/>
     </row>
@@ -8103,49 +8078,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="45" t="s">
         <v>1189</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="45" t="s">
         <v>1242</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="45" t="s">
         <v>1243</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="45" t="s">
         <v>1242</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="45" t="s">
         <v>1244</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="45" t="s">
         <v>1245</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="45" t="s">
         <v>1246</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="45" t="s">
         <v>1243</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="45" t="s">
         <v>1247</v>
       </c>
-      <c r="N45" s="60" t="s">
+      <c r="N45" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="45" t="s">
         <v>1248</v>
       </c>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="45" t="s">
         <v>1249</v>
       </c>
       <c r="S45" s="23"/>
@@ -8153,61 +8128,61 @@
     </row>
     <row r="46" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="24"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
       <c r="S46" s="33"/>
       <c r="V46" s="9"/>
     </row>
     <row r="47" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="14"/>
       <c r="C47" s="36"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
       <c r="V47" s="38"/>
     </row>
     <row r="48" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="19"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
       <c r="S48" s="21"/>
       <c r="V48" s="9"/>
     </row>
@@ -8216,49 +8191,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="45" t="s">
         <v>1225</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="45" t="s">
         <v>1226</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="45" t="s">
         <v>1221</v>
       </c>
-      <c r="J49" s="60" t="s">
+      <c r="J49" s="45" t="s">
         <v>1222</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="45" t="s">
         <v>1250</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="45" t="s">
         <v>1251</v>
       </c>
-      <c r="N49" s="60" t="s">
+      <c r="N49" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="45" t="s">
         <v>1252</v>
       </c>
-      <c r="P49" s="60" t="s">
+      <c r="P49" s="45" t="s">
         <v>1253</v>
       </c>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="45" t="s">
         <v>1254</v>
       </c>
-      <c r="R49" s="60" t="s">
+      <c r="R49" s="45" t="s">
         <v>1255</v>
       </c>
       <c r="S49" s="23"/>
@@ -8266,61 +8241,61 @@
     </row>
     <row r="50" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="24"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
       <c r="S50" s="33"/>
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="14"/>
       <c r="C51" s="36"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
       <c r="V51" s="38"/>
     </row>
     <row r="52" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="19"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="V52" s="9"/>
     </row>
@@ -8329,49 +8304,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="45" t="s">
         <v>1256</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="45" t="s">
         <v>1257</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="45" t="s">
         <v>1258</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="45" t="s">
         <v>1259</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="60" t="s">
+      <c r="L53" s="45" t="s">
         <v>1196</v>
       </c>
-      <c r="M53" s="60" t="s">
+      <c r="M53" s="45" t="s">
         <v>1197</v>
       </c>
-      <c r="N53" s="60" t="s">
+      <c r="N53" s="45" t="s">
         <v>1260</v>
       </c>
-      <c r="O53" s="60" t="s">
+      <c r="O53" s="45" t="s">
         <v>1261</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="Q53" s="60" t="s">
+      <c r="Q53" s="45" t="s">
         <v>1262</v>
       </c>
-      <c r="R53" s="60" t="s">
+      <c r="R53" s="45" t="s">
         <v>31</v>
       </c>
       <c r="S53" s="23"/>
@@ -8379,61 +8354,61 @@
     </row>
     <row r="54" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="24"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
       <c r="S54" s="33"/>
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
       <c r="V55" s="38"/>
     </row>
     <row r="56" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="19"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
       <c r="S56" s="21"/>
       <c r="V56" s="9"/>
     </row>
@@ -8442,49 +8417,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="45" t="s">
         <v>1263</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="45" t="s">
         <v>1264</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="45" t="s">
         <v>1204</v>
       </c>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="45" t="s">
         <v>1265</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="J57" s="45" t="s">
         <v>1266</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="45" t="s">
         <v>1267</v>
       </c>
-      <c r="L57" s="60" t="s">
+      <c r="L57" s="45" t="s">
         <v>1268</v>
       </c>
-      <c r="M57" s="60" t="s">
+      <c r="M57" s="45" t="s">
         <v>1269</v>
       </c>
-      <c r="N57" s="60" t="s">
+      <c r="N57" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="60" t="s">
+      <c r="O57" s="45" t="s">
         <v>1257</v>
       </c>
-      <c r="P57" s="60" t="s">
+      <c r="P57" s="45" t="s">
         <v>1237</v>
       </c>
-      <c r="Q57" s="60" t="s">
+      <c r="Q57" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="R57" s="60" t="s">
+      <c r="R57" s="45" t="s">
         <v>1189</v>
       </c>
       <c r="S57" s="23"/>
@@ -8492,61 +8467,61 @@
     </row>
     <row r="58" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="24"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
       <c r="S58" s="33"/>
       <c r="V58" s="9"/>
     </row>
     <row r="59" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="14"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
       <c r="V59" s="38"/>
     </row>
     <row r="60" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="19"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
       <c r="S60" s="21"/>
       <c r="V60" s="9"/>
     </row>
@@ -8555,49 +8530,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="45" t="s">
         <v>1270</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="45" t="s">
         <v>1195</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="45" t="s">
         <v>1196</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="45" t="s">
         <v>1271</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="45" t="s">
         <v>1272</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L61" s="45" t="s">
         <v>1265</v>
       </c>
-      <c r="M61" s="60" t="s">
+      <c r="M61" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="60" t="s">
+      <c r="N61" s="45" t="s">
         <v>1273</v>
       </c>
-      <c r="O61" s="60" t="s">
+      <c r="O61" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P61" s="45" t="s">
         <v>1274</v>
       </c>
-      <c r="Q61" s="60" t="s">
+      <c r="Q61" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="R61" s="60" t="s">
+      <c r="R61" s="45" t="s">
         <v>31</v>
       </c>
       <c r="S61" s="23"/>
@@ -8605,61 +8580,61 @@
     </row>
     <row r="62" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="24"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
       <c r="S62" s="33"/>
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="14"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
       <c r="V63" s="38"/>
     </row>
     <row r="64" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="19"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
       <c r="S64" s="21"/>
       <c r="V64" s="9"/>
     </row>
@@ -8668,49 +8643,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="45" t="s">
         <v>1275</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G65" s="47" t="s">
         <v>1238</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="45" t="s">
         <v>1276</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="45" t="s">
         <v>1277</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="L65" s="60" t="s">
+      <c r="L65" s="45" t="s">
         <v>1187</v>
       </c>
-      <c r="M65" s="60" t="s">
+      <c r="M65" s="45" t="s">
         <v>1188</v>
       </c>
-      <c r="N65" s="60" t="s">
+      <c r="N65" s="45" t="s">
         <v>1278</v>
       </c>
-      <c r="O65" s="60" t="s">
+      <c r="O65" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="P65" s="60" t="s">
+      <c r="P65" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="60" t="s">
+      <c r="Q65" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="R65" s="60" t="s">
+      <c r="R65" s="45" t="s">
         <v>1279</v>
       </c>
       <c r="S65" s="23"/>
@@ -8718,61 +8693,61 @@
     </row>
     <row r="66" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="24"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
       <c r="S66" s="33"/>
       <c r="V66" s="9"/>
     </row>
     <row r="67" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="14"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
       <c r="V67" s="38"/>
     </row>
     <row r="68" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="19"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
       <c r="S68" s="21"/>
       <c r="V68" s="9"/>
     </row>
@@ -8781,49 +8756,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="45" t="s">
         <v>1280</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="45" t="s">
         <v>1281</v>
       </c>
-      <c r="G69" s="62" t="s">
+      <c r="G69" s="47" t="s">
         <v>1282</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="45" t="s">
         <v>1283</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J69" s="60" t="s">
+      <c r="J69" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="60" t="s">
+      <c r="K69" s="45" t="s">
         <v>1284</v>
       </c>
-      <c r="L69" s="60" t="s">
+      <c r="L69" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="60" t="s">
+      <c r="M69" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="N69" s="60" t="s">
+      <c r="N69" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="O69" s="60" t="s">
+      <c r="O69" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P69" s="45" t="s">
         <v>1201</v>
       </c>
-      <c r="Q69" s="60" t="s">
+      <c r="Q69" s="45" t="s">
         <v>1285</v>
       </c>
-      <c r="R69" s="60" t="s">
+      <c r="R69" s="45" t="s">
         <v>38</v>
       </c>
       <c r="S69" s="23"/>
@@ -8831,61 +8806,61 @@
     </row>
     <row r="70" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="24"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
       <c r="S70" s="33"/>
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="14"/>
       <c r="C71" s="36"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
       <c r="V71" s="38"/>
     </row>
     <row r="72" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="19"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
-      <c r="O72" s="66"/>
-      <c r="P72" s="66"/>
-      <c r="Q72" s="66"/>
-      <c r="R72" s="66"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
       <c r="S72" s="21"/>
       <c r="V72" s="9"/>
     </row>
@@ -8894,49 +8869,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="45" t="s">
         <v>1232</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="45" t="s">
         <v>1286</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="45" t="s">
         <v>1287</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H73" s="45" t="s">
         <v>1197</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="J73" s="60" t="s">
+      <c r="J73" s="45" t="s">
         <v>1218</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L73" s="60" t="s">
+      <c r="L73" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="M73" s="60" t="s">
+      <c r="M73" s="45" t="s">
         <v>1289</v>
       </c>
-      <c r="N73" s="60" t="s">
+      <c r="N73" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="O73" s="60" t="s">
+      <c r="O73" s="45" t="s">
         <v>1290</v>
       </c>
-      <c r="P73" s="60" t="s">
+      <c r="P73" s="45" t="s">
         <v>1291</v>
       </c>
-      <c r="Q73" s="60" t="s">
+      <c r="Q73" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="R73" s="60" t="s">
+      <c r="R73" s="45" t="s">
         <v>1292</v>
       </c>
       <c r="S73" s="23"/>
@@ -8944,61 +8919,61 @@
     </row>
     <row r="74" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="24"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
       <c r="S74" s="33"/>
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="14"/>
       <c r="C75" s="36"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
       <c r="V75" s="38"/>
     </row>
     <row r="76" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="19"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
       <c r="S76" s="21"/>
       <c r="V76" s="9"/>
     </row>
@@ -9007,49 +8982,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D77" s="45" t="s">
         <v>1293</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E77" s="45" t="s">
         <v>1294</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="45" t="s">
         <v>1295</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="45" t="s">
         <v>1296</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="45" t="s">
         <v>1210</v>
       </c>
-      <c r="J77" s="60" t="s">
+      <c r="J77" s="45" t="s">
         <v>1218</v>
       </c>
-      <c r="K77" s="60" t="s">
+      <c r="K77" s="45" t="s">
         <v>1297</v>
       </c>
-      <c r="L77" s="60" t="s">
+      <c r="L77" s="45" t="s">
         <v>1196</v>
       </c>
-      <c r="M77" s="60" t="s">
+      <c r="M77" s="45" t="s">
         <v>1197</v>
       </c>
-      <c r="N77" s="60" t="s">
+      <c r="N77" s="45" t="s">
         <v>1266</v>
       </c>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="45" t="s">
         <v>1298</v>
       </c>
-      <c r="P77" s="60" t="s">
+      <c r="P77" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="Q77" s="60" t="s">
+      <c r="Q77" s="45" t="s">
         <v>1299</v>
       </c>
-      <c r="R77" s="60" t="s">
+      <c r="R77" s="45" t="s">
         <v>31</v>
       </c>
       <c r="S77" s="23"/>
@@ -9057,61 +9032,61 @@
     </row>
     <row r="78" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="24"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="67"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
       <c r="S78" s="33"/>
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="14"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
       <c r="V79" s="38"/>
     </row>
     <row r="80" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="19"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="66"/>
-      <c r="M80" s="66"/>
-      <c r="N80" s="66"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
       <c r="S80" s="21"/>
       <c r="V80" s="9"/>
     </row>
@@ -9120,49 +9095,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="45" t="s">
         <v>1300</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="45" t="s">
         <v>1301</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="45" t="s">
         <v>1302</v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="45" t="s">
         <v>1303</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="60" t="s">
+      <c r="I81" s="45" t="s">
         <v>1304</v>
       </c>
-      <c r="J81" s="60" t="s">
+      <c r="J81" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="45" t="s">
         <v>1238</v>
       </c>
-      <c r="L81" s="60" t="s">
+      <c r="L81" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M81" s="60" t="s">
+      <c r="M81" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="60" t="s">
+      <c r="N81" s="45" t="s">
         <v>1204</v>
       </c>
-      <c r="O81" s="60" t="s">
+      <c r="O81" s="45" t="s">
         <v>1305</v>
       </c>
-      <c r="P81" s="60" t="s">
+      <c r="P81" s="45" t="s">
         <v>1206</v>
       </c>
-      <c r="Q81" s="60" t="s">
+      <c r="Q81" s="45" t="s">
         <v>1306</v>
       </c>
-      <c r="R81" s="60" t="s">
+      <c r="R81" s="45" t="s">
         <v>1200</v>
       </c>
       <c r="S81" s="23"/>
@@ -9170,61 +9145,61 @@
     </row>
     <row r="82" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="24"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
       <c r="S82" s="33"/>
       <c r="V82" s="9"/>
     </row>
     <row r="83" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="36"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
       <c r="V83" s="38"/>
     </row>
     <row r="84" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="19"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="66"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
       <c r="S84" s="21"/>
       <c r="V84" s="9"/>
     </row>
@@ -9233,49 +9208,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="E85" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G85" s="62" t="s">
+      <c r="G85" s="47" t="s">
         <v>1307</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="H85" s="45" t="s">
         <v>1308</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="I85" s="45" t="s">
         <v>1309</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="J85" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="K85" s="45" t="s">
         <v>1310</v>
       </c>
-      <c r="L85" s="60" t="s">
+      <c r="L85" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="M85" s="60" t="s">
+      <c r="M85" s="45" t="s">
         <v>1311</v>
       </c>
-      <c r="N85" s="60" t="s">
+      <c r="N85" s="45" t="s">
         <v>1312</v>
       </c>
-      <c r="O85" s="60" t="s">
+      <c r="O85" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P85" s="60" t="s">
+      <c r="P85" s="45" t="s">
         <v>1313</v>
       </c>
-      <c r="Q85" s="60" t="s">
+      <c r="Q85" s="45" t="s">
         <v>1218</v>
       </c>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="45" t="s">
         <v>32</v>
       </c>
       <c r="S85" s="23"/>
@@ -9283,33 +9258,33 @@
     </row>
     <row r="86" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="24"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
       <c r="S86" s="33"/>
       <c r="V86" s="9"/>
     </row>
     <row r="87" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="14"/>
       <c r="C87" s="36"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
@@ -9323,12 +9298,12 @@
     </row>
     <row r="88" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="19"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
@@ -9346,46 +9321,46 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F89" s="60" t="s">
+      <c r="F89" s="45" t="s">
         <v>1314</v>
       </c>
-      <c r="G89" s="60" t="s">
+      <c r="G89" s="45" t="s">
         <v>1315</v>
       </c>
-      <c r="H89" s="60" t="s">
+      <c r="H89" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I89" s="60" t="str">
+      <c r="I89" s="45" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
       <c r="S89" s="23"/>
       <c r="V89" s="9"/>
     </row>
     <row r="90" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="24"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
       <c r="J90" s="26"/>
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
@@ -9401,7 +9376,7 @@
     <row r="91" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="14"/>
       <c r="C91" s="36"/>
-      <c r="D91" s="65"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -9420,7 +9395,7 @@
     </row>
     <row r="92" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="19"/>
-      <c r="D92" s="66"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
@@ -9443,31 +9418,31 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="60" t="str">
+      <c r="D93" s="45" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
       <c r="S93" s="23"/>
       <c r="V93" s="9"/>
     </row>
     <row r="94" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="24"/>
-      <c r="D94" s="67"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -9488,40 +9463,40 @@
     <row r="95" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="14"/>
       <c r="C95" s="36"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
       <c r="V95" s="38"/>
     </row>
     <row r="96" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="19"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="66"/>
-      <c r="M96" s="66"/>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="66"/>
-      <c r="Q96" s="66"/>
-      <c r="R96" s="66"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
       <c r="S96" s="21"/>
       <c r="V96" s="9"/>
     </row>
@@ -9530,49 +9505,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="60" t="s">
+      <c r="D97" s="45" t="s">
         <v>1189</v>
       </c>
-      <c r="E97" s="60" t="s">
+      <c r="E97" s="45" t="s">
         <v>1316</v>
       </c>
-      <c r="F97" s="60" t="s">
+      <c r="F97" s="45" t="s">
         <v>1317</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="60" t="s">
+      <c r="H97" s="45" t="s">
         <v>1318</v>
       </c>
-      <c r="I97" s="60" t="s">
+      <c r="I97" s="45" t="s">
         <v>1305</v>
       </c>
-      <c r="J97" s="60" t="s">
+      <c r="J97" s="45" t="s">
         <v>1319</v>
       </c>
-      <c r="K97" s="60" t="s">
+      <c r="K97" s="45" t="s">
         <v>1320</v>
       </c>
-      <c r="L97" s="60" t="s">
+      <c r="L97" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="60" t="s">
+      <c r="M97" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="N97" s="60" t="s">
+      <c r="N97" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="O97" s="60" t="s">
+      <c r="O97" s="45" t="s">
         <v>1321</v>
       </c>
-      <c r="P97" s="60" t="s">
+      <c r="P97" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="Q97" s="60" t="s">
+      <c r="Q97" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="60" t="s">
+      <c r="R97" s="45" t="s">
         <v>1322</v>
       </c>
       <c r="S97" s="23"/>
@@ -9580,29 +9555,29 @@
     </row>
     <row r="98" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="24"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67"/>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="67"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
       <c r="S98" s="33"/>
       <c r="V98" s="9"/>
     </row>
     <row r="99" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="14"/>
       <c r="C99" s="36"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -9620,8 +9595,8 @@
     </row>
     <row r="100" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="19"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -9643,32 +9618,32 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D101" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="60" t="s">
+      <c r="E101" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-      <c r="P101" s="60"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="60"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
+      <c r="R101" s="45"/>
       <c r="S101" s="23"/>
       <c r="V101" s="9"/>
     </row>
     <row r="102" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="24"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
@@ -9730,23 +9705,23 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="63"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="48"/>
+      <c r="P105" s="45"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="23"/>
       <c r="V105" s="9"/>
     </row>
@@ -9815,21 +9790,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="60"/>
-      <c r="N109" s="60"/>
-      <c r="O109" s="60"/>
-      <c r="P109" s="60"/>
-      <c r="Q109" s="60"/>
-      <c r="R109" s="60"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="45"/>
       <c r="S109" s="23"/>
       <c r="V109" s="9"/>
     </row>
@@ -9898,21 +9873,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="60"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
-      <c r="R113" s="60"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="48"/>
+      <c r="P113" s="45"/>
+      <c r="Q113" s="45"/>
+      <c r="R113" s="45"/>
       <c r="S113" s="23"/>
       <c r="V113" s="9"/>
     </row>
@@ -9981,21 +9956,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="60"/>
-      <c r="N117" s="60"/>
-      <c r="O117" s="60"/>
-      <c r="P117" s="60"/>
-      <c r="Q117" s="60"/>
-      <c r="R117" s="60"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="45"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="23"/>
       <c r="V117" s="9"/>
     </row>
@@ -10064,21 +10039,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-      <c r="N121" s="60"/>
-      <c r="O121" s="60"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
-      <c r="R121" s="60"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="45"/>
+      <c r="R121" s="45"/>
       <c r="S121" s="23"/>
       <c r="V121" s="9"/>
     </row>
@@ -10147,21 +10122,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="60"/>
-      <c r="L125" s="60"/>
-      <c r="M125" s="60"/>
-      <c r="N125" s="60"/>
-      <c r="O125" s="60"/>
-      <c r="P125" s="60"/>
-      <c r="Q125" s="60"/>
-      <c r="R125" s="60"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
       <c r="S125" s="23"/>
       <c r="V125" s="9"/>
     </row>
@@ -10230,21 +10205,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="60"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="60"/>
-      <c r="N129" s="60"/>
-      <c r="O129" s="60"/>
-      <c r="P129" s="60"/>
-      <c r="Q129" s="60"/>
-      <c r="R129" s="60"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="49"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="45"/>
       <c r="S129" s="23"/>
       <c r="V129" s="9"/>
     </row>
@@ -10313,21 +10288,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
-      <c r="M133" s="60"/>
-      <c r="N133" s="60"/>
-      <c r="O133" s="60"/>
-      <c r="P133" s="60"/>
-      <c r="Q133" s="60"/>
-      <c r="R133" s="60"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45"/>
+      <c r="K133" s="45"/>
+      <c r="L133" s="45"/>
+      <c r="M133" s="45"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="45"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="45"/>
       <c r="S133" s="23"/>
       <c r="V133" s="9"/>
     </row>
@@ -10396,21 +10371,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="60"/>
-      <c r="I137" s="60"/>
-      <c r="J137" s="60"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
-      <c r="M137" s="60"/>
-      <c r="N137" s="60"/>
-      <c r="O137" s="60"/>
-      <c r="P137" s="60"/>
-      <c r="Q137" s="60"/>
-      <c r="R137" s="60"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="45"/>
+      <c r="N137" s="45"/>
+      <c r="O137" s="45"/>
+      <c r="P137" s="45"/>
+      <c r="Q137" s="45"/>
+      <c r="R137" s="45"/>
       <c r="S137" s="23"/>
       <c r="V137" s="9"/>
     </row>
@@ -10479,21 +10454,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="60"/>
-      <c r="I141" s="60"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="60"/>
-      <c r="N141" s="60"/>
-      <c r="O141" s="60"/>
-      <c r="P141" s="60"/>
-      <c r="Q141" s="60"/>
-      <c r="R141" s="60"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
       <c r="S141" s="23"/>
       <c r="V141" s="9"/>
     </row>
@@ -10562,21 +10537,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="60"/>
-      <c r="N145" s="60"/>
-      <c r="O145" s="60"/>
-      <c r="P145" s="60"/>
-      <c r="Q145" s="60"/>
-      <c r="R145" s="60"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
       <c r="S145" s="23"/>
       <c r="V145" s="9"/>
     </row>
@@ -10645,21 +10620,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="60"/>
-      <c r="N149" s="60"/>
-      <c r="O149" s="60"/>
-      <c r="P149" s="60"/>
-      <c r="Q149" s="60"/>
-      <c r="R149" s="60"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="45"/>
       <c r="S149" s="23"/>
       <c r="V149" s="9"/>
     </row>
@@ -10728,21 +10703,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="60"/>
-      <c r="Q153" s="60"/>
-      <c r="R153" s="60"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="45"/>
+      <c r="N153" s="45"/>
+      <c r="O153" s="45"/>
+      <c r="P153" s="45"/>
+      <c r="Q153" s="45"/>
+      <c r="R153" s="45"/>
       <c r="S153" s="23"/>
       <c r="V153" s="9"/>
     </row>
@@ -10811,21 +10786,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-      <c r="P157" s="60"/>
-      <c r="Q157" s="60"/>
-      <c r="R157" s="60"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="45"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="45"/>
+      <c r="Q157" s="45"/>
+      <c r="R157" s="45"/>
       <c r="S157" s="23"/>
       <c r="V157" s="9"/>
     </row>
@@ -10894,21 +10869,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="60"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="60"/>
-      <c r="Q161" s="60"/>
-      <c r="R161" s="60"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
+      <c r="Q161" s="45"/>
+      <c r="R161" s="45"/>
       <c r="S161" s="23"/>
       <c r="V161" s="9"/>
     </row>
@@ -10977,21 +10952,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
-      <c r="M165" s="60"/>
-      <c r="N165" s="60"/>
-      <c r="O165" s="60"/>
-      <c r="P165" s="60"/>
-      <c r="Q165" s="60"/>
-      <c r="R165" s="60"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
+      <c r="L165" s="45"/>
+      <c r="M165" s="45"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
+      <c r="P165" s="45"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="45"/>
       <c r="S165" s="23"/>
       <c r="V165" s="9"/>
     </row>
@@ -11059,21 +11034,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="8"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="60"/>
-      <c r="O169" s="60"/>
-      <c r="P169" s="60"/>
-      <c r="Q169" s="60"/>
-      <c r="R169" s="60"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="45"/>
+      <c r="J169" s="45"/>
+      <c r="K169" s="45"/>
+      <c r="L169" s="45"/>
+      <c r="M169" s="45"/>
+      <c r="N169" s="45"/>
+      <c r="O169" s="45"/>
+      <c r="P169" s="45"/>
+      <c r="Q169" s="45"/>
+      <c r="R169" s="45"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="24"/>
@@ -11138,21 +11113,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="8"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="60"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="60"/>
-      <c r="L173" s="60"/>
-      <c r="M173" s="60"/>
-      <c r="N173" s="60"/>
-      <c r="O173" s="60"/>
-      <c r="P173" s="60"/>
-      <c r="Q173" s="60"/>
-      <c r="R173" s="60"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="45"/>
+      <c r="J173" s="45"/>
+      <c r="K173" s="45"/>
+      <c r="L173" s="45"/>
+      <c r="M173" s="45"/>
+      <c r="N173" s="45"/>
+      <c r="O173" s="45"/>
+      <c r="P173" s="45"/>
+      <c r="Q173" s="45"/>
+      <c r="R173" s="45"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="24"/>
@@ -11217,21 +11192,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="8"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="60"/>
-      <c r="I177" s="60"/>
-      <c r="J177" s="60"/>
-      <c r="K177" s="60"/>
-      <c r="L177" s="60"/>
-      <c r="M177" s="60"/>
-      <c r="N177" s="60"/>
-      <c r="O177" s="60"/>
-      <c r="P177" s="60"/>
-      <c r="Q177" s="60"/>
-      <c r="R177" s="60"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
+      <c r="J177" s="45"/>
+      <c r="K177" s="45"/>
+      <c r="L177" s="45"/>
+      <c r="M177" s="45"/>
+      <c r="N177" s="45"/>
+      <c r="O177" s="45"/>
+      <c r="P177" s="45"/>
+      <c r="Q177" s="45"/>
+      <c r="R177" s="45"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="24"/>
@@ -11296,21 +11271,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="8"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
-      <c r="N181" s="60"/>
-      <c r="O181" s="60"/>
-      <c r="P181" s="60"/>
-      <c r="Q181" s="60"/>
-      <c r="R181" s="60"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="45"/>
+      <c r="J181" s="45"/>
+      <c r="K181" s="45"/>
+      <c r="L181" s="45"/>
+      <c r="M181" s="45"/>
+      <c r="N181" s="45"/>
+      <c r="O181" s="45"/>
+      <c r="P181" s="45"/>
+      <c r="Q181" s="45"/>
+      <c r="R181" s="45"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="24"/>
@@ -11375,21 +11350,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="8"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="60"/>
-      <c r="I185" s="60"/>
-      <c r="J185" s="60"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
-      <c r="M185" s="60"/>
-      <c r="N185" s="60"/>
-      <c r="O185" s="60"/>
-      <c r="P185" s="60"/>
-      <c r="Q185" s="60"/>
-      <c r="R185" s="60"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="45"/>
+      <c r="I185" s="45"/>
+      <c r="J185" s="45"/>
+      <c r="K185" s="45"/>
+      <c r="L185" s="45"/>
+      <c r="M185" s="45"/>
+      <c r="N185" s="45"/>
+      <c r="O185" s="45"/>
+      <c r="P185" s="45"/>
+      <c r="Q185" s="45"/>
+      <c r="R185" s="45"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="24"/>
@@ -11454,21 +11429,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="8"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="60"/>
-      <c r="J189" s="60"/>
-      <c r="K189" s="60"/>
-      <c r="L189" s="60"/>
-      <c r="M189" s="60"/>
-      <c r="N189" s="60"/>
-      <c r="O189" s="60"/>
-      <c r="P189" s="60"/>
-      <c r="Q189" s="60"/>
-      <c r="R189" s="60"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
+      <c r="M189" s="45"/>
+      <c r="N189" s="45"/>
+      <c r="O189" s="45"/>
+      <c r="P189" s="45"/>
+      <c r="Q189" s="45"/>
+      <c r="R189" s="45"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="24"/>
@@ -11533,21 +11508,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="8"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="60"/>
-      <c r="K193" s="60"/>
-      <c r="L193" s="60"/>
-      <c r="M193" s="60"/>
-      <c r="N193" s="60"/>
-      <c r="O193" s="60"/>
-      <c r="P193" s="60"/>
-      <c r="Q193" s="60"/>
-      <c r="R193" s="60"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="45"/>
+      <c r="J193" s="45"/>
+      <c r="K193" s="45"/>
+      <c r="L193" s="45"/>
+      <c r="M193" s="45"/>
+      <c r="N193" s="45"/>
+      <c r="O193" s="45"/>
+      <c r="P193" s="45"/>
+      <c r="Q193" s="45"/>
+      <c r="R193" s="45"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="24"/>
@@ -11612,21 +11587,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="8"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="60"/>
-      <c r="I197" s="60"/>
-      <c r="J197" s="60"/>
-      <c r="K197" s="60"/>
-      <c r="L197" s="60"/>
-      <c r="M197" s="60"/>
-      <c r="N197" s="60"/>
-      <c r="O197" s="60"/>
-      <c r="P197" s="60"/>
-      <c r="Q197" s="60"/>
-      <c r="R197" s="60"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
+      <c r="J197" s="45"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="45"/>
+      <c r="O197" s="45"/>
+      <c r="P197" s="45"/>
+      <c r="Q197" s="45"/>
+      <c r="R197" s="45"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="24"/>
@@ -11691,21 +11666,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="8"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="62"/>
-      <c r="H201" s="60"/>
-      <c r="I201" s="60"/>
-      <c r="J201" s="60"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
-      <c r="M201" s="60"/>
-      <c r="N201" s="60"/>
-      <c r="O201" s="60"/>
-      <c r="P201" s="60"/>
-      <c r="Q201" s="60"/>
-      <c r="R201" s="60"/>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="45"/>
+      <c r="I201" s="45"/>
+      <c r="J201" s="45"/>
+      <c r="K201" s="45"/>
+      <c r="L201" s="45"/>
+      <c r="M201" s="45"/>
+      <c r="N201" s="45"/>
+      <c r="O201" s="45"/>
+      <c r="P201" s="45"/>
+      <c r="Q201" s="45"/>
+      <c r="R201" s="45"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="24"/>
@@ -11770,21 +11745,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="8"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="60"/>
-      <c r="I205" s="60"/>
-      <c r="J205" s="60"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
-      <c r="M205" s="60"/>
-      <c r="N205" s="60"/>
-      <c r="O205" s="60"/>
-      <c r="P205" s="60"/>
-      <c r="Q205" s="60"/>
-      <c r="R205" s="60"/>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="45"/>
+      <c r="I205" s="45"/>
+      <c r="J205" s="45"/>
+      <c r="K205" s="45"/>
+      <c r="L205" s="45"/>
+      <c r="M205" s="45"/>
+      <c r="N205" s="45"/>
+      <c r="O205" s="45"/>
+      <c r="P205" s="45"/>
+      <c r="Q205" s="45"/>
+      <c r="R205" s="45"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="24"/>
@@ -11849,21 +11824,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="8"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="60"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="60"/>
-      <c r="Q209" s="60"/>
-      <c r="R209" s="60"/>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="45"/>
+      <c r="J209" s="45"/>
+      <c r="K209" s="45"/>
+      <c r="L209" s="45"/>
+      <c r="M209" s="45"/>
+      <c r="N209" s="45"/>
+      <c r="O209" s="45"/>
+      <c r="P209" s="45"/>
+      <c r="Q209" s="45"/>
+      <c r="R209" s="45"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="24"/>
@@ -11928,21 +11903,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="8"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="60"/>
-      <c r="I213" s="60"/>
-      <c r="J213" s="60"/>
-      <c r="K213" s="60"/>
-      <c r="L213" s="60"/>
-      <c r="M213" s="60"/>
-      <c r="N213" s="60"/>
-      <c r="O213" s="60"/>
-      <c r="P213" s="60"/>
-      <c r="Q213" s="60"/>
-      <c r="R213" s="60"/>
+      <c r="D213" s="45"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="47"/>
+      <c r="H213" s="45"/>
+      <c r="I213" s="45"/>
+      <c r="J213" s="45"/>
+      <c r="K213" s="45"/>
+      <c r="L213" s="45"/>
+      <c r="M213" s="45"/>
+      <c r="N213" s="45"/>
+      <c r="O213" s="45"/>
+      <c r="P213" s="45"/>
+      <c r="Q213" s="45"/>
+      <c r="R213" s="45"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="24"/>
@@ -12007,21 +11982,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="8"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="62"/>
-      <c r="H217" s="60"/>
-      <c r="I217" s="60"/>
-      <c r="J217" s="60"/>
-      <c r="K217" s="60"/>
-      <c r="L217" s="60"/>
-      <c r="M217" s="60"/>
-      <c r="N217" s="60"/>
-      <c r="O217" s="60"/>
-      <c r="P217" s="60"/>
-      <c r="Q217" s="60"/>
-      <c r="R217" s="60"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="47"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+      <c r="K217" s="45"/>
+      <c r="L217" s="45"/>
+      <c r="M217" s="45"/>
+      <c r="N217" s="45"/>
+      <c r="O217" s="45"/>
+      <c r="P217" s="45"/>
+      <c r="Q217" s="45"/>
+      <c r="R217" s="45"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="24"/>
@@ -12086,21 +12061,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="8"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="62"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="60"/>
-      <c r="L221" s="60"/>
-      <c r="M221" s="60"/>
-      <c r="N221" s="60"/>
-      <c r="O221" s="60"/>
-      <c r="P221" s="60"/>
-      <c r="Q221" s="60"/>
-      <c r="R221" s="60"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="45"/>
+      <c r="J221" s="45"/>
+      <c r="K221" s="45"/>
+      <c r="L221" s="45"/>
+      <c r="M221" s="45"/>
+      <c r="N221" s="45"/>
+      <c r="O221" s="45"/>
+      <c r="P221" s="45"/>
+      <c r="Q221" s="45"/>
+      <c r="R221" s="45"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="24"/>
@@ -12165,21 +12140,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="8"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="62"/>
-      <c r="H225" s="60"/>
-      <c r="I225" s="60"/>
-      <c r="J225" s="60"/>
-      <c r="K225" s="60"/>
-      <c r="L225" s="60"/>
-      <c r="M225" s="60"/>
-      <c r="N225" s="60"/>
-      <c r="O225" s="60"/>
-      <c r="P225" s="60"/>
-      <c r="Q225" s="60"/>
-      <c r="R225" s="60"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
+      <c r="J225" s="45"/>
+      <c r="K225" s="45"/>
+      <c r="L225" s="45"/>
+      <c r="M225" s="45"/>
+      <c r="N225" s="45"/>
+      <c r="O225" s="45"/>
+      <c r="P225" s="45"/>
+      <c r="Q225" s="45"/>
+      <c r="R225" s="45"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="24"/>
@@ -12244,21 +12219,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="8"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="62"/>
-      <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
-      <c r="M229" s="60"/>
-      <c r="N229" s="60"/>
-      <c r="O229" s="60"/>
-      <c r="P229" s="60"/>
-      <c r="Q229" s="60"/>
-      <c r="R229" s="60"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="47"/>
+      <c r="H229" s="45"/>
+      <c r="I229" s="45"/>
+      <c r="J229" s="45"/>
+      <c r="K229" s="45"/>
+      <c r="L229" s="45"/>
+      <c r="M229" s="45"/>
+      <c r="N229" s="45"/>
+      <c r="O229" s="45"/>
+      <c r="P229" s="45"/>
+      <c r="Q229" s="45"/>
+      <c r="R229" s="45"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="24"/>
@@ -12323,21 +12298,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="8"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="62"/>
-      <c r="H233" s="60"/>
-      <c r="I233" s="60"/>
-      <c r="J233" s="60"/>
-      <c r="K233" s="60"/>
-      <c r="L233" s="60"/>
-      <c r="M233" s="60"/>
-      <c r="N233" s="60"/>
-      <c r="O233" s="60"/>
-      <c r="P233" s="60"/>
-      <c r="Q233" s="60"/>
-      <c r="R233" s="60"/>
+      <c r="D233" s="45"/>
+      <c r="E233" s="45"/>
+      <c r="F233" s="45"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="45"/>
+      <c r="I233" s="45"/>
+      <c r="J233" s="45"/>
+      <c r="K233" s="45"/>
+      <c r="L233" s="45"/>
+      <c r="M233" s="45"/>
+      <c r="N233" s="45"/>
+      <c r="O233" s="45"/>
+      <c r="P233" s="45"/>
+      <c r="Q233" s="45"/>
+      <c r="R233" s="45"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="24"/>
@@ -12402,21 +12377,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="8"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="62"/>
-      <c r="H237" s="60"/>
-      <c r="I237" s="60"/>
-      <c r="J237" s="60"/>
-      <c r="K237" s="60"/>
-      <c r="L237" s="60"/>
-      <c r="M237" s="60"/>
-      <c r="N237" s="60"/>
-      <c r="O237" s="60"/>
-      <c r="P237" s="60"/>
-      <c r="Q237" s="60"/>
-      <c r="R237" s="60"/>
+      <c r="D237" s="45"/>
+      <c r="E237" s="45"/>
+      <c r="F237" s="45"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="45"/>
+      <c r="I237" s="45"/>
+      <c r="J237" s="45"/>
+      <c r="K237" s="45"/>
+      <c r="L237" s="45"/>
+      <c r="M237" s="45"/>
+      <c r="N237" s="45"/>
+      <c r="O237" s="45"/>
+      <c r="P237" s="45"/>
+      <c r="Q237" s="45"/>
+      <c r="R237" s="45"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="24"/>
@@ -12481,21 +12456,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="8"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="62"/>
-      <c r="H241" s="60"/>
-      <c r="I241" s="60"/>
-      <c r="J241" s="60"/>
-      <c r="K241" s="60"/>
-      <c r="L241" s="60"/>
-      <c r="M241" s="60"/>
-      <c r="N241" s="60"/>
-      <c r="O241" s="60"/>
-      <c r="P241" s="60"/>
-      <c r="Q241" s="60"/>
-      <c r="R241" s="60"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="47"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+      <c r="K241" s="45"/>
+      <c r="L241" s="45"/>
+      <c r="M241" s="45"/>
+      <c r="N241" s="45"/>
+      <c r="O241" s="45"/>
+      <c r="P241" s="45"/>
+      <c r="Q241" s="45"/>
+      <c r="R241" s="45"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="24"/>
@@ -12855,7 +12830,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="T3" s="18"/>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -12903,7 +12878,7 @@
       </c>
       <c r="R4" s="20"/>
       <c r="S4" s="21"/>
-      <c r="V4" s="52"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="22">
@@ -12955,7 +12930,7 @@
         <v>38</v>
       </c>
       <c r="S5" s="23"/>
-      <c r="V5" s="52"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="28" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="24"/>
@@ -13002,7 +12977,7 @@
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="27"/>
-      <c r="V6" s="52"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="29"/>
@@ -13023,7 +12998,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="31"/>
-      <c r="V7" s="52"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="19"/>
@@ -13067,7 +13042,7 @@
         <v>571</v>
       </c>
       <c r="S8" s="21"/>
-      <c r="V8" s="52"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="22">
@@ -13121,7 +13096,7 @@
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="18"/>
-      <c r="V9" s="52"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="24"/>
@@ -13165,7 +13140,7 @@
         <v>572</v>
       </c>
       <c r="S10" s="33"/>
-      <c r="V10" s="52"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="34"/>
@@ -13185,7 +13160,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="V11" s="52"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="19"/>
@@ -13231,7 +13206,7 @@
         <v>597</v>
       </c>
       <c r="S12" s="21"/>
-      <c r="V12" s="52"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="22">
@@ -13284,7 +13259,7 @@
         <v>116</v>
       </c>
       <c r="S13" s="23"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="24"/>
@@ -13330,7 +13305,7 @@
         <v>598</v>
       </c>
       <c r="S14" s="33"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="14"/>
@@ -13350,7 +13325,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="V15" s="52"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="19"/>
@@ -13396,7 +13371,7 @@
       </c>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
-      <c r="V16" s="52"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="22">
@@ -13449,7 +13424,7 @@
         <v>38</v>
       </c>
       <c r="S17" s="23"/>
-      <c r="V17" s="52"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="24"/>
@@ -13495,7 +13470,7 @@
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="33"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="14"/>
@@ -13515,7 +13490,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="V19" s="52"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="19"/>
@@ -13535,7 +13510,7 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="8" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="22">
@@ -13562,7 +13537,7 @@
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="23"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="24"/>
@@ -13582,7 +13557,7 @@
       <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
       <c r="S22" s="33"/>
-      <c r="V22" s="53"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="14"/>
@@ -20313,7 +20288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>

--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3EB13B-7195-4EAB-97BD-B6048464BA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C4A73-D826-4C39-90C0-538F78F77792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-75" windowWidth="22230" windowHeight="15585" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="4260" yWindow="3345" windowWidth="16410" windowHeight="11685" firstSheet="1" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="缺字表" sheetId="291" r:id="rId2"/>
     <sheet name="標音字庫" sheetId="290" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="296" r:id="rId4"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
-    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId6"/>
-    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId7"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId9"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId10"/>
+    <sheet name="標音字庫 (bak)" sheetId="297" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="296" r:id="rId5"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
+    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId7"/>
+    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId8"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId9"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId10"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -43,7 +44,7 @@
     <definedName name="語音類型">env!$C$13</definedName>
     <definedName name="標音方式">env!$C$17</definedName>
     <definedName name="標音方法">env!$C$15</definedName>
-    <definedName name="覩9" localSheetId="5">'漢字注音 (2)'!$A$5</definedName>
+    <definedName name="覩9" localSheetId="6">'漢字注音 (2)'!$A$5</definedName>
     <definedName name="覩9">漢字注音!$A$5</definedName>
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="2015">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7521,7 +7522,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7736,9 +7737,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10095,6 +10093,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -14189,7 +14356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A7FC5-0F99-4295-A15E-5A13462F2B07}">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -17798,6 +17967,3620 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C3B649-9E9F-4278-BF3C-61E43D12A316}">
+  <dimension ref="A1:D257"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" t="s">
+        <v>499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>499</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
+      <c r="D56" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>347</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D62" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D63" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>354</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
+        <v>384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
+      <c r="D79" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>366</v>
+      </c>
+      <c r="C88" t="s">
+        <v>499</v>
+      </c>
+      <c r="D88" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" t="s">
+        <v>499</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>370</v>
+      </c>
+      <c r="C94" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C98" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>361</v>
+      </c>
+      <c r="C99" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" t="s">
+        <v>499</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" t="s">
+        <v>499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>376</v>
+      </c>
+      <c r="C102" t="s">
+        <v>499</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>377</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" t="s">
+        <v>378</v>
+      </c>
+      <c r="C104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" t="s">
+        <v>499</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" t="s">
+        <v>380</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C109" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" t="s">
+        <v>499</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>486</v>
+      </c>
+      <c r="C111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" t="s">
+        <v>499</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" t="s">
+        <v>385</v>
+      </c>
+      <c r="C114" t="s">
+        <v>499</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C115" t="s">
+        <v>499</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C116" t="s">
+        <v>499</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>387</v>
+      </c>
+      <c r="C117" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C118" t="s">
+        <v>499</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" t="s">
+        <v>389</v>
+      </c>
+      <c r="C119" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" t="s">
+        <v>392</v>
+      </c>
+      <c r="C123" t="s">
+        <v>499</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" t="s">
+        <v>393</v>
+      </c>
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" t="s">
+        <v>499</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>395</v>
+      </c>
+      <c r="C126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" t="s">
+        <v>396</v>
+      </c>
+      <c r="C128" t="s">
+        <v>499</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" t="s">
+        <v>397</v>
+      </c>
+      <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C133" t="s">
+        <v>499</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C134" t="s">
+        <v>499</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" t="s">
+        <v>488</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" t="s">
+        <v>402</v>
+      </c>
+      <c r="C138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C139" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" t="s">
+        <v>404</v>
+      </c>
+      <c r="C140" t="s">
+        <v>499</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" t="s">
+        <v>405</v>
+      </c>
+      <c r="C141" t="s">
+        <v>499</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" t="s">
+        <v>499</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" t="s">
+        <v>406</v>
+      </c>
+      <c r="C143" t="s">
+        <v>499</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144" t="s">
+        <v>499</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" t="s">
+        <v>499</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" t="s">
+        <v>499</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>199</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C150" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" t="s">
+        <v>413</v>
+      </c>
+      <c r="C151" t="s">
+        <v>499</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" t="s">
+        <v>414</v>
+      </c>
+      <c r="C152" t="s">
+        <v>499</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C153" t="s">
+        <v>499</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" t="s">
+        <v>499</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" t="s">
+        <v>490</v>
+      </c>
+      <c r="C155" t="s">
+        <v>499</v>
+      </c>
+      <c r="D155" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>205</v>
+      </c>
+      <c r="B156" t="s">
+        <v>417</v>
+      </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>206</v>
+      </c>
+      <c r="B157" t="s">
+        <v>418</v>
+      </c>
+      <c r="C157" t="s">
+        <v>499</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>207</v>
+      </c>
+      <c r="B158" t="s">
+        <v>419</v>
+      </c>
+      <c r="C158" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C159" t="s">
+        <v>499</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>209</v>
+      </c>
+      <c r="B160" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161" t="s">
+        <v>499</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" t="s">
+        <v>421</v>
+      </c>
+      <c r="C162" t="s">
+        <v>499</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>212</v>
+      </c>
+      <c r="B164" t="s">
+        <v>422</v>
+      </c>
+      <c r="C164" t="s">
+        <v>499</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>213</v>
+      </c>
+      <c r="B166" t="s">
+        <v>423</v>
+      </c>
+      <c r="C166" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>214</v>
+      </c>
+      <c r="B167" t="s">
+        <v>424</v>
+      </c>
+      <c r="C167" t="s">
+        <v>499</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>215</v>
+      </c>
+      <c r="B168" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>216</v>
+      </c>
+      <c r="B169" t="s">
+        <v>426</v>
+      </c>
+      <c r="C169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C170" t="s">
+        <v>499</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" t="s">
+        <v>428</v>
+      </c>
+      <c r="C171" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" t="s">
+        <v>429</v>
+      </c>
+      <c r="C172" t="s">
+        <v>499</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" t="s">
+        <v>430</v>
+      </c>
+      <c r="C173" t="s">
+        <v>499</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>221</v>
+      </c>
+      <c r="B174" t="s">
+        <v>431</v>
+      </c>
+      <c r="C174" t="s">
+        <v>499</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" t="s">
+        <v>432</v>
+      </c>
+      <c r="C175" t="s">
+        <v>499</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>223</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C176" t="s">
+        <v>499</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" t="s">
+        <v>465</v>
+      </c>
+      <c r="C177" t="s">
+        <v>499</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>225</v>
+      </c>
+      <c r="B178" t="s">
+        <v>435</v>
+      </c>
+      <c r="C178" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C179" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>227</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C180" t="s">
+        <v>499</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" t="s">
+        <v>437</v>
+      </c>
+      <c r="C181" t="s">
+        <v>499</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>229</v>
+      </c>
+      <c r="B182" t="s">
+        <v>438</v>
+      </c>
+      <c r="C182" t="s">
+        <v>499</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>230</v>
+      </c>
+      <c r="B183" t="s">
+        <v>439</v>
+      </c>
+      <c r="C183" t="s">
+        <v>499</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>231</v>
+      </c>
+      <c r="B184" t="s">
+        <v>440</v>
+      </c>
+      <c r="C184" t="s">
+        <v>499</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>232</v>
+      </c>
+      <c r="B185" t="s">
+        <v>492</v>
+      </c>
+      <c r="C185" t="s">
+        <v>499</v>
+      </c>
+      <c r="D185" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>233</v>
+      </c>
+      <c r="B186" t="s">
+        <v>425</v>
+      </c>
+      <c r="C186" t="s">
+        <v>499</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="B187" t="s">
+        <v>494</v>
+      </c>
+      <c r="C187" t="s">
+        <v>499</v>
+      </c>
+      <c r="D187" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C188" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" t="s">
+        <v>442</v>
+      </c>
+      <c r="C189" t="s">
+        <v>499</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
+        <v>443</v>
+      </c>
+      <c r="C190" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" t="s">
+        <v>352</v>
+      </c>
+      <c r="C191" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>239</v>
+      </c>
+      <c r="B192" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" t="s">
+        <v>499</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>240</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C193" t="s">
+        <v>499</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C194" t="s">
+        <v>499</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>242</v>
+      </c>
+      <c r="B195" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" t="s">
+        <v>499</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>243</v>
+      </c>
+      <c r="B196" t="s">
+        <v>446</v>
+      </c>
+      <c r="C196" t="s">
+        <v>499</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>244</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C197" t="s">
+        <v>499</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>244</v>
+      </c>
+      <c r="B198" t="s">
+        <v>438</v>
+      </c>
+      <c r="C198" t="s">
+        <v>499</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C199" t="s">
+        <v>499</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>246</v>
+      </c>
+      <c r="B200" t="s">
+        <v>430</v>
+      </c>
+      <c r="C200" t="s">
+        <v>499</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" t="s">
+        <v>448</v>
+      </c>
+      <c r="C201" t="s">
+        <v>499</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>249</v>
+      </c>
+      <c r="B203" t="s">
+        <v>57</v>
+      </c>
+      <c r="C203" t="s">
+        <v>499</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C204" t="s">
+        <v>499</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>251</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C205" t="s">
+        <v>499</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C206" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>252</v>
+      </c>
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>253</v>
+      </c>
+      <c r="B208" t="s">
+        <v>452</v>
+      </c>
+      <c r="C208" t="s">
+        <v>499</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>254</v>
+      </c>
+      <c r="B209" t="s">
+        <v>453</v>
+      </c>
+      <c r="C209" t="s">
+        <v>499</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>255</v>
+      </c>
+      <c r="B210" t="s">
+        <v>454</v>
+      </c>
+      <c r="C210" t="s">
+        <v>499</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>256</v>
+      </c>
+      <c r="B211" t="s">
+        <v>455</v>
+      </c>
+      <c r="C211" t="s">
+        <v>499</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>257</v>
+      </c>
+      <c r="B212" t="s">
+        <v>456</v>
+      </c>
+      <c r="C212" t="s">
+        <v>499</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>258</v>
+      </c>
+      <c r="B213" t="s">
+        <v>383</v>
+      </c>
+      <c r="C213" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>259</v>
+      </c>
+      <c r="B214" t="s">
+        <v>457</v>
+      </c>
+      <c r="C214" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>260</v>
+      </c>
+      <c r="B215" t="s">
+        <v>458</v>
+      </c>
+      <c r="C215" t="s">
+        <v>499</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>261</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C216" t="s">
+        <v>499</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" t="s">
+        <v>460</v>
+      </c>
+      <c r="C217" t="s">
+        <v>499</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" t="s">
+        <v>461</v>
+      </c>
+      <c r="C218" t="s">
+        <v>499</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" t="s">
+        <v>462</v>
+      </c>
+      <c r="C219" t="s">
+        <v>499</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C220" t="s">
+        <v>499</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>266</v>
+      </c>
+      <c r="B221" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221" t="s">
+        <v>499</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222" t="s">
+        <v>465</v>
+      </c>
+      <c r="C222" t="s">
+        <v>499</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" t="s">
+        <v>466</v>
+      </c>
+      <c r="C223" t="s">
+        <v>499</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224" t="s">
+        <v>467</v>
+      </c>
+      <c r="C224" t="s">
+        <v>499</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>271</v>
+      </c>
+      <c r="B225" t="s">
+        <v>63</v>
+      </c>
+      <c r="C225" t="s">
+        <v>499</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>272</v>
+      </c>
+      <c r="B226" t="s">
+        <v>468</v>
+      </c>
+      <c r="C226" t="s">
+        <v>499</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>273</v>
+      </c>
+      <c r="B227" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" t="s">
+        <v>499</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228" t="s">
+        <v>469</v>
+      </c>
+      <c r="C228" t="s">
+        <v>499</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>275</v>
+      </c>
+      <c r="B229" t="s">
+        <v>470</v>
+      </c>
+      <c r="C229" t="s">
+        <v>499</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230" t="s">
+        <v>418</v>
+      </c>
+      <c r="C230" t="s">
+        <v>499</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>277</v>
+      </c>
+      <c r="B231" t="s">
+        <v>471</v>
+      </c>
+      <c r="C231" t="s">
+        <v>499</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232" t="s">
+        <v>499</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>25</v>
+      </c>
+      <c r="B233" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" t="s">
+        <v>499</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>279</v>
+      </c>
+      <c r="B234" t="s">
+        <v>55</v>
+      </c>
+      <c r="C234" t="s">
+        <v>499</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>280</v>
+      </c>
+      <c r="B235" t="s">
+        <v>362</v>
+      </c>
+      <c r="C235" t="s">
+        <v>499</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>281</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" t="s">
+        <v>499</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>33</v>
+      </c>
+      <c r="B237" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237" t="s">
+        <v>499</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>282</v>
+      </c>
+      <c r="B238" t="s">
+        <v>474</v>
+      </c>
+      <c r="C238" t="s">
+        <v>499</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>283</v>
+      </c>
+      <c r="B239" t="s">
+        <v>364</v>
+      </c>
+      <c r="C239" t="s">
+        <v>499</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" t="s">
+        <v>476</v>
+      </c>
+      <c r="C240" t="s">
+        <v>499</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>285</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241" t="s">
+        <v>499</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>286</v>
+      </c>
+      <c r="B242" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" t="s">
+        <v>499</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>287</v>
+      </c>
+      <c r="B243" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" t="s">
+        <v>499</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>288</v>
+      </c>
+      <c r="B244" t="s">
+        <v>311</v>
+      </c>
+      <c r="C244" t="s">
+        <v>499</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>291</v>
+      </c>
+      <c r="B245" t="s">
+        <v>480</v>
+      </c>
+      <c r="C245" t="s">
+        <v>499</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>292</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C246" t="s">
+        <v>499</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>294</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C247" t="s">
+        <v>499</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>295</v>
+      </c>
+      <c r="B248" t="s">
+        <v>496</v>
+      </c>
+      <c r="C248" t="s">
+        <v>499</v>
+      </c>
+      <c r="D248" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>296</v>
+      </c>
+      <c r="B249" t="s">
+        <v>481</v>
+      </c>
+      <c r="C249" t="s">
+        <v>499</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>297</v>
+      </c>
+      <c r="B250" t="s">
+        <v>482</v>
+      </c>
+      <c r="C250" t="s">
+        <v>499</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>298</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C251" t="s">
+        <v>499</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C252" t="s">
+        <v>499</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>299</v>
+      </c>
+      <c r="B253" t="s">
+        <v>483</v>
+      </c>
+      <c r="C253" t="s">
+        <v>499</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C254" t="s">
+        <v>499</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C255" t="s">
+        <v>499</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C256" t="s">
+        <v>499</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C257" t="s">
+        <v>499</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58792CDC-F573-4A5C-9A8A-E773C59FE56F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -18261,12 +22044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -18583,10 +22366,10 @@
       <c r="E9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="64" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="64" t="s">
@@ -19083,10 +22866,10 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="64" t="s">
         <v>100</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -20071,7 +23854,7 @@
       <c r="Q45" s="64" t="s">
         <v>1511</v>
       </c>
-      <c r="R45" s="71" t="s">
+      <c r="R45" s="64" t="s">
         <v>1429</v>
       </c>
       <c r="S45" s="21"/>
@@ -20887,7 +24670,7 @@
       <c r="G69" s="64" t="s">
         <v>1533</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="H69" s="64" t="s">
         <v>1436</v>
       </c>
       <c r="I69" s="64" t="s">
@@ -21070,7 +24853,7 @@
       <c r="M73" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="N73" s="71" t="s">
+      <c r="N73" s="64" t="s">
         <v>1402</v>
       </c>
       <c r="O73" s="64" t="s">
@@ -21235,7 +25018,7 @@
       <c r="M77" s="64" t="s">
         <v>1553</v>
       </c>
-      <c r="N77" s="71" t="s">
+      <c r="N77" s="64" t="s">
         <v>1424</v>
       </c>
       <c r="O77" s="64" t="s">
@@ -21605,7 +25388,7 @@
       <c r="L89" s="64" t="s">
         <v>1558</v>
       </c>
-      <c r="M89" s="71" t="s">
+      <c r="M89" s="64" t="s">
         <v>1436</v>
       </c>
       <c r="N89" s="64" t="s">
@@ -21617,7 +25400,7 @@
       <c r="P89" s="64" t="s">
         <v>1481</v>
       </c>
-      <c r="Q89" s="71" t="s">
+      <c r="Q89" s="64" t="s">
         <v>1560</v>
       </c>
       <c r="R89" s="64" t="s">
@@ -21954,7 +25737,7 @@
       <c r="Q97" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="R97" s="71" t="s">
+      <c r="R97" s="64" t="s">
         <v>1405</v>
       </c>
       <c r="S97" s="21"/>
@@ -22244,7 +26027,7 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="64" t="s">
         <v>1582</v>
       </c>
       <c r="E105" s="64" t="s">
@@ -22409,13 +26192,13 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="71" t="s">
+      <c r="D109" s="64" t="s">
         <v>1460</v>
       </c>
       <c r="E109" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="64" t="s">
         <v>1402</v>
       </c>
       <c r="G109" s="64" t="s">
@@ -22844,7 +26627,7 @@
       <c r="K121" s="64" t="s">
         <v>1603</v>
       </c>
-      <c r="L121" s="71" t="s">
+      <c r="L121" s="64" t="s">
         <v>1429</v>
       </c>
       <c r="M121" s="64" t="s">
@@ -23008,7 +26791,7 @@
       <c r="J125" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="K125" s="71" t="s">
+      <c r="K125" s="64" t="s">
         <v>1436</v>
       </c>
       <c r="L125" s="64" t="s">
@@ -23023,7 +26806,7 @@
       <c r="O125" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P125" s="71" t="s">
+      <c r="P125" s="64" t="s">
         <v>1436</v>
       </c>
       <c r="Q125" s="64" t="s">
@@ -23648,7 +27431,7 @@
       <c r="F141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="G141" s="71" t="s">
+      <c r="G141" s="64" t="s">
         <v>1560</v>
       </c>
       <c r="H141" s="64" t="s">
@@ -23672,13 +27455,13 @@
       <c r="N141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="O141" s="71" t="s">
+      <c r="O141" s="64" t="s">
         <v>1560</v>
       </c>
       <c r="P141" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="Q141" s="71" t="s">
+      <c r="Q141" s="64" t="s">
         <v>1427</v>
       </c>
       <c r="R141" s="64" t="s">
@@ -23808,13 +27591,13 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="64" t="s">
         <v>1427</v>
       </c>
       <c r="E145" s="64" t="s">
         <v>1446</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="64" t="s">
         <v>1618</v>
       </c>
       <c r="G145" s="64" t="s">
@@ -23829,10 +27612,10 @@
       <c r="J145" s="64" t="s">
         <v>1620</v>
       </c>
-      <c r="K145" s="71" t="s">
+      <c r="K145" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="L145" s="71" t="s">
+      <c r="L145" s="64" t="s">
         <v>1429</v>
       </c>
       <c r="M145" s="64" t="s">
@@ -23844,7 +27627,7 @@
       <c r="O145" s="64" t="s">
         <v>1622</v>
       </c>
-      <c r="P145" s="71" t="s">
+      <c r="P145" s="64" t="s">
         <v>1430</v>
       </c>
       <c r="Q145" s="64" t="s">
@@ -24142,10 +27925,10 @@
       <c r="F157" s="64" t="s">
         <v>1391</v>
       </c>
-      <c r="G157" s="71" t="s">
+      <c r="G157" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="H157" s="71" t="s">
+      <c r="H157" s="64" t="s">
         <v>1520</v>
       </c>
       <c r="I157" s="64" t="s">
@@ -30624,7 +34407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B312FE-EC53-4DD9-A04B-BC6FC3AE5E1F}">
   <dimension ref="A1:V482"/>
   <sheetViews>
@@ -41545,7 +45328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599EB3AF-39AD-443E-BF4E-41B1F014306B}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -42360,7 +46143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -49949,173 +53732,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《岳陽樓記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F94869-1A9D-4C46-90AB-9DE0D5CC23A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095BC00-0A85-49AD-A508-D4CBECBE14F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="41445" yWindow="2535" windowWidth="22740" windowHeight="11580" tabRatio="718" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="2046">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7152,6 +7152,22 @@
   </si>
   <si>
     <t>(137, 12)</t>
+  </si>
+  <si>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7630,7 +7646,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7845,12 +7861,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -14442,22 +14452,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA054869-4895-4708-9148-139AA7C50681}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0"/>
+    <sheetView topLeftCell="A229" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2042</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2043</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2044</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17920,16 +17930,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2042</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2043</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2044</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -18530,22 +18540,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C538E6-D8FF-4A10-B943-F9124AF545AB}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2042</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2043</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2044</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2045</v>
       </c>
     </row>
   </sheetData>
@@ -18731,38 +18741,38 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="64" t="s">
         <v>1701</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="64" t="s">
         <v>1702</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J5" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="21"/>
       <c r="V5" s="67"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
@@ -18870,52 +18880,52 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="71" t="s">
+      <c r="P9" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="71" t="s">
+      <c r="Q9" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="71" t="s">
+      <c r="R9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="72"/>
+      <c r="S9" s="21"/>
       <c r="T9" s="16"/>
       <c r="V9" s="67"/>
     </row>
@@ -19034,52 +19044,52 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="N13" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="71" t="s">
+      <c r="Q13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S13" s="72"/>
+      <c r="S13" s="21"/>
       <c r="V13" s="67"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19205,52 +19215,52 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="71" t="s">
+      <c r="Q17" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="S17" s="72"/>
+      <c r="S17" s="21"/>
       <c r="V17" s="67"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19376,52 +19386,52 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="P21" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="71" t="s">
+      <c r="Q21" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="72"/>
+      <c r="S21" s="21"/>
       <c r="V21" s="67"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19515,7 +19525,7 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="71" t="str">
+      <c r="D25" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -19636,52 +19646,52 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="64" t="s">
         <v>1482</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="64" t="s">
         <v>1474</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="64" t="s">
         <v>1475</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="64" t="s">
         <v>1483</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="64" t="s">
         <v>1484</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="64" t="s">
         <v>1393</v>
       </c>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="64" t="s">
         <v>1485</v>
       </c>
-      <c r="N29" s="71" t="s">
+      <c r="N29" s="64" t="s">
         <v>1486</v>
       </c>
-      <c r="O29" s="71" t="s">
+      <c r="O29" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="P29" s="71" t="s">
+      <c r="P29" s="64" t="s">
         <v>1487</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="Q29" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="R29" s="64" t="s">
         <v>1155</v>
       </c>
-      <c r="S29" s="72"/>
+      <c r="S29" s="21"/>
       <c r="U29" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -19821,52 +19831,52 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="64" t="s">
         <v>1488</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="64" t="s">
         <v>1399</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="64" t="s">
         <v>1489</v>
       </c>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="64" t="s">
         <v>1405</v>
       </c>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="64" t="s">
         <v>1490</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K33" s="71" t="s">
+      <c r="K33" s="64" t="s">
         <v>1491</v>
       </c>
-      <c r="L33" s="71" t="s">
+      <c r="L33" s="64" t="s">
         <v>1491</v>
       </c>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="64" t="s">
         <v>1492</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N33" s="64" t="s">
         <v>1492</v>
       </c>
-      <c r="O33" s="71" t="s">
+      <c r="O33" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="64" t="s">
         <v>1493</v>
       </c>
-      <c r="Q33" s="71" t="s">
+      <c r="Q33" s="64" t="s">
         <v>1413</v>
       </c>
-      <c r="R33" s="71" t="s">
+      <c r="R33" s="64" t="s">
         <v>1494</v>
       </c>
-      <c r="S33" s="72"/>
+      <c r="S33" s="21"/>
       <c r="V33" s="67"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -19984,52 +19994,52 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="64" t="s">
         <v>1495</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="64" t="s">
         <v>1496</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="64" t="s">
         <v>1497</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="64" t="s">
         <v>1498</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="64" t="s">
         <v>1400</v>
       </c>
-      <c r="J37" s="71" t="s">
+      <c r="J37" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K37" s="71" t="s">
+      <c r="K37" s="64" t="s">
         <v>1420</v>
       </c>
-      <c r="L37" s="71" t="s">
+      <c r="L37" s="64" t="s">
         <v>1499</v>
       </c>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="64" t="s">
         <v>1500</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P37" s="71" t="s">
+      <c r="P37" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="Q37" s="71" t="s">
+      <c r="Q37" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="R37" s="71" t="s">
+      <c r="R37" s="64" t="s">
         <v>1478</v>
       </c>
-      <c r="S37" s="72"/>
+      <c r="S37" s="21"/>
       <c r="V37" s="67"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20151,52 +20161,52 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="64" t="s">
         <v>1479</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="64" t="s">
         <v>1423</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="64" t="s">
         <v>1422</v>
       </c>
-      <c r="I41" s="71" t="s">
+      <c r="I41" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K41" s="71" t="s">
+      <c r="K41" s="64" t="s">
         <v>1502</v>
       </c>
-      <c r="L41" s="71" t="s">
+      <c r="L41" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M41" s="71" t="s">
+      <c r="M41" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="N41" s="71" t="s">
+      <c r="N41" s="64" t="s">
         <v>1457</v>
       </c>
-      <c r="O41" s="71" t="s">
+      <c r="O41" s="64" t="s">
         <v>1503</v>
       </c>
-      <c r="P41" s="71" t="s">
+      <c r="P41" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="Q41" s="71" t="s">
+      <c r="Q41" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R41" s="71" t="s">
+      <c r="R41" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="S41" s="72"/>
+      <c r="S41" s="21"/>
       <c r="V41" s="67"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20322,52 +20332,52 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="64" t="s">
         <v>1504</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="64" t="s">
         <v>1477</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="64" t="s">
         <v>1505</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="64" t="s">
         <v>1506</v>
       </c>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J45" s="71" t="s">
+      <c r="J45" s="64" t="s">
         <v>1507</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="L45" s="71" t="s">
+      <c r="L45" s="64" t="s">
         <v>1508</v>
       </c>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="64" t="s">
         <v>1509</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O45" s="71" t="s">
+      <c r="O45" s="64" t="s">
         <v>1440</v>
       </c>
-      <c r="P45" s="71" t="s">
+      <c r="P45" s="64" t="s">
         <v>1510</v>
       </c>
-      <c r="Q45" s="71" t="s">
+      <c r="Q45" s="64" t="s">
         <v>1511</v>
       </c>
-      <c r="R45" s="71" t="s">
+      <c r="R45" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="S45" s="72"/>
+      <c r="S45" s="21"/>
       <c r="V45" s="67"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20489,52 +20499,52 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="64" t="s">
         <v>1512</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="64" t="s">
         <v>1397</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="64" t="s">
         <v>1398</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="H49" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="64" t="s">
         <v>1449</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="64" t="s">
         <v>1513</v>
       </c>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="64" t="s">
         <v>1416</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O49" s="71" t="s">
+      <c r="O49" s="64" t="s">
         <v>1437</v>
       </c>
-      <c r="P49" s="71" t="s">
+      <c r="P49" s="64" t="s">
         <v>1413</v>
       </c>
-      <c r="Q49" s="71" t="s">
+      <c r="Q49" s="64" t="s">
         <v>1458</v>
       </c>
-      <c r="R49" s="71" t="s">
+      <c r="R49" s="64" t="s">
         <v>1514</v>
       </c>
-      <c r="S49" s="72"/>
+      <c r="S49" s="21"/>
       <c r="V49" s="67"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20626,10 +20636,10 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="E53" s="71" t="str">
+      <c r="E53" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -20715,7 +20725,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="71" t="str">
+      <c r="D57" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -20834,52 +20844,52 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="64" t="s">
         <v>1450</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="F61" s="71" t="s">
+      <c r="F61" s="64" t="s">
         <v>1516</v>
       </c>
-      <c r="G61" s="71" t="s">
+      <c r="G61" s="64" t="s">
         <v>1517</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="64" t="s">
         <v>1518</v>
       </c>
-      <c r="I61" s="71" t="s">
+      <c r="I61" s="64" t="s">
         <v>1518</v>
       </c>
-      <c r="J61" s="71" t="s">
+      <c r="J61" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K61" s="71" t="s">
+      <c r="K61" s="64" t="s">
         <v>1519</v>
       </c>
-      <c r="L61" s="71" t="s">
+      <c r="L61" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="N61" s="71" t="s">
+      <c r="N61" s="64" t="s">
         <v>1521</v>
       </c>
-      <c r="O61" s="71" t="s">
+      <c r="O61" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P61" s="71" t="s">
+      <c r="P61" s="64" t="s">
         <v>1400</v>
       </c>
-      <c r="Q61" s="71" t="s">
+      <c r="Q61" s="64" t="s">
         <v>1421</v>
       </c>
-      <c r="R61" s="71" t="s">
+      <c r="R61" s="64" t="s">
         <v>1522</v>
       </c>
-      <c r="S61" s="72"/>
+      <c r="S61" s="21"/>
       <c r="V61" s="67"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20999,52 +21009,52 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="64" t="s">
         <v>1523</v>
       </c>
-      <c r="E65" s="71" t="s">
+      <c r="E65" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="64" t="s">
         <v>1524</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="64" t="s">
         <v>1432</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="64" t="s">
         <v>1525</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="64" t="s">
         <v>1526</v>
       </c>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="K65" s="71" t="s">
+      <c r="K65" s="64" t="s">
         <v>1418</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="64" t="s">
         <v>1527</v>
       </c>
-      <c r="M65" s="71" t="s">
+      <c r="M65" s="64" t="s">
         <v>1528</v>
       </c>
-      <c r="N65" s="71" t="s">
+      <c r="N65" s="64" t="s">
         <v>1529</v>
       </c>
-      <c r="O65" s="71" t="s">
+      <c r="O65" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P65" s="71" t="s">
+      <c r="P65" s="64" t="s">
         <v>1399</v>
       </c>
-      <c r="Q65" s="71" t="s">
+      <c r="Q65" s="64" t="s">
         <v>1530</v>
       </c>
-      <c r="R65" s="71" t="s">
+      <c r="R65" s="64" t="s">
         <v>1531</v>
       </c>
-      <c r="S65" s="72"/>
+      <c r="S65" s="21"/>
       <c r="V65" s="67"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21168,52 +21178,52 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="64" t="s">
         <v>1433</v>
       </c>
-      <c r="E69" s="71" t="s">
+      <c r="E69" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="64" t="s">
         <v>1532</v>
       </c>
-      <c r="G69" s="71" t="s">
+      <c r="G69" s="64" t="s">
         <v>1533</v>
       </c>
-      <c r="H69" s="71" t="s">
+      <c r="H69" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="I69" s="71" t="s">
+      <c r="I69" s="64" t="s">
         <v>1534</v>
       </c>
-      <c r="J69" s="71" t="s">
+      <c r="J69" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K69" s="71" t="s">
+      <c r="K69" s="64" t="s">
         <v>1535</v>
       </c>
-      <c r="L69" s="71" t="s">
+      <c r="L69" s="64" t="s">
         <v>1536</v>
       </c>
-      <c r="M69" s="71" t="s">
+      <c r="M69" s="64" t="s">
         <v>1537</v>
       </c>
-      <c r="N69" s="71" t="s">
+      <c r="N69" s="64" t="s">
         <v>1538</v>
       </c>
-      <c r="O69" s="71" t="s">
+      <c r="O69" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="P69" s="71" t="s">
+      <c r="P69" s="64" t="s">
         <v>1539</v>
       </c>
-      <c r="Q69" s="71" t="s">
+      <c r="Q69" s="64" t="s">
         <v>1394</v>
       </c>
-      <c r="R69" s="71" t="s">
+      <c r="R69" s="64" t="s">
         <v>1540</v>
       </c>
-      <c r="S69" s="72"/>
+      <c r="S69" s="21"/>
       <c r="V69" s="67"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21333,52 +21343,52 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="64" t="s">
         <v>1540</v>
       </c>
-      <c r="E73" s="71" t="s">
+      <c r="E73" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="64" t="s">
         <v>1541</v>
       </c>
-      <c r="G73" s="71" t="s">
+      <c r="G73" s="64" t="s">
         <v>1542</v>
       </c>
-      <c r="H73" s="71" t="s">
+      <c r="H73" s="64" t="s">
         <v>1543</v>
       </c>
-      <c r="I73" s="71" t="s">
+      <c r="I73" s="64" t="s">
         <v>1544</v>
       </c>
-      <c r="J73" s="71" t="s">
+      <c r="J73" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="K73" s="71" t="s">
+      <c r="K73" s="64" t="s">
         <v>1545</v>
       </c>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="M73" s="71" t="s">
+      <c r="M73" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="N73" s="71" t="s">
+      <c r="N73" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="O73" s="71" t="s">
+      <c r="O73" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P73" s="71" t="s">
+      <c r="P73" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="Q73" s="71" t="s">
+      <c r="Q73" s="64" t="s">
         <v>1408</v>
       </c>
-      <c r="R73" s="71" t="s">
+      <c r="R73" s="64" t="s">
         <v>1546</v>
       </c>
-      <c r="S73" s="72"/>
+      <c r="S73" s="21"/>
       <c r="V73" s="67"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21498,52 +21508,52 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="64" t="s">
         <v>1547</v>
       </c>
-      <c r="E77" s="71" t="s">
+      <c r="E77" s="64" t="s">
         <v>1425</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="64" t="s">
         <v>1548</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="I77" s="71" t="s">
+      <c r="I77" s="64" t="s">
         <v>1550</v>
       </c>
-      <c r="J77" s="71" t="s">
+      <c r="J77" s="64" t="s">
         <v>1551</v>
       </c>
-      <c r="K77" s="71" t="s">
+      <c r="K77" s="64" t="s">
         <v>1552</v>
       </c>
-      <c r="L77" s="71" t="s">
+      <c r="L77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M77" s="71" t="s">
+      <c r="M77" s="64" t="s">
         <v>1553</v>
       </c>
-      <c r="N77" s="71" t="s">
+      <c r="N77" s="64" t="s">
         <v>1424</v>
       </c>
-      <c r="O77" s="71" t="s">
+      <c r="O77" s="64" t="s">
         <v>1554</v>
       </c>
-      <c r="P77" s="71" t="s">
+      <c r="P77" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="Q77" s="71" t="s">
+      <c r="Q77" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R77" s="71" t="s">
+      <c r="R77" s="64" t="s">
         <v>1441</v>
       </c>
-      <c r="S77" s="72"/>
+      <c r="S77" s="21"/>
       <c r="V77" s="67"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -21645,25 +21655,25 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="64" t="s">
         <v>1455</v>
       </c>
-      <c r="G81" s="71" t="s">
+      <c r="G81" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="I81" s="71" t="s">
+      <c r="I81" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="J81" s="71" t="str">
+      <c r="J81" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21754,7 +21764,7 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="71" t="str">
+      <c r="D85" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -21871,52 +21881,52 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="64" t="s">
         <v>1404</v>
       </c>
-      <c r="E89" s="71" t="s">
+      <c r="E89" s="64" t="s">
         <v>1450</v>
       </c>
-      <c r="F89" s="71" t="s">
+      <c r="F89" s="64" t="s">
         <v>1395</v>
       </c>
-      <c r="G89" s="71" t="s">
+      <c r="G89" s="64" t="s">
         <v>1389</v>
       </c>
-      <c r="H89" s="71" t="s">
+      <c r="H89" s="64" t="s">
         <v>1556</v>
       </c>
-      <c r="I89" s="71" t="s">
+      <c r="I89" s="64" t="s">
         <v>1476</v>
       </c>
-      <c r="J89" s="71" t="s">
+      <c r="J89" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K89" s="71" t="s">
+      <c r="K89" s="64" t="s">
         <v>1557</v>
       </c>
-      <c r="L89" s="71" t="s">
+      <c r="L89" s="64" t="s">
         <v>1558</v>
       </c>
-      <c r="M89" s="71" t="s">
+      <c r="M89" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="N89" s="71" t="s">
+      <c r="N89" s="64" t="s">
         <v>1559</v>
       </c>
-      <c r="O89" s="71" t="s">
+      <c r="O89" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P89" s="71" t="s">
+      <c r="P89" s="64" t="s">
         <v>1481</v>
       </c>
-      <c r="Q89" s="71" t="s">
+      <c r="Q89" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="R89" s="71" t="s">
+      <c r="R89" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="S89" s="72"/>
+      <c r="S89" s="21"/>
       <c r="V89" s="7"/>
     </row>
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22040,52 +22050,52 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="71" t="s">
+      <c r="D93" s="64" t="s">
         <v>1561</v>
       </c>
-      <c r="E93" s="71" t="s">
+      <c r="E93" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F93" s="71" t="s">
+      <c r="F93" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="G93" s="71" t="s">
+      <c r="G93" s="64" t="s">
         <v>1562</v>
       </c>
-      <c r="H93" s="71" t="s">
+      <c r="H93" s="64" t="s">
         <v>1434</v>
       </c>
-      <c r="I93" s="71" t="s">
+      <c r="I93" s="64" t="s">
         <v>1563</v>
       </c>
-      <c r="J93" s="71" t="s">
+      <c r="J93" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="K93" s="71" t="s">
+      <c r="K93" s="64" t="s">
         <v>1564</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="64" t="s">
         <v>1565</v>
       </c>
-      <c r="M93" s="71" t="s">
+      <c r="M93" s="64" t="s">
         <v>1566</v>
       </c>
-      <c r="N93" s="71" t="s">
+      <c r="N93" s="64" t="s">
         <v>1406</v>
       </c>
-      <c r="O93" s="71" t="s">
+      <c r="O93" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P93" s="71" t="s">
+      <c r="P93" s="64" t="s">
         <v>1567</v>
       </c>
-      <c r="Q93" s="71" t="s">
+      <c r="Q93" s="64" t="s">
         <v>1568</v>
       </c>
-      <c r="R93" s="71" t="s">
+      <c r="R93" s="64" t="s">
         <v>1569</v>
       </c>
-      <c r="S93" s="72"/>
+      <c r="S93" s="21"/>
       <c r="V93" s="7"/>
     </row>
     <row r="94" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22205,52 +22215,52 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="64" t="s">
         <v>1570</v>
       </c>
-      <c r="E97" s="71" t="s">
+      <c r="E97" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="F97" s="71" t="s">
+      <c r="F97" s="64" t="s">
         <v>1571</v>
       </c>
-      <c r="G97" s="71" t="s">
+      <c r="G97" s="64" t="s">
         <v>1572</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="H97" s="64" t="s">
         <v>1573</v>
       </c>
-      <c r="I97" s="71" t="s">
+      <c r="I97" s="64" t="s">
         <v>1401</v>
       </c>
-      <c r="J97" s="71" t="s">
+      <c r="J97" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="K97" s="71" t="s">
+      <c r="K97" s="64" t="s">
         <v>1574</v>
       </c>
-      <c r="L97" s="71" t="s">
+      <c r="L97" s="64" t="s">
         <v>1574</v>
       </c>
-      <c r="M97" s="71" t="s">
+      <c r="M97" s="64" t="s">
         <v>1575</v>
       </c>
-      <c r="N97" s="71" t="s">
+      <c r="N97" s="64" t="s">
         <v>1575</v>
       </c>
-      <c r="O97" s="71" t="s">
+      <c r="O97" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="P97" s="71" t="s">
+      <c r="P97" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="Q97" s="71" t="s">
+      <c r="Q97" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="R97" s="71" t="s">
+      <c r="R97" s="64" t="s">
         <v>1405</v>
       </c>
-      <c r="S97" s="72"/>
+      <c r="S97" s="21"/>
       <c r="V97" s="7"/>
     </row>
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22368,52 +22378,52 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="71" t="s">
+      <c r="D101" s="64" t="s">
         <v>1576</v>
       </c>
-      <c r="E101" s="71" t="s">
+      <c r="E101" s="64" t="s">
         <v>1414</v>
       </c>
-      <c r="F101" s="71" t="s">
+      <c r="F101" s="64" t="s">
         <v>1526</v>
       </c>
-      <c r="G101" s="71" t="s">
+      <c r="G101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H101" s="71" t="s">
+      <c r="H101" s="64" t="s">
         <v>1577</v>
       </c>
-      <c r="I101" s="71" t="s">
+      <c r="I101" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="J101" s="71" t="s">
+      <c r="J101" s="64" t="s">
         <v>1500</v>
       </c>
-      <c r="K101" s="71" t="s">
+      <c r="K101" s="64" t="s">
         <v>1578</v>
       </c>
-      <c r="L101" s="71" t="s">
+      <c r="L101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M101" s="71" t="s">
+      <c r="M101" s="64" t="s">
         <v>1579</v>
       </c>
-      <c r="N101" s="71" t="s">
+      <c r="N101" s="64" t="s">
         <v>1561</v>
       </c>
-      <c r="O101" s="71" t="s">
+      <c r="O101" s="64" t="s">
         <v>1580</v>
       </c>
-      <c r="P101" s="71" t="s">
+      <c r="P101" s="64" t="s">
         <v>1581</v>
       </c>
-      <c r="Q101" s="71" t="s">
+      <c r="Q101" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R101" s="71" t="s">
+      <c r="R101" s="64" t="s">
         <v>1435</v>
       </c>
-      <c r="S101" s="72"/>
+      <c r="S101" s="21"/>
       <c r="V101" s="7"/>
     </row>
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22537,52 +22547,52 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="64" t="s">
         <v>1582</v>
       </c>
-      <c r="E105" s="71" t="s">
+      <c r="E105" s="64" t="s">
         <v>1583</v>
       </c>
-      <c r="F105" s="71" t="s">
+      <c r="F105" s="64" t="s">
         <v>1584</v>
       </c>
-      <c r="G105" s="71" t="s">
+      <c r="G105" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H105" s="71" t="s">
+      <c r="H105" s="64" t="s">
         <v>1585</v>
       </c>
-      <c r="I105" s="71" t="s">
+      <c r="I105" s="64" t="s">
         <v>1586</v>
       </c>
-      <c r="J105" s="71" t="s">
+      <c r="J105" s="64" t="s">
         <v>1587</v>
       </c>
-      <c r="K105" s="71" t="s">
+      <c r="K105" s="64" t="s">
         <v>1588</v>
       </c>
-      <c r="L105" s="71" t="s">
+      <c r="L105" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M105" s="71" t="s">
+      <c r="M105" s="64" t="s">
         <v>1407</v>
       </c>
-      <c r="N105" s="71" t="s">
+      <c r="N105" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="O105" s="71" t="s">
+      <c r="O105" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="P105" s="71" t="s">
+      <c r="P105" s="64" t="s">
         <v>1426</v>
       </c>
-      <c r="Q105" s="71" t="s">
+      <c r="Q105" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="R105" s="71" t="s">
+      <c r="R105" s="64" t="s">
         <v>1545</v>
       </c>
-      <c r="S105" s="72"/>
+      <c r="S105" s="21"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22702,52 +22712,52 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="71" t="s">
+      <c r="D109" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="E109" s="71" t="s">
+      <c r="E109" s="64" t="s">
         <v>1480</v>
       </c>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="G109" s="71" t="s">
+      <c r="G109" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H109" s="71" t="s">
+      <c r="H109" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I109" s="71" t="s">
+      <c r="I109" s="64" t="s">
         <v>1408</v>
       </c>
-      <c r="J109" s="71" t="s">
+      <c r="J109" s="64" t="s">
         <v>1590</v>
       </c>
-      <c r="K109" s="71" t="s">
+      <c r="K109" s="64" t="s">
         <v>1591</v>
       </c>
-      <c r="L109" s="71" t="s">
+      <c r="L109" s="64" t="s">
         <v>1592</v>
       </c>
-      <c r="M109" s="71" t="s">
+      <c r="M109" s="64" t="s">
         <v>1593</v>
       </c>
-      <c r="N109" s="71" t="s">
+      <c r="N109" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="O109" s="71" t="s">
+      <c r="O109" s="64" t="s">
         <v>1594</v>
       </c>
-      <c r="P109" s="71" t="s">
+      <c r="P109" s="64" t="s">
         <v>1595</v>
       </c>
-      <c r="Q109" s="71" t="s">
+      <c r="Q109" s="64" t="s">
         <v>1596</v>
       </c>
-      <c r="R109" s="71" t="s">
+      <c r="R109" s="64" t="s">
         <v>1597</v>
       </c>
-      <c r="S109" s="72"/>
+      <c r="S109" s="21"/>
       <c r="V109" s="7"/>
     </row>
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -22865,46 +22875,46 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="E113" s="71" t="s">
+      <c r="E113" s="64" t="s">
         <v>1598</v>
       </c>
-      <c r="F113" s="71" t="s">
+      <c r="F113" s="64" t="s">
         <v>1599</v>
       </c>
-      <c r="G113" s="71" t="s">
+      <c r="G113" s="64" t="s">
         <v>1452</v>
       </c>
-      <c r="H113" s="71" t="s">
+      <c r="H113" s="64" t="s">
         <v>1421</v>
       </c>
-      <c r="I113" s="71" t="s">
+      <c r="I113" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="J113" s="71" t="s">
+      <c r="J113" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="K113" s="71" t="s">
+      <c r="K113" s="64" t="s">
         <v>1600</v>
       </c>
-      <c r="L113" s="71" t="s">
+      <c r="L113" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="M113" s="71" t="s">
+      <c r="M113" s="64" t="s">
         <v>1601</v>
       </c>
-      <c r="N113" s="71" t="s">
+      <c r="N113" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="O113" s="71" t="s">
+      <c r="O113" s="64" t="s">
         <v>1442</v>
       </c>
-      <c r="P113" s="71" t="s">
+      <c r="P113" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="Q113" s="71" t="str">
+      <c r="Q113" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -22998,7 +23008,7 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="71" t="str">
+      <c r="D117" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -23113,52 +23123,52 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="71" t="s">
+      <c r="D121" s="64" t="s">
         <v>1453</v>
       </c>
-      <c r="E121" s="71" t="s">
+      <c r="E121" s="64" t="s">
         <v>1428</v>
       </c>
-      <c r="F121" s="71" t="s">
+      <c r="F121" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="G121" s="71" t="s">
+      <c r="G121" s="64" t="s">
         <v>1482</v>
       </c>
-      <c r="H121" s="71" t="s">
+      <c r="H121" s="64" t="s">
         <v>1451</v>
       </c>
-      <c r="I121" s="71" t="s">
+      <c r="I121" s="64" t="s">
         <v>1602</v>
       </c>
-      <c r="J121" s="71" t="s">
+      <c r="J121" s="64" t="s">
         <v>1443</v>
       </c>
-      <c r="K121" s="71" t="s">
+      <c r="K121" s="64" t="s">
         <v>1603</v>
       </c>
-      <c r="L121" s="71" t="s">
+      <c r="L121" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M121" s="71" t="s">
+      <c r="M121" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="N121" s="71" t="s">
+      <c r="N121" s="64" t="s">
         <v>1590</v>
       </c>
-      <c r="O121" s="71" t="s">
+      <c r="O121" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P121" s="71" t="s">
+      <c r="P121" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="Q121" s="71" t="s">
+      <c r="Q121" s="64" t="s">
         <v>1458</v>
       </c>
-      <c r="R121" s="71" t="s">
+      <c r="R121" s="64" t="s">
         <v>1604</v>
       </c>
-      <c r="S121" s="72"/>
+      <c r="S121" s="21"/>
       <c r="V121" s="7"/>
     </row>
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23278,52 +23288,52 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="71" t="s">
+      <c r="D125" s="64" t="s">
         <v>1459</v>
       </c>
-      <c r="E125" s="71" t="s">
+      <c r="E125" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="F125" s="71" t="s">
+      <c r="F125" s="64" t="s">
         <v>1411</v>
       </c>
-      <c r="G125" s="71" t="s">
+      <c r="G125" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H125" s="71" t="s">
+      <c r="H125" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="I125" s="71" t="s">
+      <c r="I125" s="64" t="s">
         <v>1447</v>
       </c>
-      <c r="J125" s="71" t="s">
+      <c r="J125" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="K125" s="71" t="s">
+      <c r="K125" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="L125" s="71" t="s">
+      <c r="L125" s="64" t="s">
         <v>1410</v>
       </c>
-      <c r="M125" s="71" t="s">
+      <c r="M125" s="64" t="s">
         <v>1513</v>
       </c>
-      <c r="N125" s="71" t="s">
+      <c r="N125" s="64" t="s">
         <v>1600</v>
       </c>
-      <c r="O125" s="71" t="s">
+      <c r="O125" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="P125" s="71" t="s">
+      <c r="P125" s="64" t="s">
         <v>1436</v>
       </c>
-      <c r="Q125" s="71" t="s">
+      <c r="Q125" s="64" t="s">
         <v>1410</v>
       </c>
-      <c r="R125" s="71" t="s">
+      <c r="R125" s="64" t="s">
         <v>1438</v>
       </c>
-      <c r="S125" s="72"/>
+      <c r="S125" s="21"/>
       <c r="V125" s="7"/>
     </row>
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23439,52 +23449,52 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="71" t="s">
+      <c r="D129" s="64" t="s">
         <v>1455</v>
       </c>
-      <c r="E129" s="71" t="s">
+      <c r="E129" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="F129" s="71" t="s">
+      <c r="F129" s="64" t="s">
         <v>1605</v>
       </c>
-      <c r="G129" s="71" t="s">
+      <c r="G129" s="64" t="s">
         <v>1606</v>
       </c>
-      <c r="H129" s="71" t="s">
+      <c r="H129" s="64" t="s">
         <v>1607</v>
       </c>
-      <c r="I129" s="71" t="s">
+      <c r="I129" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="J129" s="71" t="s">
+      <c r="J129" s="64" t="s">
         <v>1608</v>
       </c>
-      <c r="K129" s="71" t="s">
+      <c r="K129" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="L129" s="71" t="s">
+      <c r="L129" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="M129" s="71" t="s">
+      <c r="M129" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="N129" s="71" t="s">
+      <c r="N129" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="O129" s="71" t="s">
+      <c r="O129" s="64" t="s">
         <v>1609</v>
       </c>
-      <c r="P129" s="71" t="s">
+      <c r="P129" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="Q129" s="71" t="s">
+      <c r="Q129" s="64" t="s">
         <v>1610</v>
       </c>
-      <c r="R129" s="71" t="s">
+      <c r="R129" s="64" t="s">
         <v>1490</v>
       </c>
-      <c r="S129" s="72"/>
+      <c r="S129" s="21"/>
       <c r="V129" s="7"/>
     </row>
     <row r="130" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23600,52 +23610,52 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="71" t="s">
+      <c r="D133" s="64" t="s">
         <v>1487</v>
       </c>
-      <c r="E133" s="71" t="s">
+      <c r="E133" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="F133" s="71" t="s">
+      <c r="F133" s="64" t="s">
         <v>1488</v>
       </c>
-      <c r="G133" s="71" t="s">
+      <c r="G133" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="H133" s="71" t="s">
+      <c r="H133" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I133" s="71" t="s">
+      <c r="I133" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="J133" s="71" t="s">
+      <c r="J133" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="K133" s="71" t="s">
+      <c r="K133" s="64" t="s">
         <v>1611</v>
       </c>
-      <c r="L133" s="71" t="s">
+      <c r="L133" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="M133" s="71" t="s">
+      <c r="M133" s="64" t="s">
         <v>1417</v>
       </c>
-      <c r="N133" s="71" t="s">
+      <c r="N133" s="64" t="s">
         <v>1612</v>
       </c>
-      <c r="O133" s="71" t="s">
+      <c r="O133" s="64" t="s">
         <v>1415</v>
       </c>
-      <c r="P133" s="71" t="s">
+      <c r="P133" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="Q133" s="71" t="s">
+      <c r="Q133" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="R133" s="71" t="s">
+      <c r="R133" s="64" t="s">
         <v>1613</v>
       </c>
-      <c r="S133" s="72"/>
+      <c r="S133" s="21"/>
       <c r="V133" s="7"/>
     </row>
     <row r="134" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23761,52 +23771,52 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="64" t="s">
         <v>1415</v>
       </c>
-      <c r="E137" s="71" t="s">
+      <c r="E137" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="64" t="s">
         <v>1409</v>
       </c>
-      <c r="G137" s="71" t="s">
+      <c r="G137" s="64" t="s">
         <v>1439</v>
       </c>
-      <c r="H137" s="71" t="s">
+      <c r="H137" s="64" t="s">
         <v>1501</v>
       </c>
-      <c r="I137" s="71" t="s">
+      <c r="I137" s="64" t="s">
         <v>1589</v>
       </c>
-      <c r="J137" s="71" t="s">
+      <c r="J137" s="64" t="s">
         <v>1456</v>
       </c>
-      <c r="K137" s="71" t="s">
+      <c r="K137" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="L137" s="71" t="s">
+      <c r="L137" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="M137" s="71" t="s">
+      <c r="M137" s="64" t="s">
         <v>1614</v>
       </c>
-      <c r="N137" s="71" t="s">
+      <c r="N137" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="O137" s="71" t="s">
+      <c r="O137" s="64" t="s">
         <v>1412</v>
       </c>
-      <c r="P137" s="71" t="s">
+      <c r="P137" s="64" t="s">
         <v>1615</v>
       </c>
-      <c r="Q137" s="71" t="s">
+      <c r="Q137" s="64" t="s">
         <v>1616</v>
       </c>
-      <c r="R137" s="71" t="s">
+      <c r="R137" s="64" t="s">
         <v>1444</v>
       </c>
-      <c r="S137" s="72"/>
+      <c r="S137" s="21"/>
       <c r="V137" s="7"/>
     </row>
     <row r="138" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -23930,52 +23940,52 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="71" t="s">
+      <c r="D141" s="64" t="s">
         <v>1445</v>
       </c>
-      <c r="E141" s="71" t="s">
+      <c r="E141" s="64" t="s">
         <v>1617</v>
       </c>
-      <c r="F141" s="71" t="s">
+      <c r="F141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="G141" s="71" t="s">
+      <c r="G141" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="H141" s="71" t="s">
+      <c r="H141" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="I141" s="71" t="s">
+      <c r="I141" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="J141" s="71" t="s">
+      <c r="J141" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="K141" s="71" t="s">
+      <c r="K141" s="64" t="s">
         <v>1549</v>
       </c>
-      <c r="L141" s="71" t="s">
+      <c r="L141" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="M141" s="71" t="s">
+      <c r="M141" s="64" t="s">
         <v>1454</v>
       </c>
-      <c r="N141" s="71" t="s">
+      <c r="N141" s="64" t="s">
         <v>1419</v>
       </c>
-      <c r="O141" s="71" t="s">
+      <c r="O141" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="P141" s="71" t="s">
+      <c r="P141" s="64" t="s">
         <v>1396</v>
       </c>
-      <c r="Q141" s="71" t="s">
+      <c r="Q141" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="R141" s="71" t="s">
+      <c r="R141" s="64" t="s">
         <v>1555</v>
       </c>
-      <c r="S141" s="72"/>
+      <c r="S141" s="21"/>
       <c r="V141" s="7"/>
     </row>
     <row r="142" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24099,52 +24109,52 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="64" t="s">
         <v>1427</v>
       </c>
-      <c r="E145" s="71" t="s">
+      <c r="E145" s="64" t="s">
         <v>1446</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="64" t="s">
         <v>1618</v>
       </c>
-      <c r="G145" s="71" t="s">
+      <c r="G145" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="H145" s="71" t="s">
+      <c r="H145" s="64" t="s">
         <v>1619</v>
       </c>
-      <c r="I145" s="71" t="s">
+      <c r="I145" s="64" t="s">
         <v>1448</v>
       </c>
-      <c r="J145" s="71" t="s">
+      <c r="J145" s="64" t="s">
         <v>1620</v>
       </c>
-      <c r="K145" s="71" t="s">
+      <c r="K145" s="64" t="s">
         <v>1460</v>
       </c>
-      <c r="L145" s="71" t="s">
+      <c r="L145" s="64" t="s">
         <v>1429</v>
       </c>
-      <c r="M145" s="71" t="s">
+      <c r="M145" s="64" t="s">
         <v>1392</v>
       </c>
-      <c r="N145" s="71" t="s">
+      <c r="N145" s="64" t="s">
         <v>1621</v>
       </c>
-      <c r="O145" s="71" t="s">
+      <c r="O145" s="64" t="s">
         <v>1622</v>
       </c>
-      <c r="P145" s="71" t="s">
+      <c r="P145" s="64" t="s">
         <v>1430</v>
       </c>
-      <c r="Q145" s="71" t="s">
+      <c r="Q145" s="64" t="s">
         <v>1623</v>
       </c>
-      <c r="R145" s="71" t="s">
+      <c r="R145" s="64" t="s">
         <v>1515</v>
       </c>
-      <c r="S145" s="72"/>
+      <c r="S145" s="21"/>
       <c r="V145" s="7"/>
     </row>
     <row r="146" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -24232,7 +24242,7 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="71" t="str">
+      <c r="D149" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -24319,7 +24329,7 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="71" t="str">
+      <c r="D153" s="64" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -24424,34 +24434,34 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="71" t="s">
+      <c r="D157" s="64" t="s">
         <v>1456</v>
       </c>
-      <c r="E157" s="71" t="s">
+      <c r="E157" s="64" t="s">
         <v>1624</v>
       </c>
-      <c r="F157" s="71" t="s">
+      <c r="F157" s="64" t="s">
         <v>1391</v>
       </c>
-      <c r="G157" s="71" t="s">
+      <c r="G157" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="H157" s="71" t="s">
+      <c r="H157" s="64" t="s">
         <v>1520</v>
       </c>
-      <c r="I157" s="71" t="s">
+      <c r="I157" s="64" t="s">
         <v>1625</v>
       </c>
-      <c r="J157" s="71" t="s">
+      <c r="J157" s="64" t="s">
         <v>1626</v>
       </c>
-      <c r="K157" s="71" t="s">
+      <c r="K157" s="64" t="s">
         <v>1418</v>
       </c>
-      <c r="L157" s="71" t="s">
+      <c r="L157" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="M157" s="71" t="s">
+      <c r="M157" s="64" t="s">
         <v>38</v>
       </c>
       <c r="N157" s="64"/>
@@ -45038,19 +45048,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="93">
+    <cfRule type="expression" dxfId="149" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="57">
+    <cfRule type="expression" dxfId="147" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -45062,11 +45072,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="53">
+    <cfRule type="expression" dxfId="143" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -45094,35 +45104,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="45">
+    <cfRule type="expression" dxfId="135" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="43">
+    <cfRule type="expression" dxfId="133" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="41">
+    <cfRule type="expression" dxfId="131" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="39">
+    <cfRule type="expression" dxfId="129" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -45158,11 +45168,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="29">
+    <cfRule type="expression" dxfId="119" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -45182,19 +45192,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="113" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="21">
+    <cfRule type="expression" dxfId="111" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -45222,11 +45232,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="103" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -45238,19 +45248,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="9">
+    <cfRule type="expression" dxfId="99" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="97" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -45278,43 +45288,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="101">
+    <cfRule type="expression" dxfId="89" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="101">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="99">
+    <cfRule type="expression" dxfId="87" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="99">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="100">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="97">
+    <cfRule type="expression" dxfId="85" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="83" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="95">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="91">
+    <cfRule type="expression" dxfId="81" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="91">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="92">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -45382,43 +45392,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="73">
+    <cfRule type="expression" dxfId="63" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="61" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="59" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="67">
+    <cfRule type="expression" dxfId="57" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="55" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
@@ -53676,43 +53686,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="41" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="39" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="37" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="35" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -53724,19 +53734,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -53748,19 +53758,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -53772,35 +53782,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -53812,11 +53822,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
